--- a/Code/Results/Cases/Case_0_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9206405103021916</v>
+        <v>0.9206405103021911</v>
       </c>
       <c r="D2">
-        <v>0.9349251584577792</v>
+        <v>0.9349251584577787</v>
       </c>
       <c r="E2">
-        <v>0.9371418590553418</v>
+        <v>0.9371418590553411</v>
       </c>
       <c r="F2">
-        <v>0.9190664593602074</v>
+        <v>0.9190664593602066</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.031599664601562</v>
       </c>
       <c r="J2">
-        <v>0.9454848463198591</v>
+        <v>0.9454848463198586</v>
       </c>
       <c r="K2">
-        <v>0.9473722458092246</v>
+        <v>0.9473722458092242</v>
       </c>
       <c r="L2">
-        <v>0.9495523979998081</v>
+        <v>0.9495523979998074</v>
       </c>
       <c r="M2">
-        <v>0.9317816727083802</v>
+        <v>0.9317816727083795</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9355259847226729</v>
+        <v>0.9355259847226737</v>
       </c>
       <c r="D3">
-        <v>0.9480177388252293</v>
+        <v>0.94801773882523</v>
       </c>
       <c r="E3">
-        <v>0.9499424923154873</v>
+        <v>0.9499424923154879</v>
       </c>
       <c r="F3">
-        <v>0.934878931701052</v>
+        <v>0.9348789317010531</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.034813411064505</v>
       </c>
       <c r="J3">
-        <v>0.9579431391999563</v>
+        <v>0.957943139199957</v>
       </c>
       <c r="K3">
-        <v>0.959361982116694</v>
+        <v>0.9593619821166948</v>
       </c>
       <c r="L3">
-        <v>0.9612586361912071</v>
+        <v>0.9612586361912079</v>
       </c>
       <c r="M3">
-        <v>0.946418925619399</v>
+        <v>0.9464189256193999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9445106849382404</v>
+        <v>0.94451068493824</v>
       </c>
       <c r="D4">
-        <v>0.9559296482041635</v>
+        <v>0.9559296482041629</v>
       </c>
       <c r="E4">
-        <v>0.9576816414051963</v>
+        <v>0.9576816414051956</v>
       </c>
       <c r="F4">
-        <v>0.944439218426066</v>
+        <v>0.944439218426065</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.036711396435926</v>
       </c>
       <c r="J4">
-        <v>0.9654488168521468</v>
+        <v>0.9654488168521461</v>
       </c>
       <c r="K4">
-        <v>0.9665907676238886</v>
+        <v>0.966590767623888</v>
       </c>
       <c r="L4">
-        <v>0.9683191494115929</v>
+        <v>0.9683191494115924</v>
       </c>
       <c r="M4">
-        <v>0.9552579323255634</v>
+        <v>0.9552579323255628</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9481515169447439</v>
+        <v>0.9481515169447448</v>
       </c>
       <c r="D5">
-        <v>0.959137678559344</v>
+        <v>0.9591376785593448</v>
       </c>
       <c r="E5">
-        <v>0.9608204811798263</v>
+        <v>0.9608204811798268</v>
       </c>
       <c r="F5">
-        <v>0.9483171851608979</v>
+        <v>0.9483171851608989</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.037469927574852</v>
       </c>
       <c r="J5">
-        <v>0.9684867951265738</v>
+        <v>0.9684867951265747</v>
       </c>
       <c r="K5">
-        <v>0.9695179260365181</v>
+        <v>0.9695179260365187</v>
       </c>
       <c r="L5">
-        <v>0.971178808776386</v>
+        <v>0.9711788087763865</v>
       </c>
       <c r="M5">
-        <v>0.9588407131525782</v>
+        <v>0.958840713152579</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9487553034969836</v>
+        <v>0.9487553034969864</v>
       </c>
       <c r="D6">
-        <v>0.9596697950641314</v>
+        <v>0.9596697950641342</v>
       </c>
       <c r="E6">
-        <v>0.9613411710640059</v>
+        <v>0.9613411710640085</v>
       </c>
       <c r="F6">
-        <v>0.9489605278293409</v>
+        <v>0.9489605278293437</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037595082235525</v>
+        <v>1.037595082235526</v>
       </c>
       <c r="J6">
-        <v>0.9689903947284378</v>
+        <v>0.9689903947284404</v>
       </c>
       <c r="K6">
-        <v>0.9700032281481739</v>
+        <v>0.9700032281481765</v>
       </c>
       <c r="L6">
-        <v>0.971652957806764</v>
+        <v>0.9716529578067666</v>
       </c>
       <c r="M6">
-        <v>0.9594349307196931</v>
+        <v>0.959434930719696</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.944559847901575</v>
+        <v>0.9445598479015749</v>
       </c>
       <c r="D7">
         <v>0.9559729596844091</v>
       </c>
       <c r="E7">
-        <v>0.9577240153493086</v>
+        <v>0.9577240153493083</v>
       </c>
       <c r="F7">
-        <v>0.9444915679058754</v>
+        <v>0.9444915679058759</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.036721681932851</v>
       </c>
       <c r="J7">
-        <v>0.9654898535554438</v>
+        <v>0.9654898535554437</v>
       </c>
       <c r="K7">
         <v>0.9666303024267394</v>
       </c>
       <c r="L7">
-        <v>0.9683577700027302</v>
+        <v>0.9683577700027298</v>
       </c>
       <c r="M7">
-        <v>0.9553063074774772</v>
+        <v>0.9553063074774775</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9258176905299592</v>
+        <v>0.92581769052996</v>
       </c>
       <c r="D8">
-        <v>0.9394765036586321</v>
+        <v>0.9394765036586329</v>
       </c>
       <c r="E8">
-        <v>0.9415909066674844</v>
+        <v>0.9415909066674856</v>
       </c>
       <c r="F8">
-        <v>0.9245625964692716</v>
+        <v>0.9245625964692727</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.032726091737581</v>
       </c>
       <c r="J8">
-        <v>0.9498207779085462</v>
+        <v>0.949820777908547</v>
       </c>
       <c r="K8">
-        <v>0.9515439025643535</v>
+        <v>0.9515439025643543</v>
       </c>
       <c r="L8">
-        <v>0.9536248420521635</v>
+        <v>0.9536248420521647</v>
       </c>
       <c r="M8">
-        <v>0.9368716241044472</v>
+        <v>0.9368716241044484</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8867004762675947</v>
+        <v>0.8867004762675952</v>
       </c>
       <c r="D9">
-        <v>0.9051525153458198</v>
+        <v>0.9051525153458204</v>
       </c>
       <c r="E9">
-        <v>0.9080569162584949</v>
+        <v>0.9080569162584956</v>
       </c>
       <c r="F9">
-        <v>0.8831084439447331</v>
+        <v>0.8831084439447338</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02404943652707</v>
+        <v>1.024049436527069</v>
       </c>
       <c r="J9">
-        <v>0.917003282492041</v>
+        <v>0.9170032824920415</v>
       </c>
       <c r="K9">
-        <v>0.9199978857817074</v>
+        <v>0.919997885781708</v>
       </c>
       <c r="L9">
-        <v>0.9228414447154795</v>
+        <v>0.9228414447154799</v>
       </c>
       <c r="M9">
-        <v>0.8984329939805176</v>
+        <v>0.898432993980518</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8541234685288479</v>
+        <v>0.854123468528844</v>
       </c>
       <c r="D10">
-        <v>0.8766932944357628</v>
+        <v>0.8766932944357593</v>
       </c>
       <c r="E10">
-        <v>0.8802799198654645</v>
+        <v>0.8802799198654608</v>
       </c>
       <c r="F10">
-        <v>0.8486770076867837</v>
+        <v>0.84867700768678</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.01665367926507</v>
       </c>
       <c r="J10">
-        <v>0.8896149042426827</v>
+        <v>0.8896149042426793</v>
       </c>
       <c r="K10">
-        <v>0.8937136197665219</v>
+        <v>0.8937136197665185</v>
       </c>
       <c r="L10">
-        <v>0.8972089460536148</v>
+        <v>0.8972089460536112</v>
       </c>
       <c r="M10">
-        <v>0.8664468159398712</v>
+        <v>0.8664468159398674</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8374830887054651</v>
+        <v>0.8374830887054665</v>
       </c>
       <c r="D11">
-        <v>0.8622067489447502</v>
+        <v>0.8622067489447515</v>
       </c>
       <c r="E11">
-        <v>0.8661481333653416</v>
+        <v>0.8661481333653427</v>
       </c>
       <c r="F11">
-        <v>0.8311065269627488</v>
+        <v>0.8311065269627502</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.012862852457914</v>
+        <v>1.012862852457915</v>
       </c>
       <c r="J11">
-        <v>0.8756214483974002</v>
+        <v>0.8756214483974012</v>
       </c>
       <c r="K11">
-        <v>0.8802970575108165</v>
+        <v>0.8802970575108177</v>
       </c>
       <c r="L11">
-        <v>0.8841286668518713</v>
+        <v>0.8841286668518724</v>
       </c>
       <c r="M11">
-        <v>0.850113567638437</v>
+        <v>0.8501135676384385</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8307664219994935</v>
+        <v>0.8307664219994938</v>
       </c>
       <c r="D12">
-        <v>0.8563699736976307</v>
+        <v>0.8563699736976308</v>
       </c>
       <c r="E12">
         <v>0.8604555177143582</v>
       </c>
       <c r="F12">
-        <v>0.8240160529842817</v>
+        <v>0.8240160529842818</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>0.8699743364350058</v>
       </c>
       <c r="K12">
-        <v>0.8748849973413788</v>
+        <v>0.8748849973413793</v>
       </c>
       <c r="L12">
-        <v>0.8788527211226311</v>
+        <v>0.8788527211226312</v>
       </c>
       <c r="M12">
-        <v>0.8435214587893862</v>
+        <v>0.8435214587893863</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8322350634332655</v>
+        <v>0.8322350634332666</v>
       </c>
       <c r="D13">
-        <v>0.8576456864735164</v>
+        <v>0.8576456864735171</v>
       </c>
       <c r="E13">
-        <v>0.8616996659840691</v>
+        <v>0.8616996659840702</v>
       </c>
       <c r="F13">
-        <v>0.8255663818823997</v>
+        <v>0.8255663818824005</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.011668767950655</v>
       </c>
       <c r="J13">
-        <v>0.8712090224669605</v>
+        <v>0.8712090224669617</v>
       </c>
       <c r="K13">
-        <v>0.8760681845982103</v>
+        <v>0.8760681845982115</v>
       </c>
       <c r="L13">
-        <v>0.8800061324141895</v>
+        <v>0.8800061324141905</v>
       </c>
       <c r="M13">
-        <v>0.8449628445046837</v>
+        <v>0.8449628445046845</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8369400833910143</v>
+        <v>0.8369400833910144</v>
       </c>
       <c r="D14">
-        <v>0.861734647051922</v>
+        <v>0.8617346470519225</v>
       </c>
       <c r="E14">
-        <v>0.8656876668268139</v>
+        <v>0.8656876668268143</v>
       </c>
       <c r="F14">
-        <v>0.8305332776426066</v>
+        <v>0.830533277642607</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.012739248627775</v>
       </c>
       <c r="J14">
-        <v>0.8751648743995307</v>
+        <v>0.8751648743995313</v>
       </c>
       <c r="K14">
-        <v>0.8798594408308761</v>
+        <v>0.8798594408308762</v>
       </c>
       <c r="L14">
-        <v>0.8837020478634301</v>
+        <v>0.8837020478634307</v>
       </c>
       <c r="M14">
-        <v>0.8495806224717068</v>
+        <v>0.8495806224717072</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8397616684625577</v>
+        <v>0.8397616684625547</v>
       </c>
       <c r="D15">
-        <v>0.864188237754981</v>
+        <v>0.8641882377549784</v>
       </c>
       <c r="E15">
-        <v>0.8680808356658656</v>
+        <v>0.8680808356658628</v>
       </c>
       <c r="F15">
-        <v>0.8335120741380183</v>
+        <v>0.8335120741380151</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.013381635910872</v>
       </c>
       <c r="J15">
-        <v>0.8775373998411998</v>
+        <v>0.8775373998411974</v>
       </c>
       <c r="K15">
-        <v>0.8821335480140453</v>
+        <v>0.882133548014043</v>
       </c>
       <c r="L15">
-        <v>0.8859190223787258</v>
+        <v>0.885919022378723</v>
       </c>
       <c r="M15">
-        <v>0.8523499541037531</v>
+        <v>0.8523499541037503</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8551632736163288</v>
+        <v>0.8551632736163292</v>
       </c>
       <c r="D16">
-        <v>0.8775997007969017</v>
+        <v>0.8775997007969022</v>
       </c>
       <c r="E16">
-        <v>0.8811642833616092</v>
+        <v>0.8811642833616097</v>
       </c>
       <c r="F16">
-        <v>0.8497752052101871</v>
+        <v>0.8497752052101876</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.016890580799932</v>
       </c>
       <c r="J16">
-        <v>0.8904893567690957</v>
+        <v>0.8904893567690961</v>
       </c>
       <c r="K16">
-        <v>0.894552294505829</v>
+        <v>0.8945522945058293</v>
       </c>
       <c r="L16">
-        <v>0.8980266650363817</v>
+        <v>0.8980266650363822</v>
       </c>
       <c r="M16">
-        <v>0.8674675206452673</v>
+        <v>0.8674675206452677</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8640625191652406</v>
+        <v>0.8640625191652412</v>
       </c>
       <c r="D17">
-        <v>0.8853627287729072</v>
+        <v>0.8853627287729081</v>
       </c>
       <c r="E17">
-        <v>0.8887393200465225</v>
+        <v>0.8887393200465233</v>
       </c>
       <c r="F17">
-        <v>0.8591759668947646</v>
+        <v>0.8591759668947658</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.018917004949509</v>
       </c>
       <c r="J17">
-        <v>0.8979731535925597</v>
+        <v>0.8979731535925606</v>
       </c>
       <c r="K17">
-        <v>0.9017312600022491</v>
+        <v>0.9017312600022499</v>
       </c>
       <c r="L17">
-        <v>0.9050266267416368</v>
+        <v>0.9050266267416376</v>
       </c>
       <c r="M17">
-        <v>0.8762038489302165</v>
+        <v>0.8762038489302175</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8690223128445959</v>
+        <v>0.869022312844596</v>
       </c>
       <c r="D18">
-        <v>0.8896934440748872</v>
+        <v>0.8896934440748878</v>
       </c>
       <c r="E18">
-        <v>0.8929658072157245</v>
+        <v>0.8929658072157248</v>
       </c>
       <c r="F18">
-        <v>0.864416834625935</v>
+        <v>0.8644168346259352</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.020044951593793</v>
       </c>
       <c r="J18">
-        <v>0.9021436536730637</v>
+        <v>0.9021436536730639</v>
       </c>
       <c r="K18">
-        <v>0.9057329728593652</v>
+        <v>0.9057329728593657</v>
       </c>
       <c r="L18">
-        <v>0.9089288777397969</v>
+        <v>0.9089288777397974</v>
       </c>
       <c r="M18">
-        <v>0.8810733254545781</v>
+        <v>0.8810733254545784</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8706776370077803</v>
+        <v>0.8706776370077809</v>
       </c>
       <c r="D19">
-        <v>0.891139462471371</v>
+        <v>0.8911394624713717</v>
       </c>
       <c r="E19">
-        <v>0.8943771311917316</v>
+        <v>0.8943771311917323</v>
       </c>
       <c r="F19">
-        <v>0.8661662493722373</v>
+        <v>0.8661662493722381</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.02042107608056</v>
       </c>
       <c r="J19">
-        <v>0.9035354477336225</v>
+        <v>0.9035354477336232</v>
       </c>
       <c r="K19">
-        <v>0.9070686162435665</v>
+        <v>0.9070686162435673</v>
       </c>
       <c r="L19">
-        <v>0.9102313793287802</v>
+        <v>0.9102313793287808</v>
       </c>
       <c r="M19">
-        <v>0.8826985913461729</v>
+        <v>0.8826985913461737</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8631324415287875</v>
+        <v>0.8631324415287897</v>
       </c>
       <c r="D20">
-        <v>0.8845509461301275</v>
+        <v>0.8845509461301296</v>
       </c>
       <c r="E20">
-        <v>0.8879471272485818</v>
+        <v>0.8879471272485838</v>
       </c>
       <c r="F20">
-        <v>0.8581933144971083</v>
+        <v>0.8581933144971108</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.018705349448457</v>
       </c>
       <c r="J20">
-        <v>0.8971910437693871</v>
+        <v>0.8971910437693892</v>
       </c>
       <c r="K20">
-        <v>0.9009808912107419</v>
+        <v>0.9009808912107438</v>
       </c>
       <c r="L20">
-        <v>0.9042949348064054</v>
+        <v>0.9042949348064072</v>
       </c>
       <c r="M20">
-        <v>0.8752907483527986</v>
+        <v>0.8752907483528009</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8355711239795013</v>
+        <v>0.8355711239794998</v>
       </c>
       <c r="D21">
-        <v>0.8605446197368209</v>
+        <v>0.8605446197368193</v>
       </c>
       <c r="E21">
-        <v>0.8645269884358946</v>
+        <v>0.8645269884358929</v>
       </c>
       <c r="F21">
-        <v>0.8290880915944392</v>
+        <v>0.8290880915944374</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.012427684500549</v>
+        <v>1.012427684500548</v>
       </c>
       <c r="J21">
-        <v>0.8740138410116244</v>
+        <v>0.8740138410116228</v>
       </c>
       <c r="K21">
-        <v>0.8787562360651823</v>
+        <v>0.8787562360651808</v>
       </c>
       <c r="L21">
-        <v>0.8826265745146104</v>
+        <v>0.8826265745146087</v>
       </c>
       <c r="M21">
-        <v>0.8482370336798246</v>
+        <v>0.8482370336798229</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.81496734711922</v>
+        <v>0.814967347119225</v>
       </c>
       <c r="D22">
-        <v>0.8426659665591102</v>
+        <v>0.8426659665591151</v>
       </c>
       <c r="E22">
-        <v>0.8470924388146739</v>
+        <v>0.8470924388146784</v>
       </c>
       <c r="F22">
-        <v>0.8073387569164315</v>
+        <v>0.8073387569164369</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.007751896964634</v>
+        <v>1.007751896964635</v>
       </c>
       <c r="J22">
-        <v>0.856696470671934</v>
+        <v>0.8566964706719387</v>
       </c>
       <c r="K22">
-        <v>0.8621646316647481</v>
+        <v>0.8621646316647528</v>
       </c>
       <c r="L22">
-        <v>0.8664529821145474</v>
+        <v>0.8664529821145518</v>
       </c>
       <c r="M22">
-        <v>0.8280159878611654</v>
+        <v>0.8280159878611707</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.826285226241592</v>
+        <v>0.8262852262415916</v>
       </c>
       <c r="D23">
-        <v>0.8524793349066054</v>
+        <v>0.852479334906605</v>
       </c>
       <c r="E23">
-        <v>0.8566613317012577</v>
+        <v>0.8566613317012574</v>
       </c>
       <c r="F23">
-        <v>0.8192857178134163</v>
+        <v>0.8192857178134159</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.010316728243166</v>
+        <v>1.010316728243165</v>
       </c>
       <c r="J23">
-        <v>0.8662073695061323</v>
+        <v>0.866207369506132</v>
       </c>
       <c r="K23">
-        <v>0.8712755154288905</v>
+        <v>0.87127551542889</v>
       </c>
       <c r="L23">
-        <v>0.8753341319674568</v>
+        <v>0.8753341319674562</v>
       </c>
       <c r="M23">
-        <v>0.8391234820373517</v>
+        <v>0.8391234820373511</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8635534072073903</v>
+        <v>0.8635534072073928</v>
       </c>
       <c r="D24">
-        <v>0.8849183569584155</v>
+        <v>0.8849183569584175</v>
       </c>
       <c r="E24">
-        <v>0.8883056697363482</v>
+        <v>0.8883056697363504</v>
       </c>
       <c r="F24">
-        <v>0.8586380712384413</v>
+        <v>0.8586380712384434</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.018801152348635</v>
+        <v>1.018801152348636</v>
       </c>
       <c r="J24">
-        <v>0.8975450386590035</v>
+        <v>0.8975450386590058</v>
       </c>
       <c r="K24">
-        <v>0.9013205162226782</v>
+        <v>0.9013205162226799</v>
       </c>
       <c r="L24">
-        <v>0.9046261054637449</v>
+        <v>0.9046261054637471</v>
       </c>
       <c r="M24">
-        <v>0.875704028459407</v>
+        <v>0.8757040284594093</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.897728269049032</v>
+        <v>0.8977282690490346</v>
       </c>
       <c r="D25">
-        <v>0.9148134062671075</v>
+        <v>0.9148134062671099</v>
       </c>
       <c r="E25">
-        <v>0.9174914003072315</v>
+        <v>0.917491400307234</v>
       </c>
       <c r="F25">
-        <v>0.8947798399930735</v>
+        <v>0.894779839993076</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02652798696454</v>
+        <v>1.026527986964541</v>
       </c>
       <c r="J25">
-        <v>0.9262661940245646</v>
+        <v>0.9262661940245668</v>
       </c>
       <c r="K25">
-        <v>0.9288957012234692</v>
+        <v>0.9288957012234714</v>
       </c>
       <c r="L25">
-        <v>0.9315215438720248</v>
+        <v>0.9315215438720269</v>
       </c>
       <c r="M25">
-        <v>0.9092653513939715</v>
+        <v>0.9092653513939739</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9206405103021911</v>
+        <v>0.9206405103021916</v>
       </c>
       <c r="D2">
-        <v>0.9349251584577787</v>
+        <v>0.9349251584577792</v>
       </c>
       <c r="E2">
-        <v>0.9371418590553411</v>
+        <v>0.9371418590553418</v>
       </c>
       <c r="F2">
-        <v>0.9190664593602066</v>
+        <v>0.9190664593602074</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.031599664601562</v>
       </c>
       <c r="J2">
-        <v>0.9454848463198586</v>
+        <v>0.9454848463198591</v>
       </c>
       <c r="K2">
-        <v>0.9473722458092242</v>
+        <v>0.9473722458092246</v>
       </c>
       <c r="L2">
-        <v>0.9495523979998074</v>
+        <v>0.9495523979998081</v>
       </c>
       <c r="M2">
-        <v>0.9317816727083795</v>
+        <v>0.9317816727083802</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9355259847226737</v>
+        <v>0.9355259847226729</v>
       </c>
       <c r="D3">
-        <v>0.94801773882523</v>
+        <v>0.9480177388252293</v>
       </c>
       <c r="E3">
-        <v>0.9499424923154879</v>
+        <v>0.9499424923154873</v>
       </c>
       <c r="F3">
-        <v>0.9348789317010531</v>
+        <v>0.934878931701052</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.034813411064505</v>
       </c>
       <c r="J3">
-        <v>0.957943139199957</v>
+        <v>0.9579431391999563</v>
       </c>
       <c r="K3">
-        <v>0.9593619821166948</v>
+        <v>0.959361982116694</v>
       </c>
       <c r="L3">
-        <v>0.9612586361912079</v>
+        <v>0.9612586361912071</v>
       </c>
       <c r="M3">
-        <v>0.9464189256193999</v>
+        <v>0.946418925619399</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.94451068493824</v>
+        <v>0.9445106849382404</v>
       </c>
       <c r="D4">
-        <v>0.9559296482041629</v>
+        <v>0.9559296482041635</v>
       </c>
       <c r="E4">
-        <v>0.9576816414051956</v>
+        <v>0.9576816414051963</v>
       </c>
       <c r="F4">
-        <v>0.944439218426065</v>
+        <v>0.944439218426066</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.036711396435926</v>
       </c>
       <c r="J4">
-        <v>0.9654488168521461</v>
+        <v>0.9654488168521468</v>
       </c>
       <c r="K4">
-        <v>0.966590767623888</v>
+        <v>0.9665907676238886</v>
       </c>
       <c r="L4">
-        <v>0.9683191494115924</v>
+        <v>0.9683191494115929</v>
       </c>
       <c r="M4">
-        <v>0.9552579323255628</v>
+        <v>0.9552579323255634</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9481515169447448</v>
+        <v>0.9481515169447439</v>
       </c>
       <c r="D5">
-        <v>0.9591376785593448</v>
+        <v>0.959137678559344</v>
       </c>
       <c r="E5">
-        <v>0.9608204811798268</v>
+        <v>0.9608204811798263</v>
       </c>
       <c r="F5">
-        <v>0.9483171851608989</v>
+        <v>0.9483171851608979</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.037469927574852</v>
       </c>
       <c r="J5">
-        <v>0.9684867951265747</v>
+        <v>0.9684867951265738</v>
       </c>
       <c r="K5">
-        <v>0.9695179260365187</v>
+        <v>0.9695179260365181</v>
       </c>
       <c r="L5">
-        <v>0.9711788087763865</v>
+        <v>0.971178808776386</v>
       </c>
       <c r="M5">
-        <v>0.958840713152579</v>
+        <v>0.9588407131525782</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9487553034969864</v>
+        <v>0.9487553034969836</v>
       </c>
       <c r="D6">
-        <v>0.9596697950641342</v>
+        <v>0.9596697950641314</v>
       </c>
       <c r="E6">
-        <v>0.9613411710640085</v>
+        <v>0.9613411710640059</v>
       </c>
       <c r="F6">
-        <v>0.9489605278293437</v>
+        <v>0.9489605278293409</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037595082235526</v>
+        <v>1.037595082235525</v>
       </c>
       <c r="J6">
-        <v>0.9689903947284404</v>
+        <v>0.9689903947284378</v>
       </c>
       <c r="K6">
-        <v>0.9700032281481765</v>
+        <v>0.9700032281481739</v>
       </c>
       <c r="L6">
-        <v>0.9716529578067666</v>
+        <v>0.971652957806764</v>
       </c>
       <c r="M6">
-        <v>0.959434930719696</v>
+        <v>0.9594349307196931</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9445598479015749</v>
+        <v>0.944559847901575</v>
       </c>
       <c r="D7">
         <v>0.9559729596844091</v>
       </c>
       <c r="E7">
-        <v>0.9577240153493083</v>
+        <v>0.9577240153493086</v>
       </c>
       <c r="F7">
-        <v>0.9444915679058759</v>
+        <v>0.9444915679058754</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.036721681932851</v>
       </c>
       <c r="J7">
-        <v>0.9654898535554437</v>
+        <v>0.9654898535554438</v>
       </c>
       <c r="K7">
         <v>0.9666303024267394</v>
       </c>
       <c r="L7">
-        <v>0.9683577700027298</v>
+        <v>0.9683577700027302</v>
       </c>
       <c r="M7">
-        <v>0.9553063074774775</v>
+        <v>0.9553063074774772</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.92581769052996</v>
+        <v>0.9258176905299592</v>
       </c>
       <c r="D8">
-        <v>0.9394765036586329</v>
+        <v>0.9394765036586321</v>
       </c>
       <c r="E8">
-        <v>0.9415909066674856</v>
+        <v>0.9415909066674844</v>
       </c>
       <c r="F8">
-        <v>0.9245625964692727</v>
+        <v>0.9245625964692716</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.032726091737581</v>
       </c>
       <c r="J8">
-        <v>0.949820777908547</v>
+        <v>0.9498207779085462</v>
       </c>
       <c r="K8">
-        <v>0.9515439025643543</v>
+        <v>0.9515439025643535</v>
       </c>
       <c r="L8">
-        <v>0.9536248420521647</v>
+        <v>0.9536248420521635</v>
       </c>
       <c r="M8">
-        <v>0.9368716241044484</v>
+        <v>0.9368716241044472</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8867004762675952</v>
+        <v>0.8867004762675947</v>
       </c>
       <c r="D9">
-        <v>0.9051525153458204</v>
+        <v>0.9051525153458198</v>
       </c>
       <c r="E9">
-        <v>0.9080569162584956</v>
+        <v>0.9080569162584949</v>
       </c>
       <c r="F9">
-        <v>0.8831084439447338</v>
+        <v>0.8831084439447331</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.024049436527069</v>
+        <v>1.02404943652707</v>
       </c>
       <c r="J9">
-        <v>0.9170032824920415</v>
+        <v>0.917003282492041</v>
       </c>
       <c r="K9">
-        <v>0.919997885781708</v>
+        <v>0.9199978857817074</v>
       </c>
       <c r="L9">
-        <v>0.9228414447154799</v>
+        <v>0.9228414447154795</v>
       </c>
       <c r="M9">
-        <v>0.898432993980518</v>
+        <v>0.8984329939805176</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.854123468528844</v>
+        <v>0.8541234685288479</v>
       </c>
       <c r="D10">
-        <v>0.8766932944357593</v>
+        <v>0.8766932944357628</v>
       </c>
       <c r="E10">
-        <v>0.8802799198654608</v>
+        <v>0.8802799198654645</v>
       </c>
       <c r="F10">
-        <v>0.84867700768678</v>
+        <v>0.8486770076867837</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.01665367926507</v>
       </c>
       <c r="J10">
-        <v>0.8896149042426793</v>
+        <v>0.8896149042426827</v>
       </c>
       <c r="K10">
-        <v>0.8937136197665185</v>
+        <v>0.8937136197665219</v>
       </c>
       <c r="L10">
-        <v>0.8972089460536112</v>
+        <v>0.8972089460536148</v>
       </c>
       <c r="M10">
-        <v>0.8664468159398674</v>
+        <v>0.8664468159398712</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8374830887054665</v>
+        <v>0.8374830887054651</v>
       </c>
       <c r="D11">
-        <v>0.8622067489447515</v>
+        <v>0.8622067489447502</v>
       </c>
       <c r="E11">
-        <v>0.8661481333653427</v>
+        <v>0.8661481333653416</v>
       </c>
       <c r="F11">
-        <v>0.8311065269627502</v>
+        <v>0.8311065269627488</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.012862852457915</v>
+        <v>1.012862852457914</v>
       </c>
       <c r="J11">
-        <v>0.8756214483974012</v>
+        <v>0.8756214483974002</v>
       </c>
       <c r="K11">
-        <v>0.8802970575108177</v>
+        <v>0.8802970575108165</v>
       </c>
       <c r="L11">
-        <v>0.8841286668518724</v>
+        <v>0.8841286668518713</v>
       </c>
       <c r="M11">
-        <v>0.8501135676384385</v>
+        <v>0.850113567638437</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8307664219994938</v>
+        <v>0.8307664219994935</v>
       </c>
       <c r="D12">
-        <v>0.8563699736976308</v>
+        <v>0.8563699736976307</v>
       </c>
       <c r="E12">
         <v>0.8604555177143582</v>
       </c>
       <c r="F12">
-        <v>0.8240160529842818</v>
+        <v>0.8240160529842817</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>0.8699743364350058</v>
       </c>
       <c r="K12">
-        <v>0.8748849973413793</v>
+        <v>0.8748849973413788</v>
       </c>
       <c r="L12">
-        <v>0.8788527211226312</v>
+        <v>0.8788527211226311</v>
       </c>
       <c r="M12">
-        <v>0.8435214587893863</v>
+        <v>0.8435214587893862</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8322350634332666</v>
+        <v>0.8322350634332655</v>
       </c>
       <c r="D13">
-        <v>0.8576456864735171</v>
+        <v>0.8576456864735164</v>
       </c>
       <c r="E13">
-        <v>0.8616996659840702</v>
+        <v>0.8616996659840691</v>
       </c>
       <c r="F13">
-        <v>0.8255663818824005</v>
+        <v>0.8255663818823997</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.011668767950655</v>
       </c>
       <c r="J13">
-        <v>0.8712090224669617</v>
+        <v>0.8712090224669605</v>
       </c>
       <c r="K13">
-        <v>0.8760681845982115</v>
+        <v>0.8760681845982103</v>
       </c>
       <c r="L13">
-        <v>0.8800061324141905</v>
+        <v>0.8800061324141895</v>
       </c>
       <c r="M13">
-        <v>0.8449628445046845</v>
+        <v>0.8449628445046837</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8369400833910144</v>
+        <v>0.8369400833910143</v>
       </c>
       <c r="D14">
-        <v>0.8617346470519225</v>
+        <v>0.861734647051922</v>
       </c>
       <c r="E14">
-        <v>0.8656876668268143</v>
+        <v>0.8656876668268139</v>
       </c>
       <c r="F14">
-        <v>0.830533277642607</v>
+        <v>0.8305332776426066</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.012739248627775</v>
       </c>
       <c r="J14">
-        <v>0.8751648743995313</v>
+        <v>0.8751648743995307</v>
       </c>
       <c r="K14">
-        <v>0.8798594408308762</v>
+        <v>0.8798594408308761</v>
       </c>
       <c r="L14">
-        <v>0.8837020478634307</v>
+        <v>0.8837020478634301</v>
       </c>
       <c r="M14">
-        <v>0.8495806224717072</v>
+        <v>0.8495806224717068</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8397616684625547</v>
+        <v>0.8397616684625577</v>
       </c>
       <c r="D15">
-        <v>0.8641882377549784</v>
+        <v>0.864188237754981</v>
       </c>
       <c r="E15">
-        <v>0.8680808356658628</v>
+        <v>0.8680808356658656</v>
       </c>
       <c r="F15">
-        <v>0.8335120741380151</v>
+        <v>0.8335120741380183</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.013381635910872</v>
       </c>
       <c r="J15">
-        <v>0.8775373998411974</v>
+        <v>0.8775373998411998</v>
       </c>
       <c r="K15">
-        <v>0.882133548014043</v>
+        <v>0.8821335480140453</v>
       </c>
       <c r="L15">
-        <v>0.885919022378723</v>
+        <v>0.8859190223787258</v>
       </c>
       <c r="M15">
-        <v>0.8523499541037503</v>
+        <v>0.8523499541037531</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8551632736163292</v>
+        <v>0.8551632736163288</v>
       </c>
       <c r="D16">
-        <v>0.8775997007969022</v>
+        <v>0.8775997007969017</v>
       </c>
       <c r="E16">
-        <v>0.8811642833616097</v>
+        <v>0.8811642833616092</v>
       </c>
       <c r="F16">
-        <v>0.8497752052101876</v>
+        <v>0.8497752052101871</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.016890580799932</v>
       </c>
       <c r="J16">
-        <v>0.8904893567690961</v>
+        <v>0.8904893567690957</v>
       </c>
       <c r="K16">
-        <v>0.8945522945058293</v>
+        <v>0.894552294505829</v>
       </c>
       <c r="L16">
-        <v>0.8980266650363822</v>
+        <v>0.8980266650363817</v>
       </c>
       <c r="M16">
-        <v>0.8674675206452677</v>
+        <v>0.8674675206452673</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8640625191652412</v>
+        <v>0.8640625191652406</v>
       </c>
       <c r="D17">
-        <v>0.8853627287729081</v>
+        <v>0.8853627287729072</v>
       </c>
       <c r="E17">
-        <v>0.8887393200465233</v>
+        <v>0.8887393200465225</v>
       </c>
       <c r="F17">
-        <v>0.8591759668947658</v>
+        <v>0.8591759668947646</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.018917004949509</v>
       </c>
       <c r="J17">
-        <v>0.8979731535925606</v>
+        <v>0.8979731535925597</v>
       </c>
       <c r="K17">
-        <v>0.9017312600022499</v>
+        <v>0.9017312600022491</v>
       </c>
       <c r="L17">
-        <v>0.9050266267416376</v>
+        <v>0.9050266267416368</v>
       </c>
       <c r="M17">
-        <v>0.8762038489302175</v>
+        <v>0.8762038489302165</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.869022312844596</v>
+        <v>0.8690223128445959</v>
       </c>
       <c r="D18">
-        <v>0.8896934440748878</v>
+        <v>0.8896934440748872</v>
       </c>
       <c r="E18">
-        <v>0.8929658072157248</v>
+        <v>0.8929658072157245</v>
       </c>
       <c r="F18">
-        <v>0.8644168346259352</v>
+        <v>0.864416834625935</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.020044951593793</v>
       </c>
       <c r="J18">
-        <v>0.9021436536730639</v>
+        <v>0.9021436536730637</v>
       </c>
       <c r="K18">
-        <v>0.9057329728593657</v>
+        <v>0.9057329728593652</v>
       </c>
       <c r="L18">
-        <v>0.9089288777397974</v>
+        <v>0.9089288777397969</v>
       </c>
       <c r="M18">
-        <v>0.8810733254545784</v>
+        <v>0.8810733254545781</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8706776370077809</v>
+        <v>0.8706776370077803</v>
       </c>
       <c r="D19">
-        <v>0.8911394624713717</v>
+        <v>0.891139462471371</v>
       </c>
       <c r="E19">
-        <v>0.8943771311917323</v>
+        <v>0.8943771311917316</v>
       </c>
       <c r="F19">
-        <v>0.8661662493722381</v>
+        <v>0.8661662493722373</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.02042107608056</v>
       </c>
       <c r="J19">
-        <v>0.9035354477336232</v>
+        <v>0.9035354477336225</v>
       </c>
       <c r="K19">
-        <v>0.9070686162435673</v>
+        <v>0.9070686162435665</v>
       </c>
       <c r="L19">
-        <v>0.9102313793287808</v>
+        <v>0.9102313793287802</v>
       </c>
       <c r="M19">
-        <v>0.8826985913461737</v>
+        <v>0.8826985913461729</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8631324415287897</v>
+        <v>0.8631324415287875</v>
       </c>
       <c r="D20">
-        <v>0.8845509461301296</v>
+        <v>0.8845509461301275</v>
       </c>
       <c r="E20">
-        <v>0.8879471272485838</v>
+        <v>0.8879471272485818</v>
       </c>
       <c r="F20">
-        <v>0.8581933144971108</v>
+        <v>0.8581933144971083</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.018705349448457</v>
       </c>
       <c r="J20">
-        <v>0.8971910437693892</v>
+        <v>0.8971910437693871</v>
       </c>
       <c r="K20">
-        <v>0.9009808912107438</v>
+        <v>0.9009808912107419</v>
       </c>
       <c r="L20">
-        <v>0.9042949348064072</v>
+        <v>0.9042949348064054</v>
       </c>
       <c r="M20">
-        <v>0.8752907483528009</v>
+        <v>0.8752907483527986</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8355711239794998</v>
+        <v>0.8355711239795013</v>
       </c>
       <c r="D21">
-        <v>0.8605446197368193</v>
+        <v>0.8605446197368209</v>
       </c>
       <c r="E21">
-        <v>0.8645269884358929</v>
+        <v>0.8645269884358946</v>
       </c>
       <c r="F21">
-        <v>0.8290880915944374</v>
+        <v>0.8290880915944392</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.012427684500548</v>
+        <v>1.012427684500549</v>
       </c>
       <c r="J21">
-        <v>0.8740138410116228</v>
+        <v>0.8740138410116244</v>
       </c>
       <c r="K21">
-        <v>0.8787562360651808</v>
+        <v>0.8787562360651823</v>
       </c>
       <c r="L21">
-        <v>0.8826265745146087</v>
+        <v>0.8826265745146104</v>
       </c>
       <c r="M21">
-        <v>0.8482370336798229</v>
+        <v>0.8482370336798246</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.814967347119225</v>
+        <v>0.81496734711922</v>
       </c>
       <c r="D22">
-        <v>0.8426659665591151</v>
+        <v>0.8426659665591102</v>
       </c>
       <c r="E22">
-        <v>0.8470924388146784</v>
+        <v>0.8470924388146739</v>
       </c>
       <c r="F22">
-        <v>0.8073387569164369</v>
+        <v>0.8073387569164315</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.007751896964635</v>
+        <v>1.007751896964634</v>
       </c>
       <c r="J22">
-        <v>0.8566964706719387</v>
+        <v>0.856696470671934</v>
       </c>
       <c r="K22">
-        <v>0.8621646316647528</v>
+        <v>0.8621646316647481</v>
       </c>
       <c r="L22">
-        <v>0.8664529821145518</v>
+        <v>0.8664529821145474</v>
       </c>
       <c r="M22">
-        <v>0.8280159878611707</v>
+        <v>0.8280159878611654</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8262852262415916</v>
+        <v>0.826285226241592</v>
       </c>
       <c r="D23">
-        <v>0.852479334906605</v>
+        <v>0.8524793349066054</v>
       </c>
       <c r="E23">
-        <v>0.8566613317012574</v>
+        <v>0.8566613317012577</v>
       </c>
       <c r="F23">
-        <v>0.8192857178134159</v>
+        <v>0.8192857178134163</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.010316728243165</v>
+        <v>1.010316728243166</v>
       </c>
       <c r="J23">
-        <v>0.866207369506132</v>
+        <v>0.8662073695061323</v>
       </c>
       <c r="K23">
-        <v>0.87127551542889</v>
+        <v>0.8712755154288905</v>
       </c>
       <c r="L23">
-        <v>0.8753341319674562</v>
+        <v>0.8753341319674568</v>
       </c>
       <c r="M23">
-        <v>0.8391234820373511</v>
+        <v>0.8391234820373517</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8635534072073928</v>
+        <v>0.8635534072073903</v>
       </c>
       <c r="D24">
-        <v>0.8849183569584175</v>
+        <v>0.8849183569584155</v>
       </c>
       <c r="E24">
-        <v>0.8883056697363504</v>
+        <v>0.8883056697363482</v>
       </c>
       <c r="F24">
-        <v>0.8586380712384434</v>
+        <v>0.8586380712384413</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.018801152348636</v>
+        <v>1.018801152348635</v>
       </c>
       <c r="J24">
-        <v>0.8975450386590058</v>
+        <v>0.8975450386590035</v>
       </c>
       <c r="K24">
-        <v>0.9013205162226799</v>
+        <v>0.9013205162226782</v>
       </c>
       <c r="L24">
-        <v>0.9046261054637471</v>
+        <v>0.9046261054637449</v>
       </c>
       <c r="M24">
-        <v>0.8757040284594093</v>
+        <v>0.875704028459407</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8977282690490346</v>
+        <v>0.897728269049032</v>
       </c>
       <c r="D25">
-        <v>0.9148134062671099</v>
+        <v>0.9148134062671075</v>
       </c>
       <c r="E25">
-        <v>0.917491400307234</v>
+        <v>0.9174914003072315</v>
       </c>
       <c r="F25">
-        <v>0.894779839993076</v>
+        <v>0.8947798399930735</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026527986964541</v>
+        <v>1.02652798696454</v>
       </c>
       <c r="J25">
-        <v>0.9262661940245668</v>
+        <v>0.9262661940245646</v>
       </c>
       <c r="K25">
-        <v>0.9288957012234714</v>
+        <v>0.9288957012234692</v>
       </c>
       <c r="L25">
-        <v>0.9315215438720269</v>
+        <v>0.9315215438720248</v>
       </c>
       <c r="M25">
-        <v>0.9092653513939739</v>
+        <v>0.9092653513939715</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9206405103021916</v>
+        <v>0.9207035381757243</v>
       </c>
       <c r="D2">
-        <v>0.9349251584577792</v>
+        <v>0.9349832215161642</v>
       </c>
       <c r="E2">
-        <v>0.9371418590553418</v>
+        <v>0.9371972531098278</v>
       </c>
       <c r="F2">
-        <v>0.9190664593602074</v>
+        <v>0.9191283293618558</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031599664601562</v>
+        <v>1.03160900800125</v>
       </c>
       <c r="J2">
-        <v>0.9454848463198591</v>
+        <v>0.9455455012797714</v>
       </c>
       <c r="K2">
-        <v>0.9473722458092246</v>
+        <v>0.9474293486937984</v>
       </c>
       <c r="L2">
-        <v>0.9495523979998081</v>
+        <v>0.9496068815786858</v>
       </c>
       <c r="M2">
-        <v>0.9317816727083802</v>
+        <v>0.9318424734071943</v>
+      </c>
+      <c r="N2">
+        <v>0.9657531066882252</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9355259847226729</v>
+        <v>0.9355759869509089</v>
       </c>
       <c r="D3">
-        <v>0.9480177388252293</v>
+        <v>0.9480639360372147</v>
       </c>
       <c r="E3">
-        <v>0.9499424923154873</v>
+        <v>0.9499865476292504</v>
       </c>
       <c r="F3">
-        <v>0.934878931701052</v>
+        <v>0.9349279000346917</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034813411064505</v>
+        <v>1.034820759697203</v>
       </c>
       <c r="J3">
-        <v>0.9579431391999563</v>
+        <v>0.9579915042085779</v>
       </c>
       <c r="K3">
-        <v>0.959361982116694</v>
+        <v>0.9594075032010956</v>
       </c>
       <c r="L3">
-        <v>0.9612586361912071</v>
+        <v>0.9613020500334606</v>
       </c>
       <c r="M3">
-        <v>0.946418925619399</v>
+        <v>0.946467151375571</v>
+      </c>
+      <c r="N3">
+        <v>0.9741637187036938</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9445106849382404</v>
+        <v>0.9445532728606859</v>
       </c>
       <c r="D4">
-        <v>0.9559296482041635</v>
+        <v>0.9559690639621056</v>
       </c>
       <c r="E4">
-        <v>0.9576816414051963</v>
+        <v>0.9577192236341184</v>
       </c>
       <c r="F4">
-        <v>0.944439218426066</v>
+        <v>0.9444808714970968</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036711396435926</v>
+        <v>1.036717625478084</v>
       </c>
       <c r="J4">
-        <v>0.9654488168521468</v>
+        <v>0.9654901318954965</v>
       </c>
       <c r="K4">
-        <v>0.9665907676238886</v>
+        <v>0.9666296509835057</v>
       </c>
       <c r="L4">
-        <v>0.9683191494115929</v>
+        <v>0.9683562263385921</v>
       </c>
       <c r="M4">
-        <v>0.9552579323255634</v>
+        <v>0.9552990053755464</v>
+      </c>
+      <c r="N4">
+        <v>0.9792305117022629</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9481515169447439</v>
+        <v>0.9481911866238474</v>
       </c>
       <c r="D5">
-        <v>0.959137678559344</v>
+        <v>0.9591744197080496</v>
       </c>
       <c r="E5">
-        <v>0.9608204811798263</v>
+        <v>0.9608555118943714</v>
       </c>
       <c r="F5">
-        <v>0.9483171851608979</v>
+        <v>0.9483559647943798</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037469927574852</v>
+        <v>1.037475719100773</v>
       </c>
       <c r="J5">
-        <v>0.9684867951265738</v>
+        <v>0.9685253241611601</v>
       </c>
       <c r="K5">
-        <v>0.9695179260365181</v>
+        <v>0.9695541875729593</v>
       </c>
       <c r="L5">
-        <v>0.971178808776386</v>
+        <v>0.9712133842085828</v>
       </c>
       <c r="M5">
-        <v>0.9588407131525782</v>
+        <v>0.9588789719466151</v>
+      </c>
+      <c r="N5">
+        <v>0.9812812227517906</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9487553034969836</v>
+        <v>0.9487944937907689</v>
       </c>
       <c r="D6">
-        <v>0.9596697950641314</v>
+        <v>0.9597060965554233</v>
       </c>
       <c r="E6">
-        <v>0.9613411710640059</v>
+        <v>0.9613757824367356</v>
       </c>
       <c r="F6">
-        <v>0.9489605278293409</v>
+        <v>0.9489988357562343</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037595082235525</v>
+        <v>1.037600802058854</v>
       </c>
       <c r="J6">
-        <v>0.9689903947284378</v>
+        <v>0.9690284654889051</v>
       </c>
       <c r="K6">
-        <v>0.9700032281481739</v>
+        <v>0.9700390584885776</v>
       </c>
       <c r="L6">
-        <v>0.971652957806764</v>
+        <v>0.9716871219155925</v>
       </c>
       <c r="M6">
-        <v>0.9594349307196931</v>
+        <v>0.9594727272663387</v>
+      </c>
+      <c r="N6">
+        <v>0.9816211575384856</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.944559847901575</v>
+        <v>0.9446023960984834</v>
       </c>
       <c r="D7">
-        <v>0.9559729596844091</v>
+        <v>0.9560123390540383</v>
       </c>
       <c r="E7">
-        <v>0.9577240153493086</v>
+        <v>0.9577615628589812</v>
       </c>
       <c r="F7">
-        <v>0.9444915679058754</v>
+        <v>0.9445331818390335</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036721681932851</v>
+        <v>1.036727905007276</v>
       </c>
       <c r="J7">
-        <v>0.9654898535554438</v>
+        <v>0.9655311307160862</v>
       </c>
       <c r="K7">
-        <v>0.9666303024267394</v>
+        <v>0.9666691501312281</v>
       </c>
       <c r="L7">
-        <v>0.9683577700027302</v>
+        <v>0.9683948129052005</v>
       </c>
       <c r="M7">
-        <v>0.9553063074774772</v>
+        <v>0.9553473422135846</v>
+      </c>
+      <c r="N7">
+        <v>0.9792582129867734</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9258176905299592</v>
+        <v>0.9258760753134598</v>
       </c>
       <c r="D8">
-        <v>0.9394765036586321</v>
+        <v>0.9395303440257086</v>
       </c>
       <c r="E8">
-        <v>0.9415909066674844</v>
+        <v>0.9416422638361419</v>
       </c>
       <c r="F8">
-        <v>0.9245625964692716</v>
+        <v>0.9246198603998443</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032726091737581</v>
+        <v>1.032734720040775</v>
       </c>
       <c r="J8">
-        <v>0.9498207779085462</v>
+        <v>0.9498770656884735</v>
       </c>
       <c r="K8">
-        <v>0.9515439025643535</v>
+        <v>0.9515968884350121</v>
       </c>
       <c r="L8">
-        <v>0.9536248420521635</v>
+        <v>0.953675388811582</v>
       </c>
       <c r="M8">
-        <v>0.9368716241044472</v>
+        <v>0.9369279410846446</v>
+      </c>
+      <c r="N8">
+        <v>0.9686803384841258</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8867004762675947</v>
+        <v>0.886797587819846</v>
       </c>
       <c r="D9">
-        <v>0.9051525153458198</v>
+        <v>0.9052413470864913</v>
       </c>
       <c r="E9">
-        <v>0.9080569162584949</v>
+        <v>0.9081417801308891</v>
       </c>
       <c r="F9">
-        <v>0.8831084439447331</v>
+        <v>0.8832043546872871</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02404943652707</v>
+        <v>1.024064159310554</v>
       </c>
       <c r="J9">
-        <v>0.917003282492041</v>
+        <v>0.9170955660882389</v>
       </c>
       <c r="K9">
-        <v>0.9199978857817074</v>
+        <v>0.9200848490000665</v>
       </c>
       <c r="L9">
-        <v>0.9228414447154795</v>
+        <v>0.9229245385759383</v>
       </c>
       <c r="M9">
-        <v>0.8984329939805176</v>
+        <v>0.8985267508124246</v>
+      </c>
+      <c r="N9">
+        <v>0.9465259629988521</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8541234685288479</v>
+        <v>0.8542614719276961</v>
       </c>
       <c r="D10">
-        <v>0.8766932944357628</v>
+        <v>0.8768185546511923</v>
       </c>
       <c r="E10">
-        <v>0.8802799198654645</v>
+        <v>0.8803997838092641</v>
       </c>
       <c r="F10">
-        <v>0.8486770076867837</v>
+        <v>0.8488142328670986</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01665367926507</v>
+        <v>1.016675116386551</v>
       </c>
       <c r="J10">
-        <v>0.8896149042426827</v>
+        <v>0.8897442718009995</v>
       </c>
       <c r="K10">
-        <v>0.8937136197665219</v>
+        <v>0.8938356744047307</v>
       </c>
       <c r="L10">
-        <v>0.8972089460536148</v>
+        <v>0.8973257761559851</v>
       </c>
       <c r="M10">
-        <v>0.8664468159398712</v>
+        <v>0.8665802053682432</v>
+      </c>
+      <c r="N10">
+        <v>0.9280431122399354</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8374830887054651</v>
+        <v>0.8376465081971286</v>
       </c>
       <c r="D11">
-        <v>0.8622067489447502</v>
+        <v>0.8623544206527798</v>
       </c>
       <c r="E11">
-        <v>0.8661481333653416</v>
+        <v>0.8662895790127212</v>
       </c>
       <c r="F11">
-        <v>0.8311065269627488</v>
+        <v>0.831269653220755</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.012862852457914</v>
+        <v>1.012888575032256</v>
       </c>
       <c r="J11">
-        <v>0.8756214483974002</v>
+        <v>0.8757734797454449</v>
       </c>
       <c r="K11">
-        <v>0.8802970575108165</v>
+        <v>0.8804405915655605</v>
       </c>
       <c r="L11">
-        <v>0.8841286668518713</v>
+        <v>0.8842661982891964</v>
       </c>
       <c r="M11">
-        <v>0.850113567638437</v>
+        <v>0.8502716381587444</v>
+      </c>
+      <c r="N11">
+        <v>0.9186041482914585</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8307664219994935</v>
+        <v>0.8309412460161889</v>
       </c>
       <c r="D12">
-        <v>0.8563699736976307</v>
+        <v>0.856527651508257</v>
       </c>
       <c r="E12">
-        <v>0.8604555177143582</v>
+        <v>0.8606066093526291</v>
       </c>
       <c r="F12">
-        <v>0.8240160529842817</v>
+        <v>0.8241908499887219</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.011334843234047</v>
+        <v>1.011362511234864</v>
       </c>
       <c r="J12">
-        <v>0.8699743364350058</v>
+        <v>0.8701364563475855</v>
       </c>
       <c r="K12">
-        <v>0.8748849973413788</v>
+        <v>0.8750380993978208</v>
       </c>
       <c r="L12">
-        <v>0.8788527211226311</v>
+        <v>0.8789994848933583</v>
       </c>
       <c r="M12">
-        <v>0.8435214587893862</v>
+        <v>0.8436906151218753</v>
+      </c>
+      <c r="N12">
+        <v>0.9147961558476511</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8322350634332655</v>
+        <v>0.8324073305279792</v>
       </c>
       <c r="D13">
-        <v>0.8576456864735164</v>
+        <v>0.8578011234342502</v>
       </c>
       <c r="E13">
-        <v>0.8616996659840691</v>
+        <v>0.8618485968989259</v>
       </c>
       <c r="F13">
-        <v>0.8255663818823997</v>
+        <v>0.8257385598083187</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.011668767950655</v>
+        <v>1.011695998686145</v>
       </c>
       <c r="J13">
-        <v>0.8712090224669605</v>
+        <v>0.8713688845398062</v>
       </c>
       <c r="K13">
-        <v>0.8760681845982103</v>
+        <v>0.8762191449925619</v>
       </c>
       <c r="L13">
-        <v>0.8800061324141895</v>
+        <v>0.8801508291083714</v>
       </c>
       <c r="M13">
-        <v>0.8449628445046837</v>
+        <v>0.8451295147932505</v>
+      </c>
+      <c r="N13">
+        <v>0.9156286741599672</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8369400833910143</v>
+        <v>0.8371043980764804</v>
       </c>
       <c r="D14">
-        <v>0.861734647051922</v>
+        <v>0.861883105257788</v>
       </c>
       <c r="E14">
-        <v>0.8656876668268139</v>
+        <v>0.8658298704465693</v>
       </c>
       <c r="F14">
-        <v>0.8305332776426066</v>
+        <v>0.8306973189505955</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.012739248627775</v>
+        <v>1.012765123441196</v>
       </c>
       <c r="J14">
-        <v>0.8751648743995307</v>
+        <v>0.875317699355676</v>
       </c>
       <c r="K14">
-        <v>0.8798594408308761</v>
+        <v>0.8800037274055852</v>
       </c>
       <c r="L14">
-        <v>0.8837020478634301</v>
+        <v>0.8838403051881388</v>
       </c>
       <c r="M14">
-        <v>0.8495806224717068</v>
+        <v>0.8497395629262682</v>
+      </c>
+      <c r="N14">
+        <v>0.9182962423165141</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8397616684625577</v>
+        <v>0.8399213803982646</v>
       </c>
       <c r="D15">
-        <v>0.864188237754981</v>
+        <v>0.8643326500855135</v>
       </c>
       <c r="E15">
-        <v>0.8680808356658656</v>
+        <v>0.8682191405619458</v>
       </c>
       <c r="F15">
-        <v>0.8335120741380183</v>
+        <v>0.8336714125399886</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.013381635910872</v>
+        <v>1.013406728851763</v>
       </c>
       <c r="J15">
-        <v>0.8775373998411998</v>
+        <v>0.8776861411565323</v>
       </c>
       <c r="K15">
-        <v>0.8821335480140453</v>
+        <v>0.8822739626358794</v>
       </c>
       <c r="L15">
-        <v>0.8859190223787258</v>
+        <v>0.8860535452185568</v>
       </c>
       <c r="M15">
-        <v>0.8523499541037531</v>
+        <v>0.8525044221296519</v>
+      </c>
+      <c r="N15">
+        <v>0.9198962828072996</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8551632736163288</v>
+        <v>0.8552998066688242</v>
       </c>
       <c r="D16">
-        <v>0.8775997007969017</v>
+        <v>0.8777236594295088</v>
       </c>
       <c r="E16">
-        <v>0.8811642833616092</v>
+        <v>0.8812828949751831</v>
       </c>
       <c r="F16">
-        <v>0.8497752052101871</v>
+        <v>0.8499109368661825</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.016890580799932</v>
+        <v>1.0169117723607</v>
       </c>
       <c r="J16">
-        <v>0.8904893567690957</v>
+        <v>0.8906174049194632</v>
       </c>
       <c r="K16">
-        <v>0.894552294505829</v>
+        <v>0.8946730993880263</v>
       </c>
       <c r="L16">
-        <v>0.8980266650363817</v>
+        <v>0.898142291773925</v>
       </c>
       <c r="M16">
-        <v>0.8674675206452673</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8675994833294449</v>
+      </c>
+      <c r="N16">
+        <v>0.9286330716139946</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8640625191652406</v>
+        <v>0.8641869624605422</v>
       </c>
       <c r="D17">
-        <v>0.8853627287729072</v>
+        <v>0.8854759628962275</v>
       </c>
       <c r="E17">
-        <v>0.8887393200465225</v>
+        <v>0.8888476177466149</v>
       </c>
       <c r="F17">
-        <v>0.8591759668947646</v>
+        <v>0.859299439795046</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.018917004949509</v>
+        <v>1.018936188281898</v>
       </c>
       <c r="J17">
-        <v>0.8979731535925597</v>
+        <v>0.8980903156966553</v>
       </c>
       <c r="K17">
-        <v>0.9017312600022491</v>
+        <v>0.9018417567671744</v>
       </c>
       <c r="L17">
-        <v>0.9050266267416368</v>
+        <v>0.905132333029069</v>
       </c>
       <c r="M17">
-        <v>0.8762038489302165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8763240850105805</v>
+      </c>
+      <c r="N17">
+        <v>0.9336825891978418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8690223128445959</v>
+        <v>0.8691403753054644</v>
       </c>
       <c r="D18">
-        <v>0.8896934440748872</v>
+        <v>0.8898010012965406</v>
       </c>
       <c r="E18">
-        <v>0.8929658072157245</v>
+        <v>0.8930686489378573</v>
       </c>
       <c r="F18">
-        <v>0.864416834625935</v>
+        <v>0.8645338535261218</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.020044951593793</v>
+        <v>1.020063083243835</v>
       </c>
       <c r="J18">
-        <v>0.9021436536730637</v>
+        <v>0.902255042214952</v>
       </c>
       <c r="K18">
-        <v>0.9057329728593652</v>
+        <v>0.9058380050506509</v>
       </c>
       <c r="L18">
-        <v>0.9089288777397969</v>
+        <v>0.9090293287303711</v>
       </c>
       <c r="M18">
-        <v>0.8810733254545781</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.88118737575898</v>
+      </c>
+      <c r="N18">
+        <v>0.9364968850432772</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8706776370077803</v>
+        <v>0.8707936226200299</v>
       </c>
       <c r="D19">
-        <v>0.891139462471371</v>
+        <v>0.8912451694019369</v>
       </c>
       <c r="E19">
-        <v>0.8943771311917316</v>
+        <v>0.894478195185431</v>
       </c>
       <c r="F19">
-        <v>0.8661662493722373</v>
+        <v>0.8662811700793029</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02042107608056</v>
+        <v>1.020438866720973</v>
       </c>
       <c r="J19">
-        <v>0.9035354477336225</v>
+        <v>0.9036449527207926</v>
       </c>
       <c r="K19">
-        <v>0.9070686162435665</v>
+        <v>0.9071718660747801</v>
       </c>
       <c r="L19">
-        <v>0.9102313793287802</v>
+        <v>0.9103301168026179</v>
       </c>
       <c r="M19">
-        <v>0.8826985913461729</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8828106288035784</v>
+      </c>
+      <c r="N19">
+        <v>0.9374361321247866</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8631324415287875</v>
+        <v>0.8632581087376719</v>
       </c>
       <c r="D20">
-        <v>0.8845509461301275</v>
+        <v>0.8846652678088757</v>
       </c>
       <c r="E20">
-        <v>0.8879471272485818</v>
+        <v>0.8880564704691004</v>
       </c>
       <c r="F20">
-        <v>0.8581933144971083</v>
+        <v>0.8583180266332777</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.018705349448457</v>
+        <v>1.018724735174037</v>
       </c>
       <c r="J20">
-        <v>0.8971910437693871</v>
+        <v>0.8973093110406736</v>
       </c>
       <c r="K20">
-        <v>0.9009808912107419</v>
+        <v>0.9010924341977656</v>
       </c>
       <c r="L20">
-        <v>0.9042949348064054</v>
+        <v>0.9044016475518885</v>
       </c>
       <c r="M20">
-        <v>0.8752907483527986</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8754121712024819</v>
+      </c>
+      <c r="N20">
+        <v>0.9331548399458083</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8355711239795013</v>
+        <v>0.8357377158860633</v>
       </c>
       <c r="D21">
-        <v>0.8605446197368209</v>
+        <v>0.8606950778237084</v>
       </c>
       <c r="E21">
-        <v>0.8645269884358946</v>
+        <v>0.8646711195748407</v>
       </c>
       <c r="F21">
-        <v>0.8290880915944392</v>
+        <v>0.8292544614446646</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.012427684500549</v>
+        <v>1.012453946951052</v>
       </c>
       <c r="J21">
-        <v>0.8740138410116244</v>
+        <v>0.8741686834350461</v>
       </c>
       <c r="K21">
-        <v>0.8787562360651823</v>
+        <v>0.8789024357638895</v>
       </c>
       <c r="L21">
-        <v>0.8826265745146104</v>
+        <v>0.8827666774369166</v>
       </c>
       <c r="M21">
-        <v>0.8482370336798246</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8483981872870404</v>
+      </c>
+      <c r="N21">
+        <v>0.9175200245204773</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.81496734711922</v>
+        <v>0.8151722309596174</v>
       </c>
       <c r="D22">
-        <v>0.8426659665591102</v>
+        <v>0.8428498861806093</v>
       </c>
       <c r="E22">
-        <v>0.8470924388146739</v>
+        <v>0.8472688545627133</v>
       </c>
       <c r="F22">
-        <v>0.8073387569164315</v>
+        <v>0.8075444442521902</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.007751896964634</v>
+        <v>1.007784747727557</v>
       </c>
       <c r="J22">
-        <v>0.856696470671934</v>
+        <v>0.8568849743066836</v>
       </c>
       <c r="K22">
-        <v>0.8621646316647481</v>
+        <v>0.8623427723890915</v>
       </c>
       <c r="L22">
-        <v>0.8664529821145474</v>
+        <v>0.8666239343359554</v>
       </c>
       <c r="M22">
-        <v>0.8280159878611654</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8282143947877376</v>
+      </c>
+      <c r="N22">
+        <v>0.9058456760040048</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.826285226241592</v>
+        <v>0.826468085173668</v>
       </c>
       <c r="D23">
-        <v>0.8524793349066054</v>
+        <v>0.8526440451714344</v>
       </c>
       <c r="E23">
-        <v>0.8566613317012577</v>
+        <v>0.85681920620964</v>
       </c>
       <c r="F23">
-        <v>0.8192857178134163</v>
+        <v>0.8194687540411474</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.010316728243166</v>
+        <v>1.010345774210339</v>
       </c>
       <c r="J23">
-        <v>0.8662073695061323</v>
+        <v>0.8663765699295994</v>
       </c>
       <c r="K23">
-        <v>0.8712755154288905</v>
+        <v>0.8714353348244162</v>
       </c>
       <c r="L23">
-        <v>0.8753341319674568</v>
+        <v>0.8754873811211501</v>
       </c>
       <c r="M23">
-        <v>0.8391234820373517</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8393004526899311</v>
+      </c>
+      <c r="N23">
+        <v>0.9122564100635666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8635534072073903</v>
+        <v>0.8636785193577373</v>
       </c>
       <c r="D24">
-        <v>0.8849183569584155</v>
+        <v>0.8850321854712826</v>
       </c>
       <c r="E24">
-        <v>0.8883056697363482</v>
+        <v>0.8884145388409463</v>
       </c>
       <c r="F24">
-        <v>0.8586380712384413</v>
+        <v>0.8587622213164325</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.018801152348635</v>
+        <v>1.018820446260431</v>
       </c>
       <c r="J24">
-        <v>0.8975450386590035</v>
+        <v>0.8976628048135753</v>
       </c>
       <c r="K24">
-        <v>0.9013205162226782</v>
+        <v>0.9014315848126364</v>
       </c>
       <c r="L24">
-        <v>0.9046261054637449</v>
+        <v>0.9047323618307741</v>
       </c>
       <c r="M24">
-        <v>0.875704028459407</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8758249130851801</v>
+      </c>
+      <c r="N24">
+        <v>0.9333937062750366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.897728269049032</v>
+        <v>0.8978135285147081</v>
       </c>
       <c r="D25">
-        <v>0.9148134062671075</v>
+        <v>0.9148915832474541</v>
       </c>
       <c r="E25">
-        <v>0.9174914003072315</v>
+        <v>0.9175660487251961</v>
       </c>
       <c r="F25">
-        <v>0.8947798399930735</v>
+        <v>0.8948638695735357</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02652798696454</v>
+        <v>1.026540814246902</v>
       </c>
       <c r="J25">
-        <v>0.9262661940245646</v>
+        <v>0.926347561056719</v>
       </c>
       <c r="K25">
-        <v>0.9288957012234692</v>
+        <v>0.928972350105626</v>
       </c>
       <c r="L25">
-        <v>0.9315215438720248</v>
+        <v>0.9315947442991768</v>
       </c>
       <c r="M25">
-        <v>0.9092653513939715</v>
+        <v>0.9093476399066729</v>
+      </c>
+      <c r="N25">
+        <v>0.95277869294282</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9207035381757243</v>
+        <v>1.009938714517305</v>
       </c>
       <c r="D2">
-        <v>0.9349832215161642</v>
+        <v>1.024688810502035</v>
       </c>
       <c r="E2">
-        <v>0.9371972531098278</v>
+        <v>1.021728631345685</v>
       </c>
       <c r="F2">
-        <v>0.9191283293618558</v>
+        <v>1.030957880644133</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03160900800125</v>
+        <v>1.051652080080459</v>
       </c>
       <c r="J2">
-        <v>0.9455455012797714</v>
+        <v>1.031826170206008</v>
       </c>
       <c r="K2">
-        <v>0.9474293486937984</v>
+        <v>1.035814581116537</v>
       </c>
       <c r="L2">
-        <v>0.9496068815786858</v>
+        <v>1.03289332925746</v>
       </c>
       <c r="M2">
-        <v>0.9318424734071943</v>
+        <v>1.042002134372547</v>
       </c>
       <c r="N2">
-        <v>0.9657531066882252</v>
+        <v>1.033291481719816</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9355759869509089</v>
+        <v>1.029686452563608</v>
       </c>
       <c r="D3">
-        <v>0.9480639360372147</v>
+        <v>1.043548281311323</v>
       </c>
       <c r="E3">
-        <v>0.9499865476292504</v>
+        <v>1.039262513227828</v>
       </c>
       <c r="F3">
-        <v>0.9349279000346917</v>
+        <v>1.049269676953356</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034820759697203</v>
+        <v>1.056021986249723</v>
       </c>
       <c r="J3">
-        <v>0.9579915042085779</v>
+        <v>1.04939929708256</v>
       </c>
       <c r="K3">
-        <v>0.9594075032010956</v>
+        <v>1.053652700161267</v>
       </c>
       <c r="L3">
-        <v>0.9613020500334606</v>
+        <v>1.049416510011717</v>
       </c>
       <c r="M3">
-        <v>0.946467151375571</v>
+        <v>1.05930868894646</v>
       </c>
       <c r="N3">
-        <v>0.9741637187036938</v>
+        <v>1.050889564452199</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9445532728606859</v>
+        <v>1.04156916145667</v>
       </c>
       <c r="D4">
-        <v>0.9559690639621056</v>
+        <v>1.054904059894726</v>
       </c>
       <c r="E4">
-        <v>0.9577192236341184</v>
+        <v>1.04981974192787</v>
       </c>
       <c r="F4">
-        <v>0.9444808714970968</v>
+        <v>1.060295100884358</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036717625478084</v>
+        <v>1.058624128529113</v>
       </c>
       <c r="J4">
-        <v>0.9654901318954965</v>
+        <v>1.059966151191503</v>
       </c>
       <c r="K4">
-        <v>0.9666296509835057</v>
+        <v>1.064382097785995</v>
       </c>
       <c r="L4">
-        <v>0.9683562263385921</v>
+        <v>1.059351888202348</v>
       </c>
       <c r="M4">
-        <v>0.9552990053755464</v>
+        <v>1.069716458786738</v>
       </c>
       <c r="N4">
-        <v>0.9792305117022629</v>
+        <v>1.061471424706012</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9481911866238474</v>
+        <v>1.046379273941752</v>
       </c>
       <c r="D5">
-        <v>0.9591744197080496</v>
+        <v>1.059502337690101</v>
       </c>
       <c r="E5">
-        <v>0.9608555118943714</v>
+        <v>1.054094507859878</v>
       </c>
       <c r="F5">
-        <v>0.9483559647943798</v>
+        <v>1.064759359185905</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037475719100773</v>
+        <v>1.05967049403976</v>
       </c>
       <c r="J5">
-        <v>0.9685253241611601</v>
+        <v>1.064241602335745</v>
       </c>
       <c r="K5">
-        <v>0.9695541875729593</v>
+        <v>1.068724045653654</v>
       </c>
       <c r="L5">
-        <v>0.9712133842085828</v>
+        <v>1.063371769064044</v>
       </c>
       <c r="M5">
-        <v>0.9588789719466151</v>
+        <v>1.073927721511993</v>
       </c>
       <c r="N5">
-        <v>0.9812812227517906</v>
+        <v>1.065752947481279</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9487944937907689</v>
+        <v>1.047176761537981</v>
       </c>
       <c r="D6">
-        <v>0.9597060965554233</v>
+        <v>1.060264782000145</v>
       </c>
       <c r="E6">
-        <v>0.9613757824367356</v>
+        <v>1.054803299585829</v>
       </c>
       <c r="F6">
-        <v>0.9489988357562343</v>
+        <v>1.065499564180479</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037600802058854</v>
+        <v>1.059843553064761</v>
       </c>
       <c r="J6">
-        <v>0.9690284654889051</v>
+        <v>1.064950322171786</v>
       </c>
       <c r="K6">
-        <v>0.9700390584885776</v>
+        <v>1.069443830355802</v>
       </c>
       <c r="L6">
-        <v>0.9716871219155925</v>
+        <v>1.064038119363536</v>
       </c>
       <c r="M6">
-        <v>0.9594727272663387</v>
+        <v>1.074625808877198</v>
       </c>
       <c r="N6">
-        <v>0.9816211575384856</v>
+        <v>1.066462673780779</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9446023960984834</v>
+        <v>1.041634129494206</v>
       </c>
       <c r="D7">
-        <v>0.9560123390540383</v>
+        <v>1.054966161335818</v>
       </c>
       <c r="E7">
-        <v>0.9577615628589812</v>
+        <v>1.049877474920132</v>
       </c>
       <c r="F7">
-        <v>0.9445331818390335</v>
+        <v>1.060355393465267</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036727905007276</v>
+        <v>1.058638289665284</v>
       </c>
       <c r="J7">
-        <v>0.9655311307160862</v>
+        <v>1.060023906075266</v>
       </c>
       <c r="K7">
-        <v>0.9666691501312281</v>
+        <v>1.064440748072653</v>
       </c>
       <c r="L7">
-        <v>0.9683948129052005</v>
+        <v>1.059406191034615</v>
       </c>
       <c r="M7">
-        <v>0.9553473422135846</v>
+        <v>1.069773346000256</v>
       </c>
       <c r="N7">
-        <v>0.9792582129867734</v>
+        <v>1.061529261608334</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9258760753134598</v>
+        <v>1.016817792072254</v>
       </c>
       <c r="D8">
-        <v>0.9395303440257086</v>
+        <v>1.031256570184834</v>
       </c>
       <c r="E8">
-        <v>0.9416422638361419</v>
+        <v>1.027834792519389</v>
       </c>
       <c r="F8">
-        <v>0.9246198603998443</v>
+        <v>1.037334963047936</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032734720040775</v>
+        <v>1.05317997044611</v>
       </c>
       <c r="J8">
-        <v>0.9498770656884735</v>
+        <v>1.037949144667921</v>
       </c>
       <c r="K8">
-        <v>0.9515968884350121</v>
+        <v>1.042029163399571</v>
       </c>
       <c r="L8">
-        <v>0.953675388811582</v>
+        <v>1.038650475221673</v>
       </c>
       <c r="M8">
-        <v>0.9369279410846446</v>
+        <v>1.048031885559262</v>
       </c>
       <c r="N8">
-        <v>0.9686803384841258</v>
+        <v>1.03942315150778</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.886797587819846</v>
+        <v>0.9643800982149858</v>
       </c>
       <c r="D9">
-        <v>0.9052413470864913</v>
+        <v>0.9812509669476065</v>
       </c>
       <c r="E9">
-        <v>0.9081417801308891</v>
+        <v>0.9813464635161061</v>
       </c>
       <c r="F9">
-        <v>0.8832043546872871</v>
+        <v>0.988785587201088</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.024064159310554</v>
+        <v>1.041428988009889</v>
       </c>
       <c r="J9">
-        <v>0.9170955660882389</v>
+        <v>0.9912565784425057</v>
       </c>
       <c r="K9">
-        <v>0.9200848490000665</v>
+        <v>0.9946557394768277</v>
       </c>
       <c r="L9">
-        <v>0.9229245385759383</v>
+        <v>0.9947496094836759</v>
       </c>
       <c r="M9">
-        <v>0.8985267508124246</v>
+        <v>1.002063269140024</v>
       </c>
       <c r="N9">
-        <v>0.9465259629988521</v>
+        <v>0.9926642764826129</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8542614719276961</v>
+        <v>0.9193005128112268</v>
       </c>
       <c r="D10">
-        <v>0.8768185546511923</v>
+        <v>0.9383917977023839</v>
       </c>
       <c r="E10">
-        <v>0.8803997838092641</v>
+        <v>0.9415159607991587</v>
       </c>
       <c r="F10">
-        <v>0.8488142328670986</v>
+        <v>0.9471961925821949</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.016675116386551</v>
+        <v>1.031235333717277</v>
       </c>
       <c r="J10">
-        <v>0.8897442718009995</v>
+        <v>0.9511269583636314</v>
       </c>
       <c r="K10">
-        <v>0.8938356744047307</v>
+        <v>0.9539702425364232</v>
       </c>
       <c r="L10">
-        <v>0.8973257761559851</v>
+        <v>0.9570280436533984</v>
       </c>
       <c r="M10">
-        <v>0.8665802053682432</v>
+        <v>0.9625891004418824</v>
       </c>
       <c r="N10">
-        <v>0.9280431122399354</v>
+        <v>0.9524776677402946</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8376465081971286</v>
+        <v>0.8953378824507876</v>
       </c>
       <c r="D11">
-        <v>0.8623544206527798</v>
+        <v>0.9156696701082014</v>
       </c>
       <c r="E11">
-        <v>0.8662895790127212</v>
+        <v>0.9204092991804558</v>
       </c>
       <c r="F11">
-        <v>0.831269653220755</v>
+        <v>0.9251618960021849</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.012888575032256</v>
+        <v>1.025824284729584</v>
       </c>
       <c r="J11">
-        <v>0.8757734797454449</v>
+        <v>0.9298207568528077</v>
       </c>
       <c r="K11">
-        <v>0.8804405915655605</v>
+        <v>0.9323787596347556</v>
       </c>
       <c r="L11">
-        <v>0.8842661982891964</v>
+        <v>0.9370063002710517</v>
       </c>
       <c r="M11">
-        <v>0.8502716381587444</v>
+        <v>0.941648043950773</v>
       </c>
       <c r="N11">
-        <v>0.9186041482914585</v>
+        <v>0.9311412089794703</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8309412460161889</v>
+        <v>0.8853901720645756</v>
       </c>
       <c r="D12">
-        <v>0.856527651508257</v>
+        <v>0.9062509028971487</v>
       </c>
       <c r="E12">
-        <v>0.8606066093526291</v>
+        <v>0.9116627865287833</v>
       </c>
       <c r="F12">
-        <v>0.8241908499887219</v>
+        <v>0.916032090178631</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.011362511234864</v>
+        <v>1.02358409871607</v>
       </c>
       <c r="J12">
-        <v>0.8701364563475855</v>
+        <v>0.9209836413810232</v>
       </c>
       <c r="K12">
-        <v>0.8750380993978208</v>
+        <v>0.9234252377199603</v>
       </c>
       <c r="L12">
-        <v>0.8789994848933583</v>
+        <v>0.9287035197749247</v>
       </c>
       <c r="M12">
-        <v>0.8436906151218753</v>
+        <v>0.9329665070851973</v>
       </c>
       <c r="N12">
-        <v>0.9147961558476511</v>
+        <v>0.9222915437900847</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8324073305279792</v>
+        <v>0.8875815819238096</v>
       </c>
       <c r="D13">
-        <v>0.8578011234342502</v>
+        <v>0.9083250496192163</v>
       </c>
       <c r="E13">
-        <v>0.8618485968989259</v>
+        <v>0.9135887486552529</v>
       </c>
       <c r="F13">
-        <v>0.8257385598083187</v>
+        <v>0.9180423922277642</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.011695998686145</v>
+        <v>1.024077202663201</v>
       </c>
       <c r="J13">
-        <v>0.8713688845398062</v>
+        <v>0.9229299468169697</v>
       </c>
       <c r="K13">
-        <v>0.8762191449925619</v>
+        <v>0.9253970852186001</v>
       </c>
       <c r="L13">
-        <v>0.8801508291083714</v>
+        <v>0.930532054351302</v>
       </c>
       <c r="M13">
-        <v>0.8451295147932505</v>
+        <v>0.9348783261854491</v>
       </c>
       <c r="N13">
-        <v>0.9156286741599672</v>
+        <v>0.9242406132029943</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8371043980764804</v>
+        <v>0.8945404509684831</v>
       </c>
       <c r="D14">
-        <v>0.861883105257788</v>
+        <v>0.9149143255222627</v>
       </c>
       <c r="E14">
-        <v>0.8658298704465693</v>
+        <v>0.9197078056721556</v>
       </c>
       <c r="F14">
-        <v>0.8306973189505955</v>
+        <v>0.924429635834482</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.012765123441196</v>
+        <v>1.025644545210046</v>
       </c>
       <c r="J14">
-        <v>0.875317699355676</v>
+        <v>0.9291121659214672</v>
       </c>
       <c r="K14">
-        <v>0.8800037274055852</v>
+        <v>0.9316607937121802</v>
       </c>
       <c r="L14">
-        <v>0.8838403051881388</v>
+        <v>0.9363405172725981</v>
       </c>
       <c r="M14">
-        <v>0.8497395629262682</v>
+        <v>0.9409518340839009</v>
       </c>
       <c r="N14">
-        <v>0.9182962423165141</v>
+        <v>0.9304316117677307</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8399213803982646</v>
+        <v>0.898672093282511</v>
       </c>
       <c r="D15">
-        <v>0.8643326500855135</v>
+        <v>0.9188284886062608</v>
       </c>
       <c r="E15">
-        <v>0.8682191405619458</v>
+        <v>0.9233430252623762</v>
       </c>
       <c r="F15">
-        <v>0.8336714125399886</v>
+        <v>0.9282243385716182</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.013406728851763</v>
+        <v>1.026576085238923</v>
       </c>
       <c r="J15">
-        <v>0.8776861411565323</v>
+        <v>0.9327838438437258</v>
       </c>
       <c r="K15">
-        <v>0.8822739626358794</v>
+        <v>0.9353811276435398</v>
       </c>
       <c r="L15">
-        <v>0.8860535452185568</v>
+        <v>0.9397904459837559</v>
       </c>
       <c r="M15">
-        <v>0.8525044221296519</v>
+        <v>0.9445595300260727</v>
       </c>
       <c r="N15">
-        <v>0.9198962828072996</v>
+        <v>0.9341085038937862</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8552998066688242</v>
+        <v>0.9207716209385294</v>
       </c>
       <c r="D16">
-        <v>0.8777236594295088</v>
+        <v>0.9397882109250938</v>
       </c>
       <c r="E16">
-        <v>0.8812828949751831</v>
+        <v>0.9428133527608016</v>
       </c>
       <c r="F16">
-        <v>0.8499109368661825</v>
+        <v>0.9485507182506437</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0169117723607</v>
+        <v>1.031567991569269</v>
       </c>
       <c r="J16">
-        <v>0.8906174049194632</v>
+        <v>0.9524357183128244</v>
       </c>
       <c r="K16">
-        <v>0.8946730993880263</v>
+        <v>0.9552967427884473</v>
       </c>
       <c r="L16">
-        <v>0.898142291773925</v>
+        <v>0.9582580609090394</v>
       </c>
       <c r="M16">
-        <v>0.8675994833294449</v>
+        <v>0.9638758570781314</v>
       </c>
       <c r="N16">
-        <v>0.9286330716139946</v>
+        <v>0.9537882862787325</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8641869624605422</v>
+        <v>0.9332603641404644</v>
       </c>
       <c r="D17">
-        <v>0.8854759628962275</v>
+        <v>0.951649237798756</v>
       </c>
       <c r="E17">
-        <v>0.8888476177466149</v>
+        <v>0.9538343554190667</v>
       </c>
       <c r="F17">
-        <v>0.859299439795046</v>
+        <v>0.9600575328637324</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.018936188281898</v>
+        <v>1.034393059554405</v>
       </c>
       <c r="J17">
-        <v>0.8980903156966553</v>
+        <v>0.9635489924151087</v>
       </c>
       <c r="K17">
-        <v>0.9018417567671744</v>
+        <v>0.9665616895685327</v>
       </c>
       <c r="L17">
-        <v>0.905132333029069</v>
+        <v>0.9687033334619088</v>
       </c>
       <c r="M17">
-        <v>0.8763240850105805</v>
+        <v>0.9748041206099215</v>
       </c>
       <c r="N17">
-        <v>0.9336825891978418</v>
+        <v>0.9649173425049523</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8691403753054644</v>
+        <v>0.9401499934943031</v>
       </c>
       <c r="D18">
-        <v>0.8898010012965406</v>
+        <v>0.9581973053287369</v>
       </c>
       <c r="E18">
-        <v>0.8930686489378573</v>
+        <v>0.9599194191084468</v>
       </c>
       <c r="F18">
-        <v>0.8645338535261218</v>
+        <v>0.9664111714009223</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.020063083243835</v>
+        <v>1.035951829453641</v>
       </c>
       <c r="J18">
-        <v>0.902255042214952</v>
+        <v>0.9696816540081659</v>
       </c>
       <c r="K18">
-        <v>0.9058380050506509</v>
+        <v>0.9727788507238093</v>
       </c>
       <c r="L18">
-        <v>0.9090293287303711</v>
+        <v>0.9744678214668226</v>
       </c>
       <c r="M18">
-        <v>0.88118737575898</v>
+        <v>0.980836023804079</v>
       </c>
       <c r="N18">
-        <v>0.9364968850432772</v>
+        <v>0.9710587131808976</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8707936226200299</v>
+        <v>0.9424393930200996</v>
       </c>
       <c r="D19">
-        <v>0.8912451694019369</v>
+        <v>0.9603739224007561</v>
       </c>
       <c r="E19">
-        <v>0.894478195185431</v>
+        <v>0.9619422379014687</v>
       </c>
       <c r="F19">
-        <v>0.8662811700793029</v>
+        <v>0.9685233208104075</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.020438866720973</v>
+        <v>1.036469760141199</v>
       </c>
       <c r="J19">
-        <v>0.9036449527207926</v>
+        <v>0.9717197582392356</v>
       </c>
       <c r="K19">
-        <v>0.9071718660747801</v>
+        <v>0.9748451654658328</v>
       </c>
       <c r="L19">
-        <v>0.9103301168026179</v>
+        <v>0.9763836332625113</v>
       </c>
       <c r="M19">
-        <v>0.8828106288035784</v>
+        <v>0.9828408422189646</v>
       </c>
       <c r="N19">
-        <v>0.9374361321247866</v>
+        <v>0.9730997117537497</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8632581087376719</v>
+        <v>0.9319631023051911</v>
       </c>
       <c r="D20">
-        <v>0.8846652678088757</v>
+        <v>0.9504166583682867</v>
       </c>
       <c r="E20">
-        <v>0.8880564704691004</v>
+        <v>0.952688986342326</v>
       </c>
       <c r="F20">
-        <v>0.8583180266332777</v>
+        <v>0.9588616371313944</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.018724735174037</v>
+        <v>1.03409955528705</v>
       </c>
       <c r="J20">
-        <v>0.8973093110406736</v>
+        <v>0.9623943953535645</v>
       </c>
       <c r="K20">
-        <v>0.9010924341977656</v>
+        <v>0.9653912480489202</v>
       </c>
       <c r="L20">
-        <v>0.9044016475518885</v>
+        <v>0.9676180867738593</v>
       </c>
       <c r="M20">
-        <v>0.8754121712024819</v>
+        <v>0.9736685968863186</v>
       </c>
       <c r="N20">
-        <v>0.9331548399458083</v>
+        <v>0.9637611057831468</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8357377158860633</v>
+        <v>0.8925249932262398</v>
       </c>
       <c r="D21">
-        <v>0.8606950778237084</v>
+        <v>0.9130054812125593</v>
       </c>
       <c r="E21">
-        <v>0.8646711195748407</v>
+        <v>0.9179350956363188</v>
       </c>
       <c r="F21">
-        <v>0.8292544614446646</v>
+        <v>0.9225791963965715</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.012453946951052</v>
+        <v>1.025190383838406</v>
       </c>
       <c r="J21">
-        <v>0.8741686834350461</v>
+        <v>0.9273213885153532</v>
       </c>
       <c r="K21">
-        <v>0.8789024357638895</v>
+        <v>0.9298463554956288</v>
       </c>
       <c r="L21">
-        <v>0.8827666774369166</v>
+        <v>0.9346579537472173</v>
       </c>
       <c r="M21">
-        <v>0.8483981872870404</v>
+        <v>0.9391924184075339</v>
       </c>
       <c r="N21">
-        <v>0.9175200245204773</v>
+        <v>0.9286382912522952</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8151722309596174</v>
+        <v>0.8610961543819767</v>
       </c>
       <c r="D22">
-        <v>0.8428498861806093</v>
+        <v>0.883286515840262</v>
       </c>
       <c r="E22">
-        <v>0.8472688545627133</v>
+        <v>0.8903450716919259</v>
       </c>
       <c r="F22">
-        <v>0.8075444442521902</v>
+        <v>0.893783299852511</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.007784747727557</v>
+        <v>1.018135656484628</v>
       </c>
       <c r="J22">
-        <v>0.8568849743066836</v>
+        <v>0.8994260700633085</v>
       </c>
       <c r="K22">
-        <v>0.8623427723890915</v>
+        <v>0.901588344236031</v>
       </c>
       <c r="L22">
-        <v>0.8666239343359554</v>
+        <v>0.9084540572662808</v>
       </c>
       <c r="M22">
-        <v>0.8282143947877376</v>
+        <v>0.9117998501397189</v>
       </c>
       <c r="N22">
-        <v>0.9058456760040048</v>
+        <v>0.9007033582484107</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.826468085173668</v>
+        <v>0.8786411316645978</v>
       </c>
       <c r="D23">
-        <v>0.8526440451714344</v>
+        <v>0.8998657076950639</v>
       </c>
       <c r="E23">
-        <v>0.85681920620964</v>
+        <v>0.9057343106542106</v>
       </c>
       <c r="F23">
-        <v>0.8194687540411474</v>
+        <v>0.90984422195235</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.010345774210339</v>
+        <v>1.022066997751181</v>
       </c>
       <c r="J23">
-        <v>0.8663765699295994</v>
+        <v>0.9149911598585689</v>
       </c>
       <c r="K23">
-        <v>0.8714353348244162</v>
+        <v>0.9173544522586267</v>
       </c>
       <c r="L23">
-        <v>0.8754873811211501</v>
+        <v>0.9230739699208517</v>
       </c>
       <c r="M23">
-        <v>0.8393004526899311</v>
+        <v>0.9270810167657709</v>
       </c>
       <c r="N23">
-        <v>0.9122564100635666</v>
+        <v>0.9162905522565211</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8636785193577373</v>
+        <v>0.9325504762468751</v>
       </c>
       <c r="D24">
-        <v>0.8850321854712826</v>
+        <v>0.9509747307474798</v>
       </c>
       <c r="E24">
-        <v>0.8884145388409463</v>
+        <v>0.9532075703828435</v>
       </c>
       <c r="F24">
-        <v>0.8587622213164325</v>
+        <v>0.9594030968626472</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.018820446260431</v>
+        <v>1.034232447505118</v>
       </c>
       <c r="J24">
-        <v>0.8976628048135753</v>
+        <v>0.9629171679935719</v>
       </c>
       <c r="K24">
-        <v>0.9014315848126364</v>
+        <v>0.9659211921533498</v>
       </c>
       <c r="L24">
-        <v>0.9047323618307741</v>
+        <v>0.9681094579128579</v>
       </c>
       <c r="M24">
-        <v>0.8758249130851801</v>
+        <v>0.9741827294582029</v>
       </c>
       <c r="N24">
-        <v>0.9333937062750366</v>
+        <v>0.9642846208202656</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8978135285147081</v>
+        <v>0.9792927554069037</v>
       </c>
       <c r="D25">
-        <v>0.9148915832474541</v>
+        <v>0.995457269855735</v>
       </c>
       <c r="E25">
-        <v>0.9175660487251961</v>
+        <v>0.9945524899098513</v>
       </c>
       <c r="F25">
-        <v>0.8948638695735357</v>
+        <v>1.002576538493689</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026540814246902</v>
+        <v>1.044790464247164</v>
       </c>
       <c r="J25">
-        <v>0.926347561056719</v>
+        <v>1.004537677433431</v>
       </c>
       <c r="K25">
-        <v>0.928972350105626</v>
+        <v>1.008126517576478</v>
       </c>
       <c r="L25">
-        <v>0.9315947442991768</v>
+        <v>1.007235964202893</v>
       </c>
       <c r="M25">
-        <v>0.9093476399066729</v>
+        <v>1.015134988261074</v>
       </c>
       <c r="N25">
-        <v>0.95277869294282</v>
+        <v>1.005964236157469</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009938714517305</v>
+        <v>1.008311874287442</v>
       </c>
       <c r="D2">
-        <v>1.024688810502035</v>
+        <v>1.022487730133879</v>
       </c>
       <c r="E2">
-        <v>1.021728631345685</v>
+        <v>1.022722404122428</v>
       </c>
       <c r="F2">
-        <v>1.030957880644133</v>
+        <v>1.031484086825769</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051652080080459</v>
+        <v>1.047138639092101</v>
       </c>
       <c r="J2">
-        <v>1.031826170206008</v>
+        <v>1.030246789287171</v>
       </c>
       <c r="K2">
-        <v>1.035814581116537</v>
+        <v>1.033642418710586</v>
       </c>
       <c r="L2">
-        <v>1.03289332925746</v>
+        <v>1.033874002101714</v>
       </c>
       <c r="M2">
-        <v>1.042002134372547</v>
+        <v>1.042521554665659</v>
       </c>
       <c r="N2">
-        <v>1.033291481719816</v>
+        <v>1.013915244971768</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029686452563608</v>
+        <v>1.01219326624053</v>
       </c>
       <c r="D3">
-        <v>1.043548281311323</v>
+        <v>1.025667537807006</v>
       </c>
       <c r="E3">
-        <v>1.039262513227828</v>
+        <v>1.025895415608838</v>
       </c>
       <c r="F3">
-        <v>1.049269676953356</v>
+        <v>1.034913784610079</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056021986249723</v>
+        <v>1.047829303654518</v>
       </c>
       <c r="J3">
-        <v>1.04939929708256</v>
+        <v>1.032356960911172</v>
       </c>
       <c r="K3">
-        <v>1.053652700161267</v>
+        <v>1.035982202388478</v>
       </c>
       <c r="L3">
-        <v>1.049416510011717</v>
+        <v>1.036207343559249</v>
       </c>
       <c r="M3">
-        <v>1.05930868894646</v>
+        <v>1.045118607062493</v>
       </c>
       <c r="N3">
-        <v>1.050889564452199</v>
+        <v>1.014626223777986</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04156916145667</v>
+        <v>1.014660262318178</v>
       </c>
       <c r="D4">
-        <v>1.054904059894726</v>
+        <v>1.027693941900292</v>
       </c>
       <c r="E4">
-        <v>1.04981974192787</v>
+        <v>1.027917917946032</v>
       </c>
       <c r="F4">
-        <v>1.060295100884358</v>
+        <v>1.037099479033259</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058624128529113</v>
+        <v>1.048257581152006</v>
       </c>
       <c r="J4">
-        <v>1.059966151191503</v>
+        <v>1.033696248758461</v>
       </c>
       <c r="K4">
-        <v>1.064382097785995</v>
+        <v>1.037469231430283</v>
       </c>
       <c r="L4">
-        <v>1.059351888202348</v>
+        <v>1.037690681584145</v>
       </c>
       <c r="M4">
-        <v>1.069716458786738</v>
+        <v>1.046769851952346</v>
       </c>
       <c r="N4">
-        <v>1.061471424706012</v>
+        <v>1.01507731278483</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046379273941752</v>
+        <v>1.015687048299855</v>
       </c>
       <c r="D5">
-        <v>1.059502337690101</v>
+        <v>1.02853859468691</v>
       </c>
       <c r="E5">
-        <v>1.054094507859878</v>
+        <v>1.028761046736328</v>
       </c>
       <c r="F5">
-        <v>1.064759359185905</v>
+        <v>1.03801054022368</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05967049403976</v>
+        <v>1.048433228259754</v>
       </c>
       <c r="J5">
-        <v>1.064241602335745</v>
+        <v>1.034253180825517</v>
       </c>
       <c r="K5">
-        <v>1.068724045653654</v>
+        <v>1.038088084784504</v>
       </c>
       <c r="L5">
-        <v>1.063371769064044</v>
+        <v>1.038308095565628</v>
       </c>
       <c r="M5">
-        <v>1.073927721511993</v>
+        <v>1.047457217044521</v>
       </c>
       <c r="N5">
-        <v>1.065752947481279</v>
+        <v>1.01526485480857</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047176761537981</v>
+        <v>1.015858852948324</v>
       </c>
       <c r="D6">
-        <v>1.060264782000145</v>
+        <v>1.028679996521197</v>
       </c>
       <c r="E6">
-        <v>1.054803299585829</v>
+        <v>1.028902199437532</v>
       </c>
       <c r="F6">
-        <v>1.065499564180479</v>
+        <v>1.038163060171066</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059843553064761</v>
+        <v>1.048462463784367</v>
       </c>
       <c r="J6">
-        <v>1.064950322171786</v>
+        <v>1.034346338502763</v>
       </c>
       <c r="K6">
-        <v>1.069443830355802</v>
+        <v>1.038191628523962</v>
       </c>
       <c r="L6">
-        <v>1.064038119363536</v>
+        <v>1.038411404159281</v>
       </c>
       <c r="M6">
-        <v>1.074625808877198</v>
+        <v>1.047572233871112</v>
       </c>
       <c r="N6">
-        <v>1.066462673780779</v>
+        <v>1.015296222447612</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041634129494206</v>
+        <v>1.014674022493609</v>
       </c>
       <c r="D7">
-        <v>1.054966161335818</v>
+        <v>1.027705256398751</v>
       </c>
       <c r="E7">
-        <v>1.049877474920132</v>
+        <v>1.027929211626881</v>
       </c>
       <c r="F7">
-        <v>1.060355393465267</v>
+        <v>1.037111683049524</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058638289665284</v>
+        <v>1.048259945372418</v>
       </c>
       <c r="J7">
-        <v>1.060023906075266</v>
+        <v>1.033703714301075</v>
       </c>
       <c r="K7">
-        <v>1.064440748072653</v>
+        <v>1.037477525097723</v>
       </c>
       <c r="L7">
-        <v>1.059406191034615</v>
+        <v>1.037698955579801</v>
       </c>
       <c r="M7">
-        <v>1.069773346000256</v>
+        <v>1.046779063118688</v>
       </c>
       <c r="N7">
-        <v>1.061529261608334</v>
+        <v>1.015079826900994</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016817792072254</v>
+        <v>1.009633024814382</v>
       </c>
       <c r="D8">
-        <v>1.031256570184834</v>
+        <v>1.023568937753654</v>
       </c>
       <c r="E8">
-        <v>1.027834792519389</v>
+        <v>1.02380121078644</v>
       </c>
       <c r="F8">
-        <v>1.037334963047936</v>
+        <v>1.032650255418217</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05317997044611</v>
+        <v>1.047375945996401</v>
       </c>
       <c r="J8">
-        <v>1.037949144667921</v>
+        <v>1.030965436512031</v>
       </c>
       <c r="K8">
-        <v>1.042029163399571</v>
+        <v>1.034438843246399</v>
       </c>
       <c r="L8">
-        <v>1.038650475221673</v>
+        <v>1.034668149350238</v>
       </c>
       <c r="M8">
-        <v>1.048031885559262</v>
+        <v>1.043405400361044</v>
       </c>
       <c r="N8">
-        <v>1.03942315150778</v>
+        <v>1.014157409772617</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9643800982149858</v>
+        <v>1.000394082839856</v>
       </c>
       <c r="D9">
-        <v>0.9812509669476065</v>
+        <v>1.016031910720786</v>
       </c>
       <c r="E9">
-        <v>0.9813464635161061</v>
+        <v>1.016282753056764</v>
       </c>
       <c r="F9">
-        <v>0.988785587201088</v>
+        <v>1.024521053505349</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041428988009889</v>
+        <v>1.045672760983554</v>
       </c>
       <c r="J9">
-        <v>0.9912565784425057</v>
+        <v>1.025932932696973</v>
       </c>
       <c r="K9">
-        <v>0.9946557394768277</v>
+        <v>1.028870128148801</v>
       </c>
       <c r="L9">
-        <v>0.9947496094836759</v>
+        <v>1.029117064501107</v>
       </c>
       <c r="M9">
-        <v>1.002063269140024</v>
+        <v>1.037228437983868</v>
       </c>
       <c r="N9">
-        <v>0.9926642764826129</v>
+        <v>1.012461018069594</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9193005128112268</v>
+        <v>0.9939732566646714</v>
       </c>
       <c r="D10">
-        <v>0.9383917977023839</v>
+        <v>1.010825959045457</v>
       </c>
       <c r="E10">
-        <v>0.9415159607991587</v>
+        <v>1.011091982905552</v>
       </c>
       <c r="F10">
-        <v>0.9471961925821949</v>
+        <v>1.018906077268699</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031235333717277</v>
+        <v>1.044435375038214</v>
       </c>
       <c r="J10">
-        <v>0.9511269583636314</v>
+        <v>1.022428046175555</v>
       </c>
       <c r="K10">
-        <v>0.9539702425364232</v>
+        <v>1.025002460384169</v>
       </c>
       <c r="L10">
-        <v>0.9570280436533984</v>
+        <v>1.025263815096743</v>
       </c>
       <c r="M10">
-        <v>0.9625891004418824</v>
+        <v>1.03294216566753</v>
       </c>
       <c r="N10">
-        <v>0.9524776677402946</v>
+        <v>1.011278935042836</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8953378824507876</v>
+        <v>0.9911256663530059</v>
       </c>
       <c r="D11">
-        <v>0.9156696701082014</v>
+        <v>1.008525338884014</v>
       </c>
       <c r="E11">
-        <v>0.9204092991804558</v>
+        <v>1.008798642827184</v>
       </c>
       <c r="F11">
-        <v>0.9251618960021849</v>
+        <v>1.016424666944403</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025824284729584</v>
+        <v>1.043874409128384</v>
       </c>
       <c r="J11">
-        <v>0.9298207568528077</v>
+        <v>1.020872345538029</v>
       </c>
       <c r="K11">
-        <v>0.9323787596347556</v>
+        <v>1.023288250982684</v>
       </c>
       <c r="L11">
-        <v>0.9370063002710517</v>
+        <v>1.023556515529507</v>
       </c>
       <c r="M11">
-        <v>0.941648043950773</v>
+        <v>1.031043345814002</v>
       </c>
       <c r="N11">
-        <v>0.9311412089794703</v>
+        <v>1.010754129600534</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8853901720645756</v>
+        <v>0.9900573507194714</v>
       </c>
       <c r="D12">
-        <v>0.9062509028971487</v>
+        <v>1.007663507263312</v>
       </c>
       <c r="E12">
-        <v>0.9116627865287833</v>
+        <v>1.00793962532812</v>
       </c>
       <c r="F12">
-        <v>0.916032090178631</v>
+        <v>1.015495101894018</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02358409871607</v>
+        <v>1.043662169889633</v>
       </c>
       <c r="J12">
-        <v>0.9209836413810232</v>
+        <v>1.020288544577376</v>
       </c>
       <c r="K12">
-        <v>0.9234252377199603</v>
+        <v>1.022645344739307</v>
       </c>
       <c r="L12">
-        <v>0.9287035197749247</v>
+        <v>1.022916279228455</v>
       </c>
       <c r="M12">
-        <v>0.9329665070851973</v>
+        <v>1.030331341734628</v>
       </c>
       <c r="N12">
-        <v>0.9222915437900847</v>
+        <v>1.010557172956869</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8875815819238096</v>
+        <v>0.9902869954260195</v>
       </c>
       <c r="D13">
-        <v>0.9083250496192163</v>
+        <v>1.007848707559922</v>
       </c>
       <c r="E13">
-        <v>0.9135887486552529</v>
+        <v>1.008124216944728</v>
       </c>
       <c r="F13">
-        <v>0.9180423922277642</v>
+        <v>1.015694857933867</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024077202663201</v>
+        <v>1.043707872625764</v>
       </c>
       <c r="J13">
-        <v>0.9229299468169697</v>
+        <v>1.020414044636706</v>
       </c>
       <c r="K13">
-        <v>0.9253970852186001</v>
+        <v>1.022783533641651</v>
       </c>
       <c r="L13">
-        <v>0.930532054351302</v>
+        <v>1.023053890690176</v>
       </c>
       <c r="M13">
-        <v>0.9348783261854491</v>
+        <v>1.030484376488615</v>
       </c>
       <c r="N13">
-        <v>0.9242406132029943</v>
+        <v>1.010599513494827</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8945404509684831</v>
+        <v>0.9910375780224961</v>
       </c>
       <c r="D14">
-        <v>0.9149143255222627</v>
+        <v>1.008454249930295</v>
       </c>
       <c r="E14">
-        <v>0.9197078056721556</v>
+        <v>1.008727784222979</v>
       </c>
       <c r="F14">
-        <v>0.924429635834482</v>
+        <v>1.016347991115808</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025644545210046</v>
+        <v>1.043856944883867</v>
       </c>
       <c r="J14">
-        <v>0.9291121659214672</v>
+        <v>1.020824210986207</v>
       </c>
       <c r="K14">
-        <v>0.9316607937121802</v>
+        <v>1.023235235507903</v>
       </c>
       <c r="L14">
-        <v>0.9363405172725981</v>
+        <v>1.023503718626122</v>
       </c>
       <c r="M14">
-        <v>0.9409518340839009</v>
+        <v>1.030984629535708</v>
       </c>
       <c r="N14">
-        <v>0.9304316117677307</v>
+        <v>1.010737890764313</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.898672093282511</v>
+        <v>0.9914986181810169</v>
       </c>
       <c r="D15">
-        <v>0.9188284886062608</v>
+        <v>1.008826370605072</v>
       </c>
       <c r="E15">
-        <v>0.9233430252623762</v>
+        <v>1.009098702670698</v>
       </c>
       <c r="F15">
-        <v>0.9282243385716182</v>
+        <v>1.016749356382701</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026576085238923</v>
+        <v>1.043948277425304</v>
       </c>
       <c r="J15">
-        <v>0.9327838438437258</v>
+        <v>1.021076133333222</v>
       </c>
       <c r="K15">
-        <v>0.9353811276435398</v>
+        <v>1.023512718594244</v>
       </c>
       <c r="L15">
-        <v>0.9397904459837559</v>
+        <v>1.023780060911994</v>
       </c>
       <c r="M15">
-        <v>0.9445595300260727</v>
+        <v>1.031291956332882</v>
       </c>
       <c r="N15">
-        <v>0.9341085038937862</v>
+        <v>1.010822879540267</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9207716209385294</v>
+        <v>0.9941607830920738</v>
       </c>
       <c r="D16">
-        <v>0.9397882109250938</v>
+        <v>1.01097764006485</v>
       </c>
       <c r="E16">
-        <v>0.9428133527608016</v>
+        <v>1.011243195974895</v>
       </c>
       <c r="F16">
-        <v>0.9485507182506437</v>
+        <v>1.019069676928396</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031567991569269</v>
+        <v>1.044472066633435</v>
       </c>
       <c r="J16">
-        <v>0.9524357183128244</v>
+        <v>1.022530471970949</v>
       </c>
       <c r="K16">
-        <v>0.9552967427884473</v>
+        <v>1.025115374706111</v>
       </c>
       <c r="L16">
-        <v>0.9582580609090394</v>
+        <v>1.025376285146074</v>
       </c>
       <c r="M16">
-        <v>0.9638758570781314</v>
+        <v>1.033067259527793</v>
       </c>
       <c r="N16">
-        <v>0.9537882862787325</v>
+        <v>1.011313485460176</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9332603641404644</v>
+        <v>0.9958123335616431</v>
       </c>
       <c r="D17">
-        <v>0.951649237798756</v>
+        <v>1.012314438396665</v>
       </c>
       <c r="E17">
-        <v>0.9538343554190667</v>
+        <v>1.012575935555643</v>
       </c>
       <c r="F17">
-        <v>0.9600575328637324</v>
+        <v>1.020511512682929</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034393059554405</v>
+        <v>1.044793825180172</v>
       </c>
       <c r="J17">
-        <v>0.9635489924151087</v>
+        <v>1.023432394258258</v>
       </c>
       <c r="K17">
-        <v>0.9665616895685327</v>
+        <v>1.026109941910969</v>
       </c>
       <c r="L17">
-        <v>0.9687033334619088</v>
+        <v>1.026366998442619</v>
       </c>
       <c r="M17">
-        <v>0.9748041206099215</v>
+        <v>1.034169211294501</v>
       </c>
       <c r="N17">
-        <v>0.9649173425049523</v>
+        <v>1.011617709970796</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9401499934943031</v>
+        <v>0.9967691923354534</v>
       </c>
       <c r="D18">
-        <v>0.9581973053287369</v>
+        <v>1.013089714024545</v>
       </c>
       <c r="E18">
-        <v>0.9599194191084468</v>
+        <v>1.013348911664477</v>
       </c>
       <c r="F18">
-        <v>0.9664111714009223</v>
+        <v>1.021347701712749</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035951829453641</v>
+        <v>1.044979079348819</v>
       </c>
       <c r="J18">
-        <v>0.9696816540081659</v>
+        <v>1.023954813796134</v>
       </c>
       <c r="K18">
-        <v>0.9727788507238093</v>
+        <v>1.026686263456322</v>
       </c>
       <c r="L18">
-        <v>0.9744678214668226</v>
+        <v>1.026941136158905</v>
       </c>
       <c r="M18">
-        <v>0.980836023804079</v>
+        <v>1.034807846547795</v>
       </c>
       <c r="N18">
-        <v>0.9710587131808976</v>
+        <v>1.011793914162743</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9424393930200996</v>
+        <v>0.99709437434047</v>
       </c>
       <c r="D19">
-        <v>0.9603739224007561</v>
+        <v>1.013353316162743</v>
       </c>
       <c r="E19">
-        <v>0.9619422379014687</v>
+        <v>1.013611741127534</v>
       </c>
       <c r="F19">
-        <v>0.9685233208104075</v>
+        <v>1.021632014645099</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036469760141199</v>
+        <v>1.045041838043963</v>
       </c>
       <c r="J19">
-        <v>0.9717197582392356</v>
+        <v>1.024132331817972</v>
       </c>
       <c r="K19">
-        <v>0.9748451654658328</v>
+        <v>1.026882137994349</v>
       </c>
       <c r="L19">
-        <v>0.9763836332625113</v>
+        <v>1.027136276845636</v>
       </c>
       <c r="M19">
-        <v>0.9828408422189646</v>
+        <v>1.035024914493193</v>
       </c>
       <c r="N19">
-        <v>0.9730997117537497</v>
+        <v>1.011853786277915</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9319631023051911</v>
+        <v>0.9956358096596385</v>
       </c>
       <c r="D20">
-        <v>0.9504166583682867</v>
+        <v>1.012171475677774</v>
       </c>
       <c r="E20">
-        <v>0.952688986342326</v>
+        <v>1.012433401254039</v>
       </c>
       <c r="F20">
-        <v>0.9588616371313944</v>
+        <v>1.020357317161641</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03409955528705</v>
+        <v>1.044759554701928</v>
       </c>
       <c r="J20">
-        <v>0.9623943953535645</v>
+        <v>1.023336006333295</v>
       </c>
       <c r="K20">
-        <v>0.9653912480489202</v>
+        <v>1.026003628253714</v>
       </c>
       <c r="L20">
-        <v>0.9676180867738593</v>
+        <v>1.026261091621821</v>
       </c>
       <c r="M20">
-        <v>0.9736685968863186</v>
+        <v>1.034051409738125</v>
       </c>
       <c r="N20">
-        <v>0.9637611057831468</v>
+        <v>1.011585198839698</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8925249932262398</v>
+        <v>0.9908168465764908</v>
       </c>
       <c r="D21">
-        <v>0.9130054812125593</v>
+        <v>1.008276136272004</v>
       </c>
       <c r="E21">
-        <v>0.9179350956363188</v>
+        <v>1.008550249111983</v>
       </c>
       <c r="F21">
-        <v>0.9225791963965715</v>
+        <v>1.01615587938266</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025190383838406</v>
+        <v>1.043813154442203</v>
       </c>
       <c r="J21">
-        <v>0.9273213885153532</v>
+        <v>1.020703593196097</v>
       </c>
       <c r="K21">
-        <v>0.9298463554956288</v>
+        <v>1.023102392958205</v>
       </c>
       <c r="L21">
-        <v>0.9346579537472173</v>
+        <v>1.023371425023398</v>
       </c>
       <c r="M21">
-        <v>0.9391924184075339</v>
+        <v>1.030837504553855</v>
       </c>
       <c r="N21">
-        <v>0.9286382912522952</v>
+        <v>1.010697198500124</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8610961543819767</v>
+        <v>0.9877254234211206</v>
       </c>
       <c r="D22">
-        <v>0.883286515840262</v>
+        <v>1.005784704530394</v>
       </c>
       <c r="E22">
-        <v>0.8903450716919259</v>
+        <v>1.006067118372745</v>
       </c>
       <c r="F22">
-        <v>0.893783299852511</v>
+        <v>1.013468621788437</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018135656484628</v>
+        <v>1.043195667120784</v>
       </c>
       <c r="J22">
-        <v>0.8994260700633085</v>
+        <v>1.019013976315953</v>
       </c>
       <c r="K22">
-        <v>0.901588344236031</v>
+        <v>1.021242429766502</v>
       </c>
       <c r="L22">
-        <v>0.9084540572662808</v>
+        <v>1.021519335055386</v>
       </c>
       <c r="M22">
-        <v>0.9117998501397189</v>
+        <v>1.028777902652879</v>
       </c>
       <c r="N22">
-        <v>0.9007033582484107</v>
+        <v>1.010127147474512</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8786411316645978</v>
+        <v>0.9893702465539609</v>
       </c>
       <c r="D23">
-        <v>0.8998657076950639</v>
+        <v>1.007109573752714</v>
       </c>
       <c r="E23">
-        <v>0.9057343106542106</v>
+        <v>1.007387525208145</v>
       </c>
       <c r="F23">
-        <v>0.90984422195235</v>
+        <v>1.014897630818377</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022066997751181</v>
+        <v>1.043525168099097</v>
       </c>
       <c r="J23">
-        <v>0.9149911598585689</v>
+        <v>1.019913024609849</v>
       </c>
       <c r="K23">
-        <v>0.9173544522586267</v>
+        <v>1.022231912643378</v>
       </c>
       <c r="L23">
-        <v>0.9230739699208517</v>
+        <v>1.022504586241379</v>
       </c>
       <c r="M23">
-        <v>0.9270810167657709</v>
+        <v>1.029873514496294</v>
       </c>
       <c r="N23">
-        <v>0.9162905522565211</v>
+        <v>1.010430480016972</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9325504762468751</v>
+        <v>0.9957155931498322</v>
       </c>
       <c r="D24">
-        <v>0.9509747307474798</v>
+        <v>1.012236088126121</v>
       </c>
       <c r="E24">
-        <v>0.9532075703828435</v>
+        <v>1.01249781990957</v>
       </c>
       <c r="F24">
-        <v>0.9594030968626472</v>
+        <v>1.020427006319292</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034232447505118</v>
+        <v>1.044775047534575</v>
       </c>
       <c r="J24">
-        <v>0.9629171679935719</v>
+        <v>1.023379571171132</v>
       </c>
       <c r="K24">
-        <v>0.9659211921533498</v>
+        <v>1.026051678522667</v>
       </c>
       <c r="L24">
-        <v>0.9681094579128579</v>
+        <v>1.026308957861071</v>
       </c>
       <c r="M24">
-        <v>0.9741827294582029</v>
+        <v>1.034104651887423</v>
       </c>
       <c r="N24">
-        <v>0.9642846208202656</v>
+        <v>1.01159989306202</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9792927554069037</v>
+        <v>1.002826971414799</v>
       </c>
       <c r="D25">
-        <v>0.995457269855735</v>
+        <v>1.018011268155871</v>
       </c>
       <c r="E25">
-        <v>0.9945524899098513</v>
+        <v>1.018256829304058</v>
       </c>
       <c r="F25">
-        <v>1.002576538493689</v>
+        <v>1.026655915481413</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044790464247164</v>
+        <v>1.046130723880348</v>
       </c>
       <c r="J25">
-        <v>1.004537677433431</v>
+        <v>1.027259569807644</v>
       </c>
       <c r="K25">
-        <v>1.008126517576478</v>
+        <v>1.030336271531978</v>
       </c>
       <c r="L25">
-        <v>1.007235964202893</v>
+        <v>1.030578191327672</v>
       </c>
       <c r="M25">
-        <v>1.015134988261074</v>
+        <v>1.038854059832843</v>
       </c>
       <c r="N25">
-        <v>1.005964236157469</v>
+        <v>1.012908329361236</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.008311874287442</v>
+        <v>1.037057652392349</v>
       </c>
       <c r="D2">
-        <v>1.022487730133879</v>
+        <v>1.045121814495947</v>
       </c>
       <c r="E2">
-        <v>1.022722404122428</v>
+        <v>1.045557894294894</v>
       </c>
       <c r="F2">
-        <v>1.031484086825769</v>
+        <v>1.055633613646125</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047138639092101</v>
+        <v>1.03546521782319</v>
       </c>
       <c r="J2">
-        <v>1.030246789287171</v>
+        <v>1.042162594398317</v>
       </c>
       <c r="K2">
-        <v>1.033642418710586</v>
+        <v>1.047890942755361</v>
       </c>
       <c r="L2">
-        <v>1.033874002101714</v>
+        <v>1.048325798211387</v>
       </c>
       <c r="M2">
-        <v>1.042521554665659</v>
+        <v>1.058373534106447</v>
       </c>
       <c r="N2">
-        <v>1.013915244971768</v>
+        <v>1.017989928588109</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.01219326624053</v>
+        <v>1.0378954342692</v>
       </c>
       <c r="D3">
-        <v>1.025667537807006</v>
+        <v>1.045857390176067</v>
       </c>
       <c r="E3">
-        <v>1.025895415608838</v>
+        <v>1.046294259165347</v>
       </c>
       <c r="F3">
-        <v>1.034913784610079</v>
+        <v>1.056431709525344</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047829303654518</v>
+        <v>1.035553460310747</v>
       </c>
       <c r="J3">
-        <v>1.032356960911172</v>
+        <v>1.042645159540015</v>
       </c>
       <c r="K3">
-        <v>1.035982202388478</v>
+        <v>1.048438092438525</v>
       </c>
       <c r="L3">
-        <v>1.036207343559249</v>
+        <v>1.048873823318666</v>
       </c>
       <c r="M3">
-        <v>1.045118607062493</v>
+        <v>1.058985149210004</v>
       </c>
       <c r="N3">
-        <v>1.014626223777986</v>
+        <v>1.018151343604258</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014660262318178</v>
+        <v>1.038438247521684</v>
       </c>
       <c r="D4">
-        <v>1.027693941900292</v>
+        <v>1.046334319731062</v>
       </c>
       <c r="E4">
-        <v>1.027917917946032</v>
+        <v>1.046771744513101</v>
       </c>
       <c r="F4">
-        <v>1.037099479033259</v>
+        <v>1.056949197302397</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048257581152006</v>
+        <v>1.03560930355971</v>
       </c>
       <c r="J4">
-        <v>1.033696248758461</v>
+        <v>1.042957455766143</v>
       </c>
       <c r="K4">
-        <v>1.037469231430283</v>
+        <v>1.048792427882849</v>
       </c>
       <c r="L4">
-        <v>1.037690681584145</v>
+        <v>1.049228770346915</v>
       </c>
       <c r="M4">
-        <v>1.046769851952346</v>
+        <v>1.059381313029544</v>
       </c>
       <c r="N4">
-        <v>1.01507731278483</v>
+        <v>1.018255765384203</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015687048299855</v>
+        <v>1.038666614966002</v>
       </c>
       <c r="D5">
-        <v>1.02853859468691</v>
+        <v>1.046535049466566</v>
       </c>
       <c r="E5">
-        <v>1.028761046736328</v>
+        <v>1.046972718705152</v>
       </c>
       <c r="F5">
-        <v>1.03801054022368</v>
+        <v>1.057167002367914</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048433228259754</v>
+        <v>1.035632478805945</v>
       </c>
       <c r="J5">
-        <v>1.034253180825517</v>
+        <v>1.043088754309687</v>
       </c>
       <c r="K5">
-        <v>1.038088084784504</v>
+        <v>1.048941459099096</v>
       </c>
       <c r="L5">
-        <v>1.038308095565628</v>
+        <v>1.049378069475842</v>
       </c>
       <c r="M5">
-        <v>1.047457217044521</v>
+        <v>1.059547956238535</v>
       </c>
       <c r="N5">
-        <v>1.01526485480857</v>
+        <v>1.018299657919454</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015858852948324</v>
+        <v>1.038704968708628</v>
       </c>
       <c r="D6">
-        <v>1.028679996521197</v>
+        <v>1.046568766217396</v>
       </c>
       <c r="E6">
-        <v>1.028902199437532</v>
+        <v>1.04700647713459</v>
       </c>
       <c r="F6">
-        <v>1.038163060171066</v>
+        <v>1.057203587584054</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048462463784367</v>
+        <v>1.035636352346332</v>
       </c>
       <c r="J6">
-        <v>1.034346338502763</v>
+        <v>1.043110800412312</v>
       </c>
       <c r="K6">
-        <v>1.038191628523962</v>
+        <v>1.048966486073389</v>
       </c>
       <c r="L6">
-        <v>1.038411404159281</v>
+        <v>1.049403142067319</v>
       </c>
       <c r="M6">
-        <v>1.047572233871112</v>
+        <v>1.059575941942343</v>
       </c>
       <c r="N6">
-        <v>1.015296222447612</v>
+        <v>1.01830702728027</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014674022493609</v>
+        <v>1.038441298317804</v>
       </c>
       <c r="D7">
-        <v>1.027705256398751</v>
+        <v>1.046337000996043</v>
       </c>
       <c r="E7">
-        <v>1.027929211626881</v>
+        <v>1.046774429002087</v>
       </c>
       <c r="F7">
-        <v>1.037111683049524</v>
+        <v>1.056952106632051</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048259945372418</v>
+        <v>1.035609614413056</v>
       </c>
       <c r="J7">
-        <v>1.033703714301075</v>
+        <v>1.042959210149275</v>
       </c>
       <c r="K7">
-        <v>1.037477525097723</v>
+        <v>1.048794418977673</v>
       </c>
       <c r="L7">
-        <v>1.037698955579801</v>
+        <v>1.049230764979155</v>
       </c>
       <c r="M7">
-        <v>1.046779063118688</v>
+        <v>1.059383539349452</v>
       </c>
       <c r="N7">
-        <v>1.015079826900994</v>
+        <v>1.018256351904121</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009633024814382</v>
+        <v>1.037340636126784</v>
       </c>
       <c r="D8">
-        <v>1.023568937753654</v>
+        <v>1.045370205181317</v>
       </c>
       <c r="E8">
-        <v>1.02380121078644</v>
+        <v>1.045806542343276</v>
       </c>
       <c r="F8">
-        <v>1.032650255418217</v>
+        <v>1.055903111829685</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047375945996401</v>
+        <v>1.035495299346165</v>
       </c>
       <c r="J8">
-        <v>1.030965436512031</v>
+        <v>1.042325669531941</v>
       </c>
       <c r="K8">
-        <v>1.034438843246399</v>
+        <v>1.048075792949335</v>
       </c>
       <c r="L8">
-        <v>1.034668149350238</v>
+        <v>1.04851093491516</v>
       </c>
       <c r="M8">
-        <v>1.043405400361044</v>
+        <v>1.058580146788824</v>
       </c>
       <c r="N8">
-        <v>1.014157409772617</v>
+        <v>1.018044484321737</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.000394082839856</v>
+        <v>1.035406663636096</v>
       </c>
       <c r="D9">
-        <v>1.016031910720786</v>
+        <v>1.043674049234835</v>
       </c>
       <c r="E9">
-        <v>1.016282753056764</v>
+        <v>1.044108810031367</v>
       </c>
       <c r="F9">
-        <v>1.024521053505349</v>
+        <v>1.05406290848233</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045672760983554</v>
+        <v>1.035284275583572</v>
       </c>
       <c r="J9">
-        <v>1.025932932696973</v>
+        <v>1.04120969121199</v>
       </c>
       <c r="K9">
-        <v>1.028870128148801</v>
+        <v>1.046811794831005</v>
       </c>
       <c r="L9">
-        <v>1.029117064501107</v>
+        <v>1.047245160761752</v>
       </c>
       <c r="M9">
-        <v>1.037228437983868</v>
+        <v>1.057167667124691</v>
       </c>
       <c r="N9">
-        <v>1.012461018069594</v>
+        <v>1.017670981191619</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9939732566646714</v>
+        <v>1.034121176647021</v>
       </c>
       <c r="D10">
-        <v>1.010825959045457</v>
+        <v>1.042548413211778</v>
       </c>
       <c r="E10">
-        <v>1.011091982905552</v>
+        <v>1.04298235586435</v>
       </c>
       <c r="F10">
-        <v>1.018906077268699</v>
+        <v>1.052841784280926</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044435375038214</v>
+        <v>1.035137188395464</v>
       </c>
       <c r="J10">
-        <v>1.022428046175555</v>
+        <v>1.040466058866629</v>
       </c>
       <c r="K10">
-        <v>1.025002460384169</v>
+        <v>1.045970777081626</v>
       </c>
       <c r="L10">
-        <v>1.025263815096743</v>
+        <v>1.046403191404583</v>
       </c>
       <c r="M10">
-        <v>1.03294216566753</v>
+        <v>1.056228268987954</v>
       </c>
       <c r="N10">
-        <v>1.011278935042836</v>
+        <v>1.017421898266261</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9911256663530059</v>
+        <v>1.033565477023241</v>
       </c>
       <c r="D11">
-        <v>1.008525338884014</v>
+        <v>1.042062243171935</v>
       </c>
       <c r="E11">
-        <v>1.008798642827184</v>
+        <v>1.042495886824287</v>
       </c>
       <c r="F11">
-        <v>1.016424666944403</v>
+        <v>1.052314397197043</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043874409128384</v>
+        <v>1.035071987436658</v>
       </c>
       <c r="J11">
-        <v>1.020872345538029</v>
+        <v>1.040144159264432</v>
       </c>
       <c r="K11">
-        <v>1.023288250982684</v>
+        <v>1.045607017519396</v>
       </c>
       <c r="L11">
-        <v>1.023556515529507</v>
+        <v>1.046039074922314</v>
       </c>
       <c r="M11">
-        <v>1.031043345814002</v>
+        <v>1.05582205586956</v>
       </c>
       <c r="N11">
-        <v>1.010754129600534</v>
+        <v>1.017314029851521</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9900573507194714</v>
+        <v>1.033359206181357</v>
       </c>
       <c r="D12">
-        <v>1.007663507263312</v>
+        <v>1.041881845964308</v>
       </c>
       <c r="E12">
-        <v>1.00793962532812</v>
+        <v>1.042315386862785</v>
       </c>
       <c r="F12">
-        <v>1.015495101894018</v>
+        <v>1.052118709791997</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043662169889633</v>
+        <v>1.035047542522632</v>
       </c>
       <c r="J12">
-        <v>1.020288544577376</v>
+        <v>1.040024607583373</v>
       </c>
       <c r="K12">
-        <v>1.022645344739307</v>
+        <v>1.045471963706923</v>
       </c>
       <c r="L12">
-        <v>1.022916279228455</v>
+        <v>1.04590389681876</v>
       </c>
       <c r="M12">
-        <v>1.030331341734628</v>
+        <v>1.055671255000304</v>
       </c>
       <c r="N12">
-        <v>1.010557172956869</v>
+        <v>1.017273961154409</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9902869954260195</v>
+        <v>1.033403445579211</v>
       </c>
       <c r="D13">
-        <v>1.007848707559922</v>
+        <v>1.041920533238144</v>
       </c>
       <c r="E13">
-        <v>1.008124216944728</v>
+        <v>1.042354095801625</v>
       </c>
       <c r="F13">
-        <v>1.015694857933867</v>
+        <v>1.052160675974013</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043707872625764</v>
+        <v>1.035052796272827</v>
       </c>
       <c r="J13">
-        <v>1.020414044636706</v>
+        <v>1.040050251070491</v>
       </c>
       <c r="K13">
-        <v>1.022783533641651</v>
+        <v>1.045500930346034</v>
       </c>
       <c r="L13">
-        <v>1.023053890690176</v>
+        <v>1.04593288974379</v>
       </c>
       <c r="M13">
-        <v>1.030484376488615</v>
+        <v>1.055703598434314</v>
       </c>
       <c r="N13">
-        <v>1.010599513494827</v>
+        <v>1.017282556088468</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9910375780224961</v>
+        <v>1.033548423729547</v>
       </c>
       <c r="D14">
-        <v>1.008454249930295</v>
+        <v>1.042047327635778</v>
       </c>
       <c r="E14">
-        <v>1.008727784222979</v>
+        <v>1.042480962624947</v>
       </c>
       <c r="F14">
-        <v>1.016347991115808</v>
+        <v>1.052298217366879</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043856944883867</v>
+        <v>1.035069971426533</v>
       </c>
       <c r="J14">
-        <v>1.020824210986207</v>
+        <v>1.040134276747215</v>
       </c>
       <c r="K14">
-        <v>1.023235235507903</v>
+        <v>1.04559585264119</v>
       </c>
       <c r="L14">
-        <v>1.023503718626122</v>
+        <v>1.046027899601148</v>
       </c>
       <c r="M14">
-        <v>1.030984629535708</v>
+        <v>1.05580958888318</v>
       </c>
       <c r="N14">
-        <v>1.010737890764313</v>
+        <v>1.017310717789451</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9914986181810169</v>
+        <v>1.033637768256616</v>
       </c>
       <c r="D15">
-        <v>1.008826370605072</v>
+        <v>1.042125474820284</v>
       </c>
       <c r="E15">
-        <v>1.009098702670698</v>
+        <v>1.042559155534384</v>
       </c>
       <c r="F15">
-        <v>1.016749356382701</v>
+        <v>1.052382988737036</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043948277425304</v>
+        <v>1.035080523628808</v>
       </c>
       <c r="J15">
-        <v>1.021076133333222</v>
+        <v>1.040186049924272</v>
       </c>
       <c r="K15">
-        <v>1.023512718594244</v>
+        <v>1.045654345753936</v>
       </c>
       <c r="L15">
-        <v>1.023780060911994</v>
+        <v>1.046086447761742</v>
       </c>
       <c r="M15">
-        <v>1.031291956332882</v>
+        <v>1.055874904382456</v>
       </c>
       <c r="N15">
-        <v>1.010822879540267</v>
+        <v>1.017328068950978</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9941607830920738</v>
+        <v>1.034158076238355</v>
       </c>
       <c r="D16">
-        <v>1.01097764006485</v>
+        <v>1.042580704968101</v>
       </c>
       <c r="E16">
-        <v>1.011243195974895</v>
+        <v>1.04301466862912</v>
       </c>
       <c r="F16">
-        <v>1.019069676928396</v>
+        <v>1.052876814225367</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044472066633435</v>
+        <v>1.035141483785646</v>
       </c>
       <c r="J16">
-        <v>1.022530471970949</v>
+        <v>1.040487424471702</v>
       </c>
       <c r="K16">
-        <v>1.025115374706111</v>
+        <v>1.045994927309413</v>
       </c>
       <c r="L16">
-        <v>1.025376285146074</v>
+        <v>1.046427366481719</v>
       </c>
       <c r="M16">
-        <v>1.033067259527793</v>
+        <v>1.05625523980561</v>
       </c>
       <c r="N16">
-        <v>1.011313485460176</v>
+        <v>1.017429056889809</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9958123335616431</v>
+        <v>1.034484700542047</v>
       </c>
       <c r="D17">
-        <v>1.012314438396665</v>
+        <v>1.042866591636072</v>
       </c>
       <c r="E17">
-        <v>1.012575935555643</v>
+        <v>1.043300747581355</v>
       </c>
       <c r="F17">
-        <v>1.020511512682929</v>
+        <v>1.05318694561257</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044793825180172</v>
+        <v>1.035179318354394</v>
       </c>
       <c r="J17">
-        <v>1.023432394258258</v>
+        <v>1.040676496035393</v>
       </c>
       <c r="K17">
-        <v>1.026109941910969</v>
+        <v>1.04620867511998</v>
       </c>
       <c r="L17">
-        <v>1.026366998442619</v>
+        <v>1.046641340548552</v>
       </c>
       <c r="M17">
-        <v>1.034169211294501</v>
+        <v>1.056493963328725</v>
       </c>
       <c r="N17">
-        <v>1.011617709970796</v>
+        <v>1.017492400609707</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9967691923354534</v>
+        <v>1.034675304073311</v>
       </c>
       <c r="D18">
-        <v>1.013089714024545</v>
+        <v>1.04303346378519</v>
       </c>
       <c r="E18">
-        <v>1.013348911664477</v>
+        <v>1.04346773721819</v>
       </c>
       <c r="F18">
-        <v>1.021347701712749</v>
+        <v>1.053367971827996</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044979079348819</v>
+        <v>1.035201240760849</v>
       </c>
       <c r="J18">
-        <v>1.023954813796134</v>
+        <v>1.040786787650455</v>
       </c>
       <c r="K18">
-        <v>1.026686263456322</v>
+        <v>1.046333389733231</v>
       </c>
       <c r="L18">
-        <v>1.026941136158905</v>
+        <v>1.046766192452613</v>
       </c>
       <c r="M18">
-        <v>1.034807846547795</v>
+        <v>1.056633259908194</v>
       </c>
       <c r="N18">
-        <v>1.011793914162743</v>
+        <v>1.017529346557423</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.99709437434047</v>
+        <v>1.034740310009839</v>
       </c>
       <c r="D19">
-        <v>1.013353316162743</v>
+        <v>1.043090383048008</v>
       </c>
       <c r="E19">
-        <v>1.013611741127534</v>
+        <v>1.043524697445433</v>
       </c>
       <c r="F19">
-        <v>1.021632014645099</v>
+        <v>1.053429719383558</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045041838043963</v>
+        <v>1.03520869097457</v>
       </c>
       <c r="J19">
-        <v>1.024132331817972</v>
+        <v>1.040824395787126</v>
       </c>
       <c r="K19">
-        <v>1.026882137994349</v>
+        <v>1.046375920782539</v>
       </c>
       <c r="L19">
-        <v>1.027136276845636</v>
+        <v>1.046808771216735</v>
       </c>
       <c r="M19">
-        <v>1.035024914493193</v>
+        <v>1.056680765409775</v>
       </c>
       <c r="N19">
-        <v>1.011853786277915</v>
+        <v>1.017541943922274</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9956358096596385</v>
+        <v>1.034449647616205</v>
       </c>
       <c r="D20">
-        <v>1.012171475677774</v>
+        <v>1.042835906348587</v>
       </c>
       <c r="E20">
-        <v>1.012433401254039</v>
+        <v>1.04327004111208</v>
       </c>
       <c r="F20">
-        <v>1.020357317161641</v>
+        <v>1.053153657799064</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044759554701928</v>
+        <v>1.035175274145103</v>
       </c>
       <c r="J20">
-        <v>1.023336006333295</v>
+        <v>1.040656209466427</v>
       </c>
       <c r="K20">
-        <v>1.026003628253714</v>
+        <v>1.046185737943772</v>
       </c>
       <c r="L20">
-        <v>1.026261091621821</v>
+        <v>1.046618378546969</v>
       </c>
       <c r="M20">
-        <v>1.034051409738125</v>
+        <v>1.056468345039795</v>
       </c>
       <c r="N20">
-        <v>1.011585198839698</v>
+        <v>1.017485604566259</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9908168465764908</v>
+        <v>1.033505727378059</v>
       </c>
       <c r="D21">
-        <v>1.008276136272004</v>
+        <v>1.042009984640166</v>
       </c>
       <c r="E21">
-        <v>1.008550249111983</v>
+        <v>1.042443598072386</v>
       </c>
       <c r="F21">
-        <v>1.01615587938266</v>
+        <v>1.052257709105675</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043813154442203</v>
+        <v>1.035064920015506</v>
       </c>
       <c r="J21">
-        <v>1.020703593196097</v>
+        <v>1.040109532822074</v>
       </c>
       <c r="K21">
-        <v>1.023102392958205</v>
+        <v>1.045567898647979</v>
       </c>
       <c r="L21">
-        <v>1.023371425023398</v>
+        <v>1.045999919594332</v>
       </c>
       <c r="M21">
-        <v>1.030837504553855</v>
+        <v>1.055778374983496</v>
       </c>
       <c r="N21">
-        <v>1.010697198500124</v>
+        <v>1.01730242490947</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9877254234211206</v>
+        <v>1.032913062442441</v>
       </c>
       <c r="D22">
-        <v>1.005784704530394</v>
+        <v>1.041491783546782</v>
       </c>
       <c r="E22">
-        <v>1.006067118372745</v>
+        <v>1.041925117268284</v>
       </c>
       <c r="F22">
-        <v>1.013468621788437</v>
+        <v>1.051695593004899</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043195667120784</v>
+        <v>1.034994226591952</v>
       </c>
       <c r="J22">
-        <v>1.019013976315953</v>
+        <v>1.039765909741116</v>
       </c>
       <c r="K22">
-        <v>1.021242429766502</v>
+        <v>1.045179802023548</v>
       </c>
       <c r="L22">
-        <v>1.021519335055386</v>
+        <v>1.045611481301854</v>
       </c>
       <c r="M22">
-        <v>1.028777902652879</v>
+        <v>1.05534505474818</v>
       </c>
       <c r="N22">
-        <v>1.010127147474512</v>
+        <v>1.017187243789972</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9893702465539609</v>
+        <v>1.033227167462979</v>
       </c>
       <c r="D23">
-        <v>1.007109573752714</v>
+        <v>1.041766387881469</v>
       </c>
       <c r="E23">
-        <v>1.007387525208145</v>
+        <v>1.042199865324473</v>
       </c>
       <c r="F23">
-        <v>1.014897630818377</v>
+        <v>1.051993466694135</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043525168099097</v>
+        <v>1.035031826405242</v>
       </c>
       <c r="J23">
-        <v>1.019913024609849</v>
+        <v>1.039948061431428</v>
       </c>
       <c r="K23">
-        <v>1.022231912643378</v>
+        <v>1.045385504405431</v>
       </c>
       <c r="L23">
-        <v>1.022504586241379</v>
+        <v>1.045817360264167</v>
       </c>
       <c r="M23">
-        <v>1.029873514496294</v>
+        <v>1.055574718842275</v>
       </c>
       <c r="N23">
-        <v>1.010430480016972</v>
+        <v>1.017248304141972</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9957155931498322</v>
+        <v>1.034465486249473</v>
       </c>
       <c r="D24">
-        <v>1.012236088126121</v>
+        <v>1.042849771340842</v>
       </c>
       <c r="E24">
-        <v>1.01249781990957</v>
+        <v>1.043283915659001</v>
       </c>
       <c r="F24">
-        <v>1.020427006319292</v>
+        <v>1.053168698722096</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044775047534575</v>
+        <v>1.03517710199996</v>
       </c>
       <c r="J24">
-        <v>1.023379571171132</v>
+        <v>1.040665376064944</v>
       </c>
       <c r="K24">
-        <v>1.026051678522667</v>
+        <v>1.046196102145675</v>
       </c>
       <c r="L24">
-        <v>1.026308957861071</v>
+        <v>1.046628753949955</v>
       </c>
       <c r="M24">
-        <v>1.034104651887423</v>
+        <v>1.056479920677724</v>
       </c>
       <c r="N24">
-        <v>1.01159989306202</v>
+        <v>1.017488675410068</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.002826971414799</v>
+        <v>1.035905974987697</v>
       </c>
       <c r="D25">
-        <v>1.018011268155871</v>
+        <v>1.044111649804533</v>
       </c>
       <c r="E25">
-        <v>1.018256829304058</v>
+        <v>1.044546777119997</v>
       </c>
       <c r="F25">
-        <v>1.026655915481413</v>
+        <v>1.05453765349606</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046130723880348</v>
+        <v>1.035339962114484</v>
       </c>
       <c r="J25">
-        <v>1.027259569807644</v>
+        <v>1.041498142212015</v>
       </c>
       <c r="K25">
-        <v>1.030336271531978</v>
+        <v>1.047138285013327</v>
       </c>
       <c r="L25">
-        <v>1.030578191327672</v>
+        <v>1.047572069128958</v>
       </c>
       <c r="M25">
-        <v>1.038854059832843</v>
+        <v>1.057532437058712</v>
       </c>
       <c r="N25">
-        <v>1.012908329361236</v>
+        <v>1.017767557172239</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037057652392349</v>
+        <v>1.008311874287441</v>
       </c>
       <c r="D2">
-        <v>1.045121814495947</v>
+        <v>1.022487730133878</v>
       </c>
       <c r="E2">
-        <v>1.045557894294894</v>
+        <v>1.022722404122427</v>
       </c>
       <c r="F2">
-        <v>1.055633613646125</v>
+        <v>1.031484086825768</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03546521782319</v>
+        <v>1.047138639092101</v>
       </c>
       <c r="J2">
-        <v>1.042162594398317</v>
+        <v>1.030246789287171</v>
       </c>
       <c r="K2">
-        <v>1.047890942755361</v>
+        <v>1.033642418710585</v>
       </c>
       <c r="L2">
-        <v>1.048325798211387</v>
+        <v>1.033874002101713</v>
       </c>
       <c r="M2">
-        <v>1.058373534106447</v>
+        <v>1.042521554665659</v>
       </c>
       <c r="N2">
-        <v>1.017989928588109</v>
+        <v>1.013915244971768</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.0378954342692</v>
+        <v>1.01219326624053</v>
       </c>
       <c r="D3">
-        <v>1.045857390176067</v>
+        <v>1.025667537807006</v>
       </c>
       <c r="E3">
-        <v>1.046294259165347</v>
+        <v>1.025895415608838</v>
       </c>
       <c r="F3">
-        <v>1.056431709525344</v>
+        <v>1.034913784610079</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035553460310747</v>
+        <v>1.047829303654518</v>
       </c>
       <c r="J3">
-        <v>1.042645159540015</v>
+        <v>1.032356960911172</v>
       </c>
       <c r="K3">
-        <v>1.048438092438525</v>
+        <v>1.035982202388478</v>
       </c>
       <c r="L3">
-        <v>1.048873823318666</v>
+        <v>1.036207343559249</v>
       </c>
       <c r="M3">
-        <v>1.058985149210004</v>
+        <v>1.045118607062493</v>
       </c>
       <c r="N3">
-        <v>1.018151343604258</v>
+        <v>1.014626223777986</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038438247521684</v>
+        <v>1.014660262318178</v>
       </c>
       <c r="D4">
-        <v>1.046334319731062</v>
+        <v>1.027693941900291</v>
       </c>
       <c r="E4">
-        <v>1.046771744513101</v>
+        <v>1.027917917946031</v>
       </c>
       <c r="F4">
-        <v>1.056949197302397</v>
+        <v>1.037099479033258</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03560930355971</v>
+        <v>1.048257581152006</v>
       </c>
       <c r="J4">
-        <v>1.042957455766143</v>
+        <v>1.03369624875846</v>
       </c>
       <c r="K4">
-        <v>1.048792427882849</v>
+        <v>1.037469231430282</v>
       </c>
       <c r="L4">
-        <v>1.049228770346915</v>
+        <v>1.037690681584144</v>
       </c>
       <c r="M4">
-        <v>1.059381313029544</v>
+        <v>1.046769851952345</v>
       </c>
       <c r="N4">
-        <v>1.018255765384203</v>
+        <v>1.015077312784829</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038666614966002</v>
+        <v>1.015687048299854</v>
       </c>
       <c r="D5">
-        <v>1.046535049466566</v>
+        <v>1.028538594686909</v>
       </c>
       <c r="E5">
-        <v>1.046972718705152</v>
+        <v>1.028761046736327</v>
       </c>
       <c r="F5">
-        <v>1.057167002367914</v>
+        <v>1.038010540223679</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035632478805945</v>
+        <v>1.048433228259754</v>
       </c>
       <c r="J5">
-        <v>1.043088754309687</v>
+        <v>1.034253180825516</v>
       </c>
       <c r="K5">
-        <v>1.048941459099096</v>
+        <v>1.038088084784504</v>
       </c>
       <c r="L5">
-        <v>1.049378069475842</v>
+        <v>1.038308095565627</v>
       </c>
       <c r="M5">
-        <v>1.059547956238535</v>
+        <v>1.04745721704452</v>
       </c>
       <c r="N5">
-        <v>1.018299657919454</v>
+        <v>1.015264854808569</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038704968708628</v>
+        <v>1.015858852948324</v>
       </c>
       <c r="D6">
-        <v>1.046568766217396</v>
+        <v>1.028679996521197</v>
       </c>
       <c r="E6">
-        <v>1.04700647713459</v>
+        <v>1.028902199437532</v>
       </c>
       <c r="F6">
-        <v>1.057203587584054</v>
+        <v>1.038163060171066</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035636352346332</v>
+        <v>1.048462463784367</v>
       </c>
       <c r="J6">
-        <v>1.043110800412312</v>
+        <v>1.034346338502763</v>
       </c>
       <c r="K6">
-        <v>1.048966486073389</v>
+        <v>1.038191628523962</v>
       </c>
       <c r="L6">
-        <v>1.049403142067319</v>
+        <v>1.038411404159281</v>
       </c>
       <c r="M6">
-        <v>1.059575941942343</v>
+        <v>1.047572233871112</v>
       </c>
       <c r="N6">
-        <v>1.01830702728027</v>
+        <v>1.015296222447612</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038441298317804</v>
+        <v>1.014674022493609</v>
       </c>
       <c r="D7">
-        <v>1.046337000996043</v>
+        <v>1.027705256398751</v>
       </c>
       <c r="E7">
-        <v>1.046774429002087</v>
+        <v>1.027929211626881</v>
       </c>
       <c r="F7">
-        <v>1.056952106632051</v>
+        <v>1.037111683049524</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035609614413056</v>
+        <v>1.048259945372419</v>
       </c>
       <c r="J7">
-        <v>1.042959210149275</v>
+        <v>1.033703714301075</v>
       </c>
       <c r="K7">
-        <v>1.048794418977673</v>
+        <v>1.037477525097724</v>
       </c>
       <c r="L7">
-        <v>1.049230764979155</v>
+        <v>1.037698955579802</v>
       </c>
       <c r="M7">
-        <v>1.059383539349452</v>
+        <v>1.046779063118688</v>
       </c>
       <c r="N7">
-        <v>1.018256351904121</v>
+        <v>1.015079826900994</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037340636126784</v>
+        <v>1.009633024814382</v>
       </c>
       <c r="D8">
-        <v>1.045370205181317</v>
+        <v>1.023568937753654</v>
       </c>
       <c r="E8">
-        <v>1.045806542343276</v>
+        <v>1.02380121078644</v>
       </c>
       <c r="F8">
-        <v>1.055903111829685</v>
+        <v>1.032650255418218</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035495299346165</v>
+        <v>1.047375945996401</v>
       </c>
       <c r="J8">
-        <v>1.042325669531941</v>
+        <v>1.030965436512032</v>
       </c>
       <c r="K8">
-        <v>1.048075792949335</v>
+        <v>1.0344388432464</v>
       </c>
       <c r="L8">
-        <v>1.04851093491516</v>
+        <v>1.034668149350239</v>
       </c>
       <c r="M8">
-        <v>1.058580146788824</v>
+        <v>1.043405400361045</v>
       </c>
       <c r="N8">
-        <v>1.018044484321737</v>
+        <v>1.014157409772617</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035406663636096</v>
+        <v>1.000394082839856</v>
       </c>
       <c r="D9">
-        <v>1.043674049234835</v>
+        <v>1.016031910720787</v>
       </c>
       <c r="E9">
-        <v>1.044108810031367</v>
+        <v>1.016282753056765</v>
       </c>
       <c r="F9">
-        <v>1.05406290848233</v>
+        <v>1.024521053505351</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035284275583572</v>
+        <v>1.045672760983554</v>
       </c>
       <c r="J9">
-        <v>1.04120969121199</v>
+        <v>1.025932932696973</v>
       </c>
       <c r="K9">
-        <v>1.046811794831005</v>
+        <v>1.028870128148802</v>
       </c>
       <c r="L9">
-        <v>1.047245160761752</v>
+        <v>1.029117064501107</v>
       </c>
       <c r="M9">
-        <v>1.057167667124691</v>
+        <v>1.037228437983869</v>
       </c>
       <c r="N9">
-        <v>1.017670981191619</v>
+        <v>1.012461018069594</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034121176647021</v>
+        <v>0.9939732566646716</v>
       </c>
       <c r="D10">
-        <v>1.042548413211778</v>
+        <v>1.010825959045458</v>
       </c>
       <c r="E10">
-        <v>1.04298235586435</v>
+        <v>1.011091982905553</v>
       </c>
       <c r="F10">
-        <v>1.052841784280926</v>
+        <v>1.018906077268699</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035137188395464</v>
+        <v>1.044435375038214</v>
       </c>
       <c r="J10">
-        <v>1.040466058866629</v>
+        <v>1.022428046175555</v>
       </c>
       <c r="K10">
-        <v>1.045970777081626</v>
+        <v>1.02500246038417</v>
       </c>
       <c r="L10">
-        <v>1.046403191404583</v>
+        <v>1.025263815096743</v>
       </c>
       <c r="M10">
-        <v>1.056228268987954</v>
+        <v>1.03294216566753</v>
       </c>
       <c r="N10">
-        <v>1.017421898266261</v>
+        <v>1.011278935042836</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033565477023241</v>
+        <v>0.9911256663530059</v>
       </c>
       <c r="D11">
-        <v>1.042062243171935</v>
+        <v>1.008525338884014</v>
       </c>
       <c r="E11">
-        <v>1.042495886824287</v>
+        <v>1.008798642827184</v>
       </c>
       <c r="F11">
-        <v>1.052314397197043</v>
+        <v>1.016424666944403</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035071987436658</v>
+        <v>1.043874409128385</v>
       </c>
       <c r="J11">
-        <v>1.040144159264432</v>
+        <v>1.020872345538029</v>
       </c>
       <c r="K11">
-        <v>1.045607017519396</v>
+        <v>1.023288250982684</v>
       </c>
       <c r="L11">
-        <v>1.046039074922314</v>
+        <v>1.023556515529507</v>
       </c>
       <c r="M11">
-        <v>1.05582205586956</v>
+        <v>1.031043345814003</v>
       </c>
       <c r="N11">
-        <v>1.017314029851521</v>
+        <v>1.010754129600534</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033359206181357</v>
+        <v>0.9900573507194721</v>
       </c>
       <c r="D12">
-        <v>1.041881845964308</v>
+        <v>1.007663507263313</v>
       </c>
       <c r="E12">
-        <v>1.042315386862785</v>
+        <v>1.007939625328121</v>
       </c>
       <c r="F12">
-        <v>1.052118709791997</v>
+        <v>1.015495101894019</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035047542522632</v>
+        <v>1.043662169889633</v>
       </c>
       <c r="J12">
-        <v>1.040024607583373</v>
+        <v>1.020288544577377</v>
       </c>
       <c r="K12">
-        <v>1.045471963706923</v>
+        <v>1.022645344739307</v>
       </c>
       <c r="L12">
-        <v>1.04590389681876</v>
+        <v>1.022916279228455</v>
       </c>
       <c r="M12">
-        <v>1.055671255000304</v>
+        <v>1.030331341734628</v>
       </c>
       <c r="N12">
-        <v>1.017273961154409</v>
+        <v>1.010557172956869</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033403445579211</v>
+        <v>0.9902869954260197</v>
       </c>
       <c r="D13">
-        <v>1.041920533238144</v>
+        <v>1.007848707559922</v>
       </c>
       <c r="E13">
-        <v>1.042354095801625</v>
+        <v>1.008124216944728</v>
       </c>
       <c r="F13">
-        <v>1.052160675974013</v>
+        <v>1.015694857933867</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035052796272827</v>
+        <v>1.043707872625764</v>
       </c>
       <c r="J13">
-        <v>1.040050251070491</v>
+        <v>1.020414044636706</v>
       </c>
       <c r="K13">
-        <v>1.045500930346034</v>
+        <v>1.022783533641651</v>
       </c>
       <c r="L13">
-        <v>1.04593288974379</v>
+        <v>1.023053890690176</v>
       </c>
       <c r="M13">
-        <v>1.055703598434314</v>
+        <v>1.030484376488614</v>
       </c>
       <c r="N13">
-        <v>1.017282556088468</v>
+        <v>1.010599513494827</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.033548423729547</v>
+        <v>0.9910375780224957</v>
       </c>
       <c r="D14">
-        <v>1.042047327635778</v>
+        <v>1.008454249930295</v>
       </c>
       <c r="E14">
-        <v>1.042480962624947</v>
+        <v>1.008727784222978</v>
       </c>
       <c r="F14">
-        <v>1.052298217366879</v>
+        <v>1.016347991115808</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035069971426533</v>
+        <v>1.043856944883867</v>
       </c>
       <c r="J14">
-        <v>1.040134276747215</v>
+        <v>1.020824210986207</v>
       </c>
       <c r="K14">
-        <v>1.04559585264119</v>
+        <v>1.023235235507903</v>
       </c>
       <c r="L14">
-        <v>1.046027899601148</v>
+        <v>1.023503718626122</v>
       </c>
       <c r="M14">
-        <v>1.05580958888318</v>
+        <v>1.030984629535707</v>
       </c>
       <c r="N14">
-        <v>1.017310717789451</v>
+        <v>1.010737890764313</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033637768256616</v>
+        <v>0.9914986181810169</v>
       </c>
       <c r="D15">
-        <v>1.042125474820284</v>
+        <v>1.008826370605072</v>
       </c>
       <c r="E15">
-        <v>1.042559155534384</v>
+        <v>1.009098702670698</v>
       </c>
       <c r="F15">
-        <v>1.052382988737036</v>
+        <v>1.016749356382701</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035080523628808</v>
+        <v>1.043948277425304</v>
       </c>
       <c r="J15">
-        <v>1.040186049924272</v>
+        <v>1.021076133333222</v>
       </c>
       <c r="K15">
-        <v>1.045654345753936</v>
+        <v>1.023512718594244</v>
       </c>
       <c r="L15">
-        <v>1.046086447761742</v>
+        <v>1.023780060911994</v>
       </c>
       <c r="M15">
-        <v>1.055874904382456</v>
+        <v>1.031291956332882</v>
       </c>
       <c r="N15">
-        <v>1.017328068950978</v>
+        <v>1.010822879540267</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034158076238355</v>
+        <v>0.9941607830920738</v>
       </c>
       <c r="D16">
-        <v>1.042580704968101</v>
+        <v>1.01097764006485</v>
       </c>
       <c r="E16">
-        <v>1.04301466862912</v>
+        <v>1.011243195974895</v>
       </c>
       <c r="F16">
-        <v>1.052876814225367</v>
+        <v>1.019069676928396</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035141483785646</v>
+        <v>1.044472066633435</v>
       </c>
       <c r="J16">
-        <v>1.040487424471702</v>
+        <v>1.022530471970949</v>
       </c>
       <c r="K16">
-        <v>1.045994927309413</v>
+        <v>1.025115374706111</v>
       </c>
       <c r="L16">
-        <v>1.046427366481719</v>
+        <v>1.025376285146074</v>
       </c>
       <c r="M16">
-        <v>1.05625523980561</v>
+        <v>1.033067259527793</v>
       </c>
       <c r="N16">
-        <v>1.017429056889809</v>
+        <v>1.011313485460176</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034484700542047</v>
+        <v>0.9958123335616438</v>
       </c>
       <c r="D17">
-        <v>1.042866591636072</v>
+        <v>1.012314438396666</v>
       </c>
       <c r="E17">
-        <v>1.043300747581355</v>
+        <v>1.012575935555644</v>
       </c>
       <c r="F17">
-        <v>1.05318694561257</v>
+        <v>1.02051151268293</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035179318354394</v>
+        <v>1.044793825180172</v>
       </c>
       <c r="J17">
-        <v>1.040676496035393</v>
+        <v>1.023432394258259</v>
       </c>
       <c r="K17">
-        <v>1.04620867511998</v>
+        <v>1.02610994191097</v>
       </c>
       <c r="L17">
-        <v>1.046641340548552</v>
+        <v>1.026366998442619</v>
       </c>
       <c r="M17">
-        <v>1.056493963328725</v>
+        <v>1.034169211294502</v>
       </c>
       <c r="N17">
-        <v>1.017492400609707</v>
+        <v>1.011617709970797</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034675304073311</v>
+        <v>0.9967691923354532</v>
       </c>
       <c r="D18">
-        <v>1.04303346378519</v>
+        <v>1.013089714024545</v>
       </c>
       <c r="E18">
-        <v>1.04346773721819</v>
+        <v>1.013348911664476</v>
       </c>
       <c r="F18">
-        <v>1.053367971827996</v>
+        <v>1.021347701712749</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035201240760849</v>
+        <v>1.044979079348819</v>
       </c>
       <c r="J18">
-        <v>1.040786787650455</v>
+        <v>1.023954813796134</v>
       </c>
       <c r="K18">
-        <v>1.046333389733231</v>
+        <v>1.026686263456321</v>
       </c>
       <c r="L18">
-        <v>1.046766192452613</v>
+        <v>1.026941136158905</v>
       </c>
       <c r="M18">
-        <v>1.056633259908194</v>
+        <v>1.034807846547795</v>
       </c>
       <c r="N18">
-        <v>1.017529346557423</v>
+        <v>1.011793914162743</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034740310009839</v>
+        <v>0.9970943743404698</v>
       </c>
       <c r="D19">
-        <v>1.043090383048008</v>
+        <v>1.013353316162742</v>
       </c>
       <c r="E19">
-        <v>1.043524697445433</v>
+        <v>1.013611741127533</v>
       </c>
       <c r="F19">
-        <v>1.053429719383558</v>
+        <v>1.021632014645099</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03520869097457</v>
+        <v>1.045041838043963</v>
       </c>
       <c r="J19">
-        <v>1.040824395787126</v>
+        <v>1.024132331817971</v>
       </c>
       <c r="K19">
-        <v>1.046375920782539</v>
+        <v>1.026882137994349</v>
       </c>
       <c r="L19">
-        <v>1.046808771216735</v>
+        <v>1.027136276845635</v>
       </c>
       <c r="M19">
-        <v>1.056680765409775</v>
+        <v>1.035024914493192</v>
       </c>
       <c r="N19">
-        <v>1.017541943922274</v>
+        <v>1.011853786277915</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034449647616205</v>
+        <v>0.9956358096596375</v>
       </c>
       <c r="D20">
-        <v>1.042835906348587</v>
+        <v>1.012171475677772</v>
       </c>
       <c r="E20">
-        <v>1.04327004111208</v>
+        <v>1.012433401254037</v>
       </c>
       <c r="F20">
-        <v>1.053153657799064</v>
+        <v>1.02035731716164</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035175274145103</v>
+        <v>1.044759554701928</v>
       </c>
       <c r="J20">
-        <v>1.040656209466427</v>
+        <v>1.023336006333294</v>
       </c>
       <c r="K20">
-        <v>1.046185737943772</v>
+        <v>1.026003628253713</v>
       </c>
       <c r="L20">
-        <v>1.046618378546969</v>
+        <v>1.02626109162182</v>
       </c>
       <c r="M20">
-        <v>1.056468345039795</v>
+        <v>1.034051409738124</v>
       </c>
       <c r="N20">
-        <v>1.017485604566259</v>
+        <v>1.011585198839698</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033505727378059</v>
+        <v>0.9908168465764912</v>
       </c>
       <c r="D21">
-        <v>1.042009984640166</v>
+        <v>1.008276136272005</v>
       </c>
       <c r="E21">
-        <v>1.042443598072386</v>
+        <v>1.008550249111983</v>
       </c>
       <c r="F21">
-        <v>1.052257709105675</v>
+        <v>1.01615587938266</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035064920015506</v>
+        <v>1.043813154442203</v>
       </c>
       <c r="J21">
-        <v>1.040109532822074</v>
+        <v>1.020703593196098</v>
       </c>
       <c r="K21">
-        <v>1.045567898647979</v>
+        <v>1.023102392958205</v>
       </c>
       <c r="L21">
-        <v>1.045999919594332</v>
+        <v>1.023371425023398</v>
       </c>
       <c r="M21">
-        <v>1.055778374983496</v>
+        <v>1.030837504553855</v>
       </c>
       <c r="N21">
-        <v>1.01730242490947</v>
+        <v>1.010697198500124</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.032913062442441</v>
+        <v>0.9877254234211207</v>
       </c>
       <c r="D22">
-        <v>1.041491783546782</v>
+        <v>1.005784704530394</v>
       </c>
       <c r="E22">
-        <v>1.041925117268284</v>
+        <v>1.006067118372745</v>
       </c>
       <c r="F22">
-        <v>1.051695593004899</v>
+        <v>1.013468621788436</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034994226591952</v>
+        <v>1.043195667120784</v>
       </c>
       <c r="J22">
-        <v>1.039765909741116</v>
+        <v>1.019013976315953</v>
       </c>
       <c r="K22">
-        <v>1.045179802023548</v>
+        <v>1.021242429766502</v>
       </c>
       <c r="L22">
-        <v>1.045611481301854</v>
+        <v>1.021519335055386</v>
       </c>
       <c r="M22">
-        <v>1.05534505474818</v>
+        <v>1.028777902652878</v>
       </c>
       <c r="N22">
-        <v>1.017187243789972</v>
+        <v>1.010127147474512</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033227167462979</v>
+        <v>0.9893702465539613</v>
       </c>
       <c r="D23">
-        <v>1.041766387881469</v>
+        <v>1.007109573752715</v>
       </c>
       <c r="E23">
-        <v>1.042199865324473</v>
+        <v>1.007387525208145</v>
       </c>
       <c r="F23">
-        <v>1.051993466694135</v>
+        <v>1.014897630818377</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035031826405242</v>
+        <v>1.043525168099097</v>
       </c>
       <c r="J23">
-        <v>1.039948061431428</v>
+        <v>1.01991302460985</v>
       </c>
       <c r="K23">
-        <v>1.045385504405431</v>
+        <v>1.022231912643378</v>
       </c>
       <c r="L23">
-        <v>1.045817360264167</v>
+        <v>1.02250458624138</v>
       </c>
       <c r="M23">
-        <v>1.055574718842275</v>
+        <v>1.029873514496294</v>
       </c>
       <c r="N23">
-        <v>1.017248304141972</v>
+        <v>1.010430480016973</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034465486249473</v>
+        <v>0.995715593149832</v>
       </c>
       <c r="D24">
-        <v>1.042849771340842</v>
+        <v>1.012236088126121</v>
       </c>
       <c r="E24">
-        <v>1.043283915659001</v>
+        <v>1.01249781990957</v>
       </c>
       <c r="F24">
-        <v>1.053168698722096</v>
+        <v>1.020427006319292</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03517710199996</v>
+        <v>1.044775047534575</v>
       </c>
       <c r="J24">
-        <v>1.040665376064944</v>
+        <v>1.023379571171132</v>
       </c>
       <c r="K24">
-        <v>1.046196102145675</v>
+        <v>1.026051678522667</v>
       </c>
       <c r="L24">
-        <v>1.046628753949955</v>
+        <v>1.026308957861071</v>
       </c>
       <c r="M24">
-        <v>1.056479920677724</v>
+        <v>1.034104651887423</v>
       </c>
       <c r="N24">
-        <v>1.017488675410068</v>
+        <v>1.01159989306202</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035905974987697</v>
+        <v>1.002826971414799</v>
       </c>
       <c r="D25">
-        <v>1.044111649804533</v>
+        <v>1.018011268155872</v>
       </c>
       <c r="E25">
-        <v>1.044546777119997</v>
+        <v>1.018256829304058</v>
       </c>
       <c r="F25">
-        <v>1.05453765349606</v>
+        <v>1.026655915481415</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035339962114484</v>
+        <v>1.046130723880349</v>
       </c>
       <c r="J25">
-        <v>1.041498142212015</v>
+        <v>1.027259569807645</v>
       </c>
       <c r="K25">
-        <v>1.047138285013327</v>
+        <v>1.030336271531979</v>
       </c>
       <c r="L25">
-        <v>1.047572069128958</v>
+        <v>1.030578191327672</v>
       </c>
       <c r="M25">
-        <v>1.057532437058712</v>
+        <v>1.038854059832844</v>
       </c>
       <c r="N25">
-        <v>1.017767557172239</v>
+        <v>1.012908329361236</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008311874287441</v>
+        <v>1.026325649941825</v>
       </c>
       <c r="D2">
-        <v>1.022487730133878</v>
+        <v>1.040155528817596</v>
       </c>
       <c r="E2">
-        <v>1.022722404122427</v>
+        <v>1.038471299640841</v>
       </c>
       <c r="F2">
-        <v>1.031484086825768</v>
+        <v>1.047799709233575</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047138639092101</v>
+        <v>1.060134955663568</v>
       </c>
       <c r="J2">
-        <v>1.030246789287171</v>
+        <v>1.047746497924527</v>
       </c>
       <c r="K2">
-        <v>1.033642418710585</v>
+        <v>1.051082404949723</v>
       </c>
       <c r="L2">
-        <v>1.033874002101713</v>
+        <v>1.049419475248972</v>
       </c>
       <c r="M2">
-        <v>1.042521554665659</v>
+        <v>1.058630985738245</v>
       </c>
       <c r="N2">
-        <v>1.013915244971768</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.019362925880288</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.054974740614123</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.047189917882895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01219326624053</v>
+        <v>1.030585311876285</v>
       </c>
       <c r="D3">
-        <v>1.025667537807006</v>
+        <v>1.043335686422987</v>
       </c>
       <c r="E3">
-        <v>1.025895415608838</v>
+        <v>1.04181986973628</v>
       </c>
       <c r="F3">
-        <v>1.034913784610079</v>
+        <v>1.050962748387915</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047829303654518</v>
+        <v>1.061215086542906</v>
       </c>
       <c r="J3">
-        <v>1.032356960911172</v>
+        <v>1.050275547946563</v>
       </c>
       <c r="K3">
-        <v>1.035982202388478</v>
+        <v>1.053442552721527</v>
       </c>
       <c r="L3">
-        <v>1.036207343559249</v>
+        <v>1.051944222283082</v>
       </c>
       <c r="M3">
-        <v>1.045118607062493</v>
+        <v>1.060982573541064</v>
       </c>
       <c r="N3">
-        <v>1.014626223777986</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.020236976736035</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.056835826005047</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.048856078179159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014660262318178</v>
+        <v>1.033288747748408</v>
       </c>
       <c r="D4">
-        <v>1.027693941900291</v>
+        <v>1.045360334158851</v>
       </c>
       <c r="E4">
-        <v>1.027917917946031</v>
+        <v>1.043950827740845</v>
       </c>
       <c r="F4">
-        <v>1.037099479033258</v>
+        <v>1.052976744601487</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048257581152006</v>
+        <v>1.061885617914303</v>
       </c>
       <c r="J4">
-        <v>1.03369624875846</v>
+        <v>1.051877623466425</v>
       </c>
       <c r="K4">
-        <v>1.037469231430282</v>
+        <v>1.05494046961568</v>
       </c>
       <c r="L4">
-        <v>1.037690681584144</v>
+        <v>1.05354623596922</v>
       </c>
       <c r="M4">
-        <v>1.046769851952345</v>
+        <v>1.062475218122278</v>
       </c>
       <c r="N4">
-        <v>1.015077312784829</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.020790628950854</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.058017127204673</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.049916093765279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015687048299854</v>
+        <v>1.034418211132279</v>
       </c>
       <c r="D5">
-        <v>1.028538594686909</v>
+        <v>1.046210194862655</v>
       </c>
       <c r="E5">
-        <v>1.028761046736327</v>
+        <v>1.044843251864672</v>
       </c>
       <c r="F5">
-        <v>1.038010540223679</v>
+        <v>1.053820499853096</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048433228259754</v>
+        <v>1.062163092792443</v>
       </c>
       <c r="J5">
-        <v>1.034253180825516</v>
+        <v>1.052548191455328</v>
       </c>
       <c r="K5">
-        <v>1.038088084784504</v>
+        <v>1.055569707297402</v>
       </c>
       <c r="L5">
-        <v>1.038308095565627</v>
+        <v>1.054217179014047</v>
       </c>
       <c r="M5">
-        <v>1.04745721704452</v>
+        <v>1.063100594388213</v>
       </c>
       <c r="N5">
-        <v>1.015264854808569</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.021023223211621</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.058512058774721</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.050368078990899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015858852948324</v>
+        <v>1.034613464833844</v>
       </c>
       <c r="D6">
-        <v>1.028679996521197</v>
+        <v>1.046360227704157</v>
       </c>
       <c r="E6">
-        <v>1.028902199437532</v>
+        <v>1.044998562453143</v>
       </c>
       <c r="F6">
-        <v>1.038163060171066</v>
+        <v>1.053967417785564</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048462463784367</v>
+        <v>1.062212055444942</v>
       </c>
       <c r="J6">
-        <v>1.034346338502763</v>
+        <v>1.052666495545936</v>
       </c>
       <c r="K6">
-        <v>1.038191628523962</v>
+        <v>1.055682665817527</v>
       </c>
       <c r="L6">
-        <v>1.038411404159281</v>
+        <v>1.054335293352196</v>
       </c>
       <c r="M6">
-        <v>1.047572233871112</v>
+        <v>1.063210835594264</v>
       </c>
       <c r="N6">
-        <v>1.015296222447612</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.02106531083007</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.058599305182216</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.050456571632224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014674022493609</v>
+        <v>1.033320964952405</v>
       </c>
       <c r="D7">
-        <v>1.027705256398751</v>
+        <v>1.045392690383526</v>
       </c>
       <c r="E7">
-        <v>1.027929211626881</v>
+        <v>1.043978869591259</v>
       </c>
       <c r="F7">
-        <v>1.037111683049524</v>
+        <v>1.053003400333947</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048259945372419</v>
+        <v>1.061896809884198</v>
       </c>
       <c r="J7">
-        <v>1.033703714301075</v>
+        <v>1.051903292614645</v>
       </c>
       <c r="K7">
-        <v>1.037477525097724</v>
+        <v>1.054969647669805</v>
       </c>
       <c r="L7">
-        <v>1.037698955579802</v>
+        <v>1.053571140223564</v>
       </c>
       <c r="M7">
-        <v>1.046779063118688</v>
+        <v>1.062498789498452</v>
       </c>
       <c r="N7">
-        <v>1.015079826900994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.020802403340621</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.058035781928988</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.049956564697614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009633024814382</v>
+        <v>1.027798123832728</v>
       </c>
       <c r="D8">
-        <v>1.023568937753654</v>
+        <v>1.04126367333346</v>
       </c>
       <c r="E8">
-        <v>1.02380121078644</v>
+        <v>1.03963100186092</v>
       </c>
       <c r="F8">
-        <v>1.032650255418218</v>
+        <v>1.048895022038125</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047375945996401</v>
+        <v>1.060515384600697</v>
       </c>
       <c r="J8">
-        <v>1.030965436512032</v>
+        <v>1.048629582249731</v>
       </c>
       <c r="K8">
-        <v>1.0344388432464</v>
+        <v>1.051912271418781</v>
       </c>
       <c r="L8">
-        <v>1.034668149350239</v>
+        <v>1.050299627164027</v>
       </c>
       <c r="M8">
-        <v>1.043405400361045</v>
+        <v>1.059451036152445</v>
       </c>
       <c r="N8">
-        <v>1.014157409772617</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.019671908945875</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.05562374255997</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.04779932260775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000394082839856</v>
+        <v>1.017614282287658</v>
       </c>
       <c r="D9">
-        <v>1.016031910720787</v>
+        <v>1.03368885864467</v>
       </c>
       <c r="E9">
-        <v>1.016282753056765</v>
+        <v>1.031656984196107</v>
       </c>
       <c r="F9">
-        <v>1.024521053505351</v>
+        <v>1.041369140503459</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045672760983554</v>
+        <v>1.057846268054238</v>
       </c>
       <c r="J9">
-        <v>1.025932932696973</v>
+        <v>1.042560008497692</v>
       </c>
       <c r="K9">
-        <v>1.028870128148802</v>
+        <v>1.046258020673522</v>
       </c>
       <c r="L9">
-        <v>1.029117064501107</v>
+        <v>1.044256511025723</v>
       </c>
       <c r="M9">
-        <v>1.037228437983869</v>
+        <v>1.053824885208579</v>
       </c>
       <c r="N9">
-        <v>1.012461018069594</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.01757092196876</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.051171099131265</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.043798323016863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9939732566646716</v>
+        <v>1.010594038583344</v>
       </c>
       <c r="D10">
-        <v>1.010825959045458</v>
+        <v>1.028528257160014</v>
       </c>
       <c r="E10">
-        <v>1.011091982905553</v>
+        <v>1.026221809216674</v>
       </c>
       <c r="F10">
-        <v>1.018906077268699</v>
+        <v>1.0362735559636</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044435375038214</v>
+        <v>1.055947534417039</v>
       </c>
       <c r="J10">
-        <v>1.022428046175555</v>
+        <v>1.03839354699248</v>
       </c>
       <c r="K10">
-        <v>1.02500246038417</v>
+        <v>1.042400845826779</v>
       </c>
       <c r="L10">
-        <v>1.025263815096743</v>
+        <v>1.040133228522735</v>
       </c>
       <c r="M10">
-        <v>1.03294216566753</v>
+        <v>1.050017374348508</v>
       </c>
       <c r="N10">
-        <v>1.011278935042836</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.01614351461173</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.048208585402666</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.041087764274002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9911256663530059</v>
+        <v>1.008111310384512</v>
       </c>
       <c r="D11">
-        <v>1.008525338884014</v>
+        <v>1.026890034433252</v>
       </c>
       <c r="E11">
-        <v>1.008798642827184</v>
+        <v>1.024521472161656</v>
       </c>
       <c r="F11">
-        <v>1.016424666944403</v>
+        <v>1.034902923891415</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043874409128385</v>
+        <v>1.055382855742099</v>
       </c>
       <c r="J11">
-        <v>1.020872345538029</v>
+        <v>1.037150499675106</v>
       </c>
       <c r="K11">
-        <v>1.023288250982684</v>
+        <v>1.041322056749355</v>
       </c>
       <c r="L11">
-        <v>1.023556515529507</v>
+        <v>1.03899530623534</v>
       </c>
       <c r="M11">
-        <v>1.031043345814003</v>
+        <v>1.049195331370671</v>
       </c>
       <c r="N11">
-        <v>1.010754129600534</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.015834741423354</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.047989510883325</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.040357624418125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9900573507194721</v>
+        <v>1.007397625561735</v>
       </c>
       <c r="D12">
-        <v>1.007663507263313</v>
+        <v>1.026493009657679</v>
       </c>
       <c r="E12">
-        <v>1.007939625328121</v>
+        <v>1.024129180200245</v>
       </c>
       <c r="F12">
-        <v>1.015495101894019</v>
+        <v>1.034698776142851</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043662169889633</v>
+        <v>1.055270060573319</v>
       </c>
       <c r="J12">
-        <v>1.020288544577377</v>
+        <v>1.036892171142059</v>
       </c>
       <c r="K12">
-        <v>1.022645344739307</v>
+        <v>1.041129657680346</v>
       </c>
       <c r="L12">
-        <v>1.022916279228455</v>
+        <v>1.038808257346744</v>
       </c>
       <c r="M12">
-        <v>1.030331341734628</v>
+        <v>1.049190085703113</v>
       </c>
       <c r="N12">
-        <v>1.010557172956869</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.015835657961373</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.048308555942594</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.040221593870858</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9902869954260197</v>
+        <v>1.008026409239981</v>
       </c>
       <c r="D13">
-        <v>1.007848707559922</v>
+        <v>1.027055891956112</v>
       </c>
       <c r="E13">
-        <v>1.008124216944728</v>
+        <v>1.024743467843647</v>
       </c>
       <c r="F13">
-        <v>1.015694857933867</v>
+        <v>1.035410130391662</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043707872625764</v>
+        <v>1.05551595790329</v>
       </c>
       <c r="J13">
-        <v>1.020414044636706</v>
+        <v>1.037403525380167</v>
       </c>
       <c r="K13">
-        <v>1.022783533641651</v>
+        <v>1.041640116148482</v>
       </c>
       <c r="L13">
-        <v>1.023053890690176</v>
+        <v>1.039368998375982</v>
       </c>
       <c r="M13">
-        <v>1.030484376488614</v>
+        <v>1.04984711535296</v>
       </c>
       <c r="N13">
-        <v>1.010599513494827</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.016088752047365</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.049102304330894</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.040580025401504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9910375780224957</v>
+        <v>1.009075481085879</v>
       </c>
       <c r="D14">
-        <v>1.008454249930295</v>
+        <v>1.027886478823265</v>
       </c>
       <c r="E14">
-        <v>1.008727784222978</v>
+        <v>1.025629643927071</v>
       </c>
       <c r="F14">
-        <v>1.016347991115808</v>
+        <v>1.036323561026226</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043856944883867</v>
+        <v>1.055850571869559</v>
       </c>
       <c r="J14">
-        <v>1.020824210986207</v>
+        <v>1.038110645177221</v>
       </c>
       <c r="K14">
-        <v>1.023235235507903</v>
+        <v>1.04231729116943</v>
       </c>
       <c r="L14">
-        <v>1.023503718626122</v>
+        <v>1.040100241684862</v>
       </c>
       <c r="M14">
-        <v>1.030984629535707</v>
+        <v>1.050607621762363</v>
       </c>
       <c r="N14">
-        <v>1.010737890764313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.016380117383929</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.049875452849564</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.041060217677286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9914986181810169</v>
+        <v>1.009632084130256</v>
       </c>
       <c r="D15">
-        <v>1.008826370605072</v>
+        <v>1.028309680737985</v>
       </c>
       <c r="E15">
-        <v>1.009098702670698</v>
+        <v>1.026075677276746</v>
       </c>
       <c r="F15">
-        <v>1.016749356382701</v>
+        <v>1.03676031982364</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043948277425304</v>
+        <v>1.056014820318122</v>
       </c>
       <c r="J15">
-        <v>1.021076133333222</v>
+        <v>1.038460876065246</v>
       </c>
       <c r="K15">
-        <v>1.023512718594244</v>
+        <v>1.042647685769919</v>
       </c>
       <c r="L15">
-        <v>1.023780060911994</v>
+        <v>1.040452754105575</v>
       </c>
       <c r="M15">
-        <v>1.031291956332882</v>
+        <v>1.050952494317583</v>
       </c>
       <c r="N15">
-        <v>1.010822879540267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.016510978946312</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.050185310831884</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.041299638801005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9941607830920738</v>
+        <v>1.012497671215259</v>
       </c>
       <c r="D16">
-        <v>1.01097764006485</v>
+        <v>1.030400713058408</v>
       </c>
       <c r="E16">
-        <v>1.011243195974895</v>
+        <v>1.028271419748884</v>
       </c>
       <c r="F16">
-        <v>1.019069676928396</v>
+        <v>1.038812133736111</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044472066633435</v>
+        <v>1.056797212911893</v>
       </c>
       <c r="J16">
-        <v>1.022530471970949</v>
+        <v>1.040148835967973</v>
       </c>
       <c r="K16">
-        <v>1.025115374706111</v>
+        <v>1.044206810447494</v>
       </c>
       <c r="L16">
-        <v>1.025376285146074</v>
+        <v>1.042113085404028</v>
       </c>
       <c r="M16">
-        <v>1.033067259527793</v>
+        <v>1.052479556755635</v>
       </c>
       <c r="N16">
-        <v>1.011313485460176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.017074640074255</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.05135388436844</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.042405113650546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9958123335616438</v>
+        <v>1.014146756790782</v>
       </c>
       <c r="D17">
-        <v>1.012314438396666</v>
+        <v>1.031570804550023</v>
       </c>
       <c r="E17">
-        <v>1.012575935555644</v>
+        <v>1.029492426423025</v>
       </c>
       <c r="F17">
-        <v>1.02051151268293</v>
+        <v>1.039904472556565</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044793825180172</v>
+        <v>1.057218039169741</v>
       </c>
       <c r="J17">
-        <v>1.023432394258259</v>
+        <v>1.04107194475566</v>
       </c>
       <c r="K17">
-        <v>1.02610994191097</v>
+        <v>1.045047036276877</v>
       </c>
       <c r="L17">
-        <v>1.026366998442619</v>
+        <v>1.043002379130824</v>
       </c>
       <c r="M17">
-        <v>1.034169211294502</v>
+        <v>1.053247227404686</v>
       </c>
       <c r="N17">
-        <v>1.011617709970797</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.01735415314062</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.051832707992945</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.043001735987432</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9967691923354532</v>
+        <v>1.014883230231517</v>
       </c>
       <c r="D18">
-        <v>1.013089714024545</v>
+        <v>1.032025541391067</v>
       </c>
       <c r="E18">
-        <v>1.013348911664476</v>
+        <v>1.029957566521282</v>
       </c>
       <c r="F18">
-        <v>1.021347701712749</v>
+        <v>1.040229850347407</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044979079348819</v>
+        <v>1.057357841603827</v>
       </c>
       <c r="J18">
-        <v>1.023954813796134</v>
+        <v>1.041395523291563</v>
       </c>
       <c r="K18">
-        <v>1.026686263456321</v>
+        <v>1.045313457976685</v>
       </c>
       <c r="L18">
-        <v>1.026941136158905</v>
+        <v>1.043278481004912</v>
       </c>
       <c r="M18">
-        <v>1.034807846547795</v>
+        <v>1.053388506666816</v>
       </c>
       <c r="N18">
-        <v>1.011793914162743</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.017400361491034</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.051708958361833</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.043178569692984</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9970943743404698</v>
+        <v>1.014814356842281</v>
       </c>
       <c r="D19">
-        <v>1.013353316162742</v>
+        <v>1.031858800615239</v>
       </c>
       <c r="E19">
-        <v>1.013611741127533</v>
+        <v>1.029756344486422</v>
       </c>
       <c r="F19">
-        <v>1.021632014645099</v>
+        <v>1.039877386329573</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045041838043963</v>
+        <v>1.057254752169136</v>
       </c>
       <c r="J19">
-        <v>1.024132331817971</v>
+        <v>1.041197718491756</v>
       </c>
       <c r="K19">
-        <v>1.026882137994349</v>
+        <v>1.045087651034308</v>
       </c>
       <c r="L19">
-        <v>1.027136276845635</v>
+        <v>1.043018579752661</v>
       </c>
       <c r="M19">
-        <v>1.035024914493192</v>
+        <v>1.052980493424012</v>
       </c>
       <c r="N19">
-        <v>1.011853786277915</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.017249975176849</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.051064353086686</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.043025257447277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9956358096596375</v>
+        <v>1.012464075195265</v>
       </c>
       <c r="D20">
-        <v>1.012171475677772</v>
+        <v>1.029922159854317</v>
       </c>
       <c r="E20">
-        <v>1.012433401254037</v>
+        <v>1.027676077310432</v>
       </c>
       <c r="F20">
-        <v>1.02035731716164</v>
+        <v>1.037638027523302</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044759554701928</v>
+        <v>1.056466878716192</v>
       </c>
       <c r="J20">
-        <v>1.023336006333294</v>
+        <v>1.039522840931145</v>
       </c>
       <c r="K20">
-        <v>1.026003628253713</v>
+        <v>1.043458507173661</v>
       </c>
       <c r="L20">
-        <v>1.02626109162182</v>
+        <v>1.041249128286166</v>
       </c>
       <c r="M20">
-        <v>1.034051409738124</v>
+        <v>1.051049840405267</v>
       </c>
       <c r="N20">
-        <v>1.011585198839698</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.016539660153066</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.049015237241365</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.041877304684237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9908168465764912</v>
+        <v>1.00705728713113</v>
       </c>
       <c r="D21">
-        <v>1.008276136272005</v>
+        <v>1.025923665714507</v>
       </c>
       <c r="E21">
-        <v>1.008550249111983</v>
+        <v>1.023460998148532</v>
       </c>
       <c r="F21">
-        <v>1.01615587938266</v>
+        <v>1.033644812712293</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043813154442203</v>
+        <v>1.054954511471574</v>
       </c>
       <c r="J21">
-        <v>1.020703593196098</v>
+        <v>1.036262880950704</v>
       </c>
       <c r="K21">
-        <v>1.023102392958205</v>
+        <v>1.040430005499246</v>
       </c>
       <c r="L21">
-        <v>1.023371425023398</v>
+        <v>1.038011121611574</v>
       </c>
       <c r="M21">
-        <v>1.030837504553855</v>
+        <v>1.048015629185931</v>
       </c>
       <c r="N21">
-        <v>1.010697198500124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.015400427798801</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.046573515067677</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.039739290893652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9877254234211207</v>
+        <v>1.003601573316188</v>
       </c>
       <c r="D22">
-        <v>1.005784704530394</v>
+        <v>1.023379131678858</v>
       </c>
       <c r="E22">
-        <v>1.006067118372745</v>
+        <v>1.020785128296205</v>
       </c>
       <c r="F22">
-        <v>1.013468621788436</v>
+        <v>1.031125523133626</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043195667120784</v>
+        <v>1.053977688675643</v>
       </c>
       <c r="J22">
-        <v>1.019013976315953</v>
+        <v>1.034184499467033</v>
       </c>
       <c r="K22">
-        <v>1.021242429766502</v>
+        <v>1.038501247929459</v>
       </c>
       <c r="L22">
-        <v>1.021519335055386</v>
+        <v>1.035955774986936</v>
       </c>
       <c r="M22">
-        <v>1.028777902652878</v>
+        <v>1.046104606576616</v>
       </c>
       <c r="N22">
-        <v>1.010127147474512</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.014677256295313</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.045061079852028</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.038362180063944</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9893702465539613</v>
+        <v>1.005423512463754</v>
       </c>
       <c r="D23">
-        <v>1.007109573752715</v>
+        <v>1.024712271603583</v>
       </c>
       <c r="E23">
-        <v>1.007387525208145</v>
+        <v>1.022192174851916</v>
       </c>
       <c r="F23">
-        <v>1.014897630818377</v>
+        <v>1.032450218842472</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043525168099097</v>
+        <v>1.05449151007913</v>
       </c>
       <c r="J23">
-        <v>1.01991302460985</v>
+        <v>1.035274240752174</v>
       </c>
       <c r="K23">
-        <v>1.022231912643378</v>
+        <v>1.039507714302869</v>
       </c>
       <c r="L23">
-        <v>1.02250458624138</v>
+        <v>1.037033518791668</v>
       </c>
       <c r="M23">
-        <v>1.029873514496294</v>
+        <v>1.04710653955402</v>
       </c>
       <c r="N23">
-        <v>1.010430480016973</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.015053205040191</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.045854037221107</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.039064207658573</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.995715593149832</v>
+        <v>1.012465603447317</v>
       </c>
       <c r="D24">
-        <v>1.012236088126121</v>
+        <v>1.029894801939395</v>
       </c>
       <c r="E24">
-        <v>1.01249781990957</v>
+        <v>1.02765235714986</v>
       </c>
       <c r="F24">
-        <v>1.020427006319292</v>
+        <v>1.037593634209089</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044775047534575</v>
+        <v>1.056451462196138</v>
       </c>
       <c r="J24">
-        <v>1.023379571171132</v>
+        <v>1.039492102661608</v>
       </c>
       <c r="K24">
-        <v>1.026051678522667</v>
+        <v>1.043416511035894</v>
       </c>
       <c r="L24">
-        <v>1.026308957861071</v>
+        <v>1.04121066593666</v>
       </c>
       <c r="M24">
-        <v>1.034104651887423</v>
+        <v>1.050991231439606</v>
       </c>
       <c r="N24">
-        <v>1.01159989306202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.016513743247939</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.048928481364941</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.041820425761489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002826971414799</v>
+        <v>1.020328560083561</v>
       </c>
       <c r="D25">
-        <v>1.018011268155872</v>
+        <v>1.035714321127206</v>
       </c>
       <c r="E25">
-        <v>1.018256829304058</v>
+        <v>1.033780991343173</v>
       </c>
       <c r="F25">
-        <v>1.026655915481415</v>
+        <v>1.043372669793827</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046130723880349</v>
+        <v>1.058575795927344</v>
       </c>
       <c r="J25">
-        <v>1.027259569807645</v>
+        <v>1.044190633902123</v>
       </c>
       <c r="K25">
-        <v>1.030336271531979</v>
+        <v>1.047782408755168</v>
       </c>
       <c r="L25">
-        <v>1.030578191327672</v>
+        <v>1.045876594799907</v>
       </c>
       <c r="M25">
-        <v>1.038854059832844</v>
+        <v>1.055333025818876</v>
       </c>
       <c r="N25">
-        <v>1.012908329361236</v>
+        <v>1.018140423952273</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.052364673024401</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.044904444758285</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026325649941825</v>
+        <v>1.024440120676322</v>
       </c>
       <c r="D2">
-        <v>1.040155528817596</v>
+        <v>1.037416618710346</v>
       </c>
       <c r="E2">
-        <v>1.038471299640841</v>
+        <v>1.03682769882215</v>
       </c>
       <c r="F2">
-        <v>1.047799709233575</v>
+        <v>1.046001847757804</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.060134955663568</v>
+        <v>1.059310081827865</v>
       </c>
       <c r="J2">
-        <v>1.047746497924527</v>
+        <v>1.045913620328524</v>
       </c>
       <c r="K2">
-        <v>1.051082404949723</v>
+        <v>1.048378176231596</v>
       </c>
       <c r="L2">
-        <v>1.049419475248972</v>
+        <v>1.047796743420388</v>
       </c>
       <c r="M2">
-        <v>1.058630985738245</v>
+        <v>1.056855452101839</v>
       </c>
       <c r="N2">
-        <v>1.019362925880288</v>
+        <v>1.019107370811235</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.054974740614123</v>
+        <v>1.053569550976118</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.047189917882895</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.045286513716695</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024685419780111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030585311876285</v>
+        <v>1.028421011309799</v>
       </c>
       <c r="D3">
-        <v>1.043335686422987</v>
+        <v>1.040252256684857</v>
       </c>
       <c r="E3">
-        <v>1.04181986973628</v>
+        <v>1.03992544489919</v>
       </c>
       <c r="F3">
-        <v>1.050962748387915</v>
+        <v>1.048918294260218</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.061215086542906</v>
+        <v>1.060267093944922</v>
       </c>
       <c r="J3">
-        <v>1.050275547946563</v>
+        <v>1.048165775145099</v>
       </c>
       <c r="K3">
-        <v>1.053442552721527</v>
+        <v>1.050394759241689</v>
       </c>
       <c r="L3">
-        <v>1.051944222283082</v>
+        <v>1.050071739841683</v>
       </c>
       <c r="M3">
-        <v>1.060982573541064</v>
+        <v>1.058961297890581</v>
       </c>
       <c r="N3">
-        <v>1.020236976736035</v>
+        <v>1.01971860781091</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.056835826005047</v>
+        <v>1.055236155376594</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.048856078179159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.046709471332927</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025138030382593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033288747748408</v>
+        <v>1.030949535604256</v>
       </c>
       <c r="D4">
-        <v>1.045360334158851</v>
+        <v>1.042059608520572</v>
       </c>
       <c r="E4">
-        <v>1.043950827740845</v>
+        <v>1.041898835179828</v>
       </c>
       <c r="F4">
-        <v>1.052976744601487</v>
+        <v>1.050777149854565</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.061885617914303</v>
+        <v>1.0608600335525</v>
       </c>
       <c r="J4">
-        <v>1.051877623466425</v>
+        <v>1.049593367347902</v>
       </c>
       <c r="K4">
-        <v>1.05494046961568</v>
+        <v>1.05167558880548</v>
       </c>
       <c r="L4">
-        <v>1.05354623596922</v>
+        <v>1.051516568531461</v>
       </c>
       <c r="M4">
-        <v>1.062475218122278</v>
+        <v>1.060299058189518</v>
       </c>
       <c r="N4">
-        <v>1.020790628950854</v>
+        <v>1.020106200021116</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.058017127204673</v>
+        <v>1.056294881145427</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.049916093765279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.04761607488807</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025423195988721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034418211132279</v>
+        <v>1.032006082098426</v>
       </c>
       <c r="D5">
-        <v>1.046210194862655</v>
+        <v>1.042818800258819</v>
       </c>
       <c r="E5">
-        <v>1.044843251864672</v>
+        <v>1.042725503023708</v>
       </c>
       <c r="F5">
-        <v>1.053820499853096</v>
+        <v>1.05155618200607</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.062163092792443</v>
+        <v>1.061105090588421</v>
       </c>
       <c r="J5">
-        <v>1.052548191455328</v>
+        <v>1.050191042586192</v>
       </c>
       <c r="K5">
-        <v>1.055569707297402</v>
+        <v>1.052214160648933</v>
       </c>
       <c r="L5">
-        <v>1.054217179014047</v>
+        <v>1.05212185362367</v>
       </c>
       <c r="M5">
-        <v>1.063100594388213</v>
+        <v>1.060859759317146</v>
       </c>
       <c r="N5">
-        <v>1.021023223211621</v>
+        <v>1.02026908732301</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.058512058774721</v>
+        <v>1.056738628914049</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.050368078990899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.048004671525417</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025543324506865</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034613464833844</v>
+        <v>1.032188394895164</v>
       </c>
       <c r="D6">
-        <v>1.046360227704157</v>
+        <v>1.042952938032341</v>
       </c>
       <c r="E6">
-        <v>1.044998562453143</v>
+        <v>1.0428691033482</v>
       </c>
       <c r="F6">
-        <v>1.053967417785564</v>
+        <v>1.051691662325973</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.062212055444942</v>
+        <v>1.061148304856357</v>
       </c>
       <c r="J6">
-        <v>1.052666495545936</v>
+        <v>1.050296416907974</v>
       </c>
       <c r="K6">
-        <v>1.055682665817527</v>
+        <v>1.052311226718963</v>
       </c>
       <c r="L6">
-        <v>1.054335293352196</v>
+        <v>1.052228277732072</v>
       </c>
       <c r="M6">
-        <v>1.063210835594264</v>
+        <v>1.060958573478675</v>
       </c>
       <c r="N6">
-        <v>1.02106531083007</v>
+        <v>1.020298517089019</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.058599305182216</v>
+        <v>1.056816831982577</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.050456571632224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.048082804487441</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025565889200563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033320964952405</v>
+        <v>1.030987581436405</v>
       </c>
       <c r="D7">
-        <v>1.045392690383526</v>
+        <v>1.042095859385284</v>
       </c>
       <c r="E7">
-        <v>1.043978869591259</v>
+        <v>1.041931810045027</v>
       </c>
       <c r="F7">
-        <v>1.053003400333947</v>
+        <v>1.050807596601111</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.061896809884198</v>
+        <v>1.060873654895997</v>
       </c>
       <c r="J7">
-        <v>1.051903292614645</v>
+        <v>1.049624703308506</v>
       </c>
       <c r="K7">
-        <v>1.054969647669805</v>
+        <v>1.051708604424165</v>
       </c>
       <c r="L7">
-        <v>1.053571140223564</v>
+        <v>1.05154634313166</v>
       </c>
       <c r="M7">
-        <v>1.062498789498452</v>
+        <v>1.060326370879761</v>
       </c>
       <c r="N7">
-        <v>1.020802403340621</v>
+        <v>1.020143115935025</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.058035781928988</v>
+        <v>1.05631649684781</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.049956564697614</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047661276821147</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025434250713822</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027798123832728</v>
+        <v>1.02584175859402</v>
       </c>
       <c r="D8">
-        <v>1.04126367333346</v>
+        <v>1.038426451014814</v>
       </c>
       <c r="E8">
-        <v>1.03963100186092</v>
+        <v>1.037923044382589</v>
       </c>
       <c r="F8">
-        <v>1.048895022038125</v>
+        <v>1.04703021893411</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.060515384600697</v>
+        <v>1.059658797523145</v>
       </c>
       <c r="J8">
-        <v>1.048629582249731</v>
+        <v>1.046726009722923</v>
       </c>
       <c r="K8">
-        <v>1.051912271418781</v>
+        <v>1.049109902217368</v>
       </c>
       <c r="L8">
-        <v>1.050299627164027</v>
+        <v>1.048612704324051</v>
       </c>
       <c r="M8">
-        <v>1.059451036152445</v>
+        <v>1.057608702238925</v>
       </c>
       <c r="N8">
-        <v>1.019671908945875</v>
+        <v>1.019410945850946</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.05562374255997</v>
+        <v>1.054165687163575</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04779932260775</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.045828811440814</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024856975964281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017614282287658</v>
+        <v>1.016342407187659</v>
       </c>
       <c r="D9">
-        <v>1.03368885864467</v>
+        <v>1.031687954044771</v>
       </c>
       <c r="E9">
-        <v>1.031656984196107</v>
+        <v>1.03056361063886</v>
       </c>
       <c r="F9">
-        <v>1.041369140503459</v>
+        <v>1.040106236566488</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.057846268054238</v>
+        <v>1.057289641723393</v>
       </c>
       <c r="J9">
-        <v>1.042560008497692</v>
+        <v>1.04133098411969</v>
       </c>
       <c r="K9">
-        <v>1.046258020673522</v>
+        <v>1.044287016911627</v>
       </c>
       <c r="L9">
-        <v>1.044256511025723</v>
+        <v>1.043179540166914</v>
       </c>
       <c r="M9">
-        <v>1.053824885208579</v>
+        <v>1.052580484920845</v>
       </c>
       <c r="N9">
-        <v>1.01757092196876</v>
+        <v>1.017955479097808</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.051171099131265</v>
+        <v>1.050186253391604</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043798323016863</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.042415356187359</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023759412366981</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.010594038583344</v>
+        <v>1.009837833815473</v>
       </c>
       <c r="D10">
-        <v>1.028528257160014</v>
+        <v>1.027136274166212</v>
       </c>
       <c r="E10">
-        <v>1.026221809216674</v>
+        <v>1.025588120829636</v>
       </c>
       <c r="F10">
-        <v>1.0362735559636</v>
+        <v>1.03545542374504</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.055947534417039</v>
+        <v>1.055613955672628</v>
       </c>
       <c r="J10">
-        <v>1.03839354699248</v>
+        <v>1.037666495002304</v>
       </c>
       <c r="K10">
-        <v>1.042400845826779</v>
+        <v>1.041032270915117</v>
       </c>
       <c r="L10">
-        <v>1.040133228522735</v>
+        <v>1.039510248180233</v>
       </c>
       <c r="M10">
-        <v>1.050017374348508</v>
+        <v>1.04921272698701</v>
       </c>
       <c r="N10">
-        <v>1.01614351461173</v>
+        <v>1.017090762344092</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.048208585402666</v>
+        <v>1.047571806216274</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.041087764274002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.04013244017007</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023022293531815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.008111310384512</v>
+        <v>1.007526785996717</v>
       </c>
       <c r="D11">
-        <v>1.026890034433252</v>
+        <v>1.025695794929962</v>
       </c>
       <c r="E11">
-        <v>1.024521472161656</v>
+        <v>1.024030041539019</v>
       </c>
       <c r="F11">
-        <v>1.034902923891415</v>
+        <v>1.034226977537947</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.055382855742099</v>
+        <v>1.055122661696303</v>
       </c>
       <c r="J11">
-        <v>1.037150499675106</v>
+        <v>1.036589759886018</v>
       </c>
       <c r="K11">
-        <v>1.041322056749355</v>
+        <v>1.040148867619665</v>
       </c>
       <c r="L11">
-        <v>1.03899530623534</v>
+        <v>1.038512582172399</v>
       </c>
       <c r="M11">
-        <v>1.049195331370671</v>
+        <v>1.048531054481909</v>
       </c>
       <c r="N11">
-        <v>1.015834741423354</v>
+        <v>1.017105940394254</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.047989510883325</v>
+        <v>1.04746407619589</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.040357624418125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039543673196682</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022903944849631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.007397625561735</v>
+        <v>1.006836747778343</v>
       </c>
       <c r="D12">
-        <v>1.026493009657679</v>
+        <v>1.025330255448777</v>
       </c>
       <c r="E12">
-        <v>1.024129180200245</v>
+        <v>1.023650021124835</v>
       </c>
       <c r="F12">
-        <v>1.034698776142851</v>
+        <v>1.034041277368</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.055270060573319</v>
+        <v>1.055019886127126</v>
       </c>
       <c r="J12">
-        <v>1.036892171142059</v>
+        <v>1.036354556291951</v>
       </c>
       <c r="K12">
-        <v>1.041129657680346</v>
+        <v>1.039987742352596</v>
       </c>
       <c r="L12">
-        <v>1.038808257346744</v>
+        <v>1.038337729897624</v>
       </c>
       <c r="M12">
-        <v>1.049190085703113</v>
+        <v>1.048544122214973</v>
       </c>
       <c r="N12">
-        <v>1.015835657961373</v>
+        <v>1.017198700172538</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.048308555942594</v>
+        <v>1.047797776561243</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.040221593870858</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039429756070113</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022924948885676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.008026409239981</v>
+        <v>1.00736185316879</v>
       </c>
       <c r="D13">
-        <v>1.027055891956112</v>
+        <v>1.025786418441207</v>
       </c>
       <c r="E13">
-        <v>1.024743467843647</v>
+        <v>1.024164926531615</v>
       </c>
       <c r="F13">
-        <v>1.035410130391662</v>
+        <v>1.034666615573974</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.05551595790329</v>
+        <v>1.055221586087822</v>
       </c>
       <c r="J13">
-        <v>1.037403525380167</v>
+        <v>1.036766387090666</v>
       </c>
       <c r="K13">
-        <v>1.041640116148482</v>
+        <v>1.040393289030515</v>
       </c>
       <c r="L13">
-        <v>1.039368998375982</v>
+        <v>1.038800829321814</v>
       </c>
       <c r="M13">
-        <v>1.04984711535296</v>
+        <v>1.049116579764228</v>
       </c>
       <c r="N13">
-        <v>1.016088752047365</v>
+        <v>1.017330395901069</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.049102304330894</v>
+        <v>1.048524794457893</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.040580025401504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039713763955014</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02306297346311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.009075481085879</v>
+        <v>1.008282202771115</v>
       </c>
       <c r="D14">
-        <v>1.027886478823265</v>
+        <v>1.026481205097559</v>
       </c>
       <c r="E14">
-        <v>1.025629643927071</v>
+        <v>1.024932840920694</v>
       </c>
       <c r="F14">
-        <v>1.036323561026226</v>
+        <v>1.035473926566567</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.055850571869559</v>
+        <v>1.055501306975911</v>
       </c>
       <c r="J14">
-        <v>1.038110645177221</v>
+        <v>1.037349613649336</v>
       </c>
       <c r="K14">
-        <v>1.04231729116943</v>
+        <v>1.040936764160437</v>
       </c>
       <c r="L14">
-        <v>1.040100241684862</v>
+        <v>1.039415768436678</v>
       </c>
       <c r="M14">
-        <v>1.050607621762363</v>
+        <v>1.049772625497429</v>
       </c>
       <c r="N14">
-        <v>1.016380117383929</v>
+        <v>1.017442446811733</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.049875452849564</v>
+        <v>1.049215451640836</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.041060217677286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040099559385588</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023213847689315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.009632084130256</v>
+        <v>1.008779517926628</v>
       </c>
       <c r="D15">
-        <v>1.028309680737985</v>
+        <v>1.026840835018151</v>
       </c>
       <c r="E15">
-        <v>1.026075677276746</v>
+        <v>1.025325687957589</v>
       </c>
       <c r="F15">
-        <v>1.03676031982364</v>
+        <v>1.0358618963879</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.056014820318122</v>
+        <v>1.055640245701394</v>
       </c>
       <c r="J15">
-        <v>1.038460876065246</v>
+        <v>1.037642657455877</v>
       </c>
       <c r="K15">
-        <v>1.042647685769919</v>
+        <v>1.04120450475581</v>
       </c>
       <c r="L15">
-        <v>1.040452754105575</v>
+        <v>1.039715931264731</v>
       </c>
       <c r="M15">
-        <v>1.050952494317583</v>
+        <v>1.050069428693402</v>
       </c>
       <c r="N15">
-        <v>1.016510978946312</v>
+        <v>1.017485009782962</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.050185310831884</v>
+        <v>1.04948733258278</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.041299638801005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.04029525286768</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023280466949204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012497671215259</v>
+        <v>1.011388574621175</v>
       </c>
       <c r="D16">
-        <v>1.030400713058408</v>
+        <v>1.028648176491841</v>
       </c>
       <c r="E16">
-        <v>1.028271419748884</v>
+        <v>1.027297059067392</v>
       </c>
       <c r="F16">
-        <v>1.038812133736111</v>
+        <v>1.037701547841742</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.056797212911893</v>
+        <v>1.056312753931107</v>
       </c>
       <c r="J16">
-        <v>1.040148835967973</v>
+        <v>1.039082155147085</v>
       </c>
       <c r="K16">
-        <v>1.044206810447494</v>
+        <v>1.042483534886353</v>
       </c>
       <c r="L16">
-        <v>1.042113085404028</v>
+        <v>1.041155064091819</v>
       </c>
       <c r="M16">
-        <v>1.052479556755635</v>
+        <v>1.051387114875965</v>
       </c>
       <c r="N16">
-        <v>1.017074640074255</v>
+        <v>1.017653655919246</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.05135388436844</v>
+        <v>1.050490389719064</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042405113650546</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.04120299044655</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023559400115239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014146756790782</v>
+        <v>1.012917498946516</v>
       </c>
       <c r="D17">
-        <v>1.031570804550023</v>
+        <v>1.029678761761005</v>
       </c>
       <c r="E17">
-        <v>1.029492426423025</v>
+        <v>1.028415124702006</v>
       </c>
       <c r="F17">
-        <v>1.039904472556565</v>
+        <v>1.038692794248191</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.057218039169741</v>
+        <v>1.056681780478089</v>
       </c>
       <c r="J17">
-        <v>1.04107194475566</v>
+        <v>1.039888169956957</v>
       </c>
       <c r="K17">
-        <v>1.045047036276877</v>
+        <v>1.043185684105326</v>
       </c>
       <c r="L17">
-        <v>1.043002379130824</v>
+        <v>1.041942625182957</v>
       </c>
       <c r="M17">
-        <v>1.053247227404686</v>
+        <v>1.052054785547987</v>
       </c>
       <c r="N17">
-        <v>1.01735415314062</v>
+        <v>1.017753214444803</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.051832707992945</v>
+        <v>1.050890077920636</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.043001735987432</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041702235941944</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023695613804836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014883230231517</v>
+        <v>1.013631560438098</v>
       </c>
       <c r="D18">
-        <v>1.032025541391067</v>
+        <v>1.030099497357772</v>
       </c>
       <c r="E18">
-        <v>1.029957566521282</v>
+        <v>1.028865502979999</v>
       </c>
       <c r="F18">
-        <v>1.040229850347407</v>
+        <v>1.038997902050742</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.057357841603827</v>
+        <v>1.056811683942131</v>
       </c>
       <c r="J18">
-        <v>1.041395523291563</v>
+        <v>1.040189294365435</v>
       </c>
       <c r="K18">
-        <v>1.045313457976685</v>
+        <v>1.043418141675406</v>
       </c>
       <c r="L18">
-        <v>1.043278481004912</v>
+        <v>1.042203911752313</v>
       </c>
       <c r="M18">
-        <v>1.053388506666816</v>
+        <v>1.052175801348112</v>
       </c>
       <c r="N18">
-        <v>1.017400361491034</v>
+        <v>1.017753831199024</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.051708958361833</v>
+        <v>1.050750113460722</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.043178569692984</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041853913774038</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023707547722926</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014814356842281</v>
+        <v>1.013617895885731</v>
       </c>
       <c r="D19">
-        <v>1.031858800615239</v>
+        <v>1.029985326313085</v>
       </c>
       <c r="E19">
-        <v>1.029756344486422</v>
+        <v>1.028719703118469</v>
       </c>
       <c r="F19">
-        <v>1.039877386329573</v>
+        <v>1.038690384414361</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.057254752169136</v>
+        <v>1.05673213018898</v>
       </c>
       <c r="J19">
-        <v>1.041197718491756</v>
+        <v>1.040044445999589</v>
       </c>
       <c r="K19">
-        <v>1.045087651034308</v>
+        <v>1.043243917108516</v>
       </c>
       <c r="L19">
-        <v>1.043018579752661</v>
+        <v>1.041998463569561</v>
       </c>
       <c r="M19">
-        <v>1.052980493424012</v>
+        <v>1.051811948975062</v>
       </c>
       <c r="N19">
-        <v>1.017249975176849</v>
+        <v>1.01765348069306</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.051064353086686</v>
+        <v>1.050140128949406</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.043025257447277</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041737700014218</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023615606370203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.012464075195265</v>
+        <v>1.011541048194588</v>
       </c>
       <c r="D20">
-        <v>1.029922159854317</v>
+        <v>1.028344479367124</v>
       </c>
       <c r="E20">
-        <v>1.027676077310432</v>
+        <v>1.026893372813619</v>
       </c>
       <c r="F20">
-        <v>1.037638027523302</v>
+        <v>1.036680045049579</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.056466878716192</v>
+        <v>1.056061716963833</v>
       </c>
       <c r="J20">
-        <v>1.039522840931145</v>
+        <v>1.038634218254112</v>
       </c>
       <c r="K20">
-        <v>1.043458507173661</v>
+        <v>1.041906586319164</v>
       </c>
       <c r="L20">
-        <v>1.041249128286166</v>
+        <v>1.040479262622615</v>
       </c>
       <c r="M20">
-        <v>1.051049840405267</v>
+        <v>1.050107190553268</v>
       </c>
       <c r="N20">
-        <v>1.016539660153066</v>
+        <v>1.017255324185204</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.049015237241365</v>
+        <v>1.048269237497635</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.041877304684237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.040796462133625</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023225052178681</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.00705728713113</v>
+        <v>1.006670077264552</v>
       </c>
       <c r="D21">
-        <v>1.025923665714507</v>
+        <v>1.024928608823955</v>
       </c>
       <c r="E21">
-        <v>1.023460998148532</v>
+        <v>1.023157286214294</v>
       </c>
       <c r="F21">
-        <v>1.033644812712293</v>
+        <v>1.033130561231986</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.054954511471574</v>
+        <v>1.054778288699652</v>
       </c>
       <c r="J21">
-        <v>1.036262880950704</v>
+        <v>1.035891548332691</v>
       </c>
       <c r="K21">
-        <v>1.040430005499246</v>
+        <v>1.039452606816266</v>
       </c>
       <c r="L21">
-        <v>1.038011121611574</v>
+        <v>1.037712828316265</v>
       </c>
       <c r="M21">
-        <v>1.048015629185931</v>
+        <v>1.047510322447419</v>
       </c>
       <c r="N21">
-        <v>1.015400427798801</v>
+        <v>1.016936818761182</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.046573515067677</v>
+        <v>1.046173601888183</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.039739290893652</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.039064988013219</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022668410360096</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.003601573316188</v>
+        <v>1.003555032857611</v>
       </c>
       <c r="D22">
-        <v>1.023379131678858</v>
+        <v>1.022754493670861</v>
       </c>
       <c r="E22">
-        <v>1.020785128296205</v>
+        <v>1.020786037046009</v>
       </c>
       <c r="F22">
-        <v>1.031125523133626</v>
+        <v>1.030893441807567</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.053977688675643</v>
+        <v>1.053946288132061</v>
       </c>
       <c r="J22">
-        <v>1.034184499467033</v>
+        <v>1.034139980969806</v>
       </c>
       <c r="K22">
-        <v>1.038501247929459</v>
+        <v>1.037888266720508</v>
       </c>
       <c r="L22">
-        <v>1.035955774986936</v>
+        <v>1.035956666678809</v>
       </c>
       <c r="M22">
-        <v>1.046104606576616</v>
+        <v>1.045876769833357</v>
       </c>
       <c r="N22">
-        <v>1.014677256295313</v>
+        <v>1.016728117915504</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.045061079852028</v>
+        <v>1.044880763455155</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038362180063944</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037944236364328</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022314014908732</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.005423512463754</v>
+        <v>1.00518407454112</v>
       </c>
       <c r="D23">
-        <v>1.024712271603583</v>
+        <v>1.023881335887253</v>
       </c>
       <c r="E23">
-        <v>1.022192174851916</v>
+        <v>1.022020678788749</v>
       </c>
       <c r="F23">
-        <v>1.032450218842472</v>
+        <v>1.032059776012941</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.05449151007913</v>
+        <v>1.054378294603297</v>
       </c>
       <c r="J23">
-        <v>1.035274240752174</v>
+        <v>1.035044893810563</v>
       </c>
       <c r="K23">
-        <v>1.039507714302869</v>
+        <v>1.038691880825337</v>
       </c>
       <c r="L23">
-        <v>1.037033518791668</v>
+        <v>1.036865157081499</v>
       </c>
       <c r="M23">
-        <v>1.04710653955402</v>
+        <v>1.04672305169286</v>
       </c>
       <c r="N23">
-        <v>1.015053205040191</v>
+        <v>1.016789067872057</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.045854037221107</v>
+        <v>1.045550534461015</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.039064207658573</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.03850189318836</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022491257199413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.012465603447317</v>
+        <v>1.011550439102439</v>
       </c>
       <c r="D24">
-        <v>1.029894801939395</v>
+        <v>1.028324092358927</v>
       </c>
       <c r="E24">
-        <v>1.02765235714986</v>
+        <v>1.026877763446304</v>
       </c>
       <c r="F24">
-        <v>1.037593634209089</v>
+        <v>1.036642005356242</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.056451462196138</v>
+        <v>1.056049644382823</v>
       </c>
       <c r="J24">
-        <v>1.039492102661608</v>
+        <v>1.0386110013051</v>
       </c>
       <c r="K24">
-        <v>1.043416511035894</v>
+        <v>1.041871416007835</v>
       </c>
       <c r="L24">
-        <v>1.04121066593666</v>
+        <v>1.040448762394679</v>
       </c>
       <c r="M24">
-        <v>1.050991231439606</v>
+        <v>1.050054815639191</v>
       </c>
       <c r="N24">
-        <v>1.016513743247939</v>
+        <v>1.01723555707839</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.048928481364941</v>
+        <v>1.048187379208524</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.041820425761489</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.040741725910809</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02320611821594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020328560083561</v>
+        <v>1.018859138098315</v>
       </c>
       <c r="D25">
-        <v>1.035714321127206</v>
+        <v>1.033478836864791</v>
       </c>
       <c r="E25">
-        <v>1.033780991343173</v>
+        <v>1.032510424570891</v>
       </c>
       <c r="F25">
-        <v>1.043372669793827</v>
+        <v>1.041938524291614</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.058575795927344</v>
+        <v>1.057933201120427</v>
       </c>
       <c r="J25">
-        <v>1.044190633902123</v>
+        <v>1.042768069282425</v>
       </c>
       <c r="K25">
-        <v>1.047782408755168</v>
+        <v>1.045578752461533</v>
       </c>
       <c r="L25">
-        <v>1.045876594799907</v>
+        <v>1.044624182206566</v>
       </c>
       <c r="M25">
-        <v>1.055333025818876</v>
+        <v>1.053918902585964</v>
       </c>
       <c r="N25">
-        <v>1.018140423952273</v>
+        <v>1.018315084570007</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.052364673024401</v>
+        <v>1.051245506497574</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.044904444758285</v>
+        <v>1.043359798880455</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024058230582398</v>
       </c>
     </row>
   </sheetData>
